--- a/jarakdesa_test.xlsx
+++ b/jarakdesa_test.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Project\Podes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96954F1-7BD2-4062-AF51-D7D65CCD2ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B9B648-86F2-4824-8D2B-B2456D7E6FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5AB5F18D-76D4-47E6-B2AD-1D0608D6BCA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$204</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,33 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>idDesa1</t>
   </si>
   <si>
     <t>idDesa2</t>
-  </si>
-  <si>
-    <t>6110060001</t>
-  </si>
-  <si>
-    <t>6110060002</t>
-  </si>
-  <si>
-    <t>6110060003</t>
-  </si>
-  <si>
-    <t>6110060004</t>
-  </si>
-  <si>
-    <t>6110060009</t>
-  </si>
-  <si>
-    <t>6110060010</t>
-  </si>
-  <si>
-    <t>6110060011</t>
   </si>
   <si>
     <t>jarak</t>
@@ -61,12 +43,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -90,9 +78,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -409,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E029D901-01C6-4C45-82CB-76280F611D91}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -432,76 +423,1887 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>6110060001</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6110060009</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>6110060009</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6110060002</v>
+      </c>
+      <c r="C3" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>6110060002</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6110060003</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>6110060003</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6110060010</v>
+      </c>
+      <c r="C5" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>6110060010</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6110060011</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6110060003</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6110060101</v>
+      </c>
+      <c r="C7" s="2">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6110060101</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6110060004</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>6110060005</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6110060101</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>6110060005</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6110060013</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>6110060013</v>
+      </c>
+      <c r="B11" s="1">
+        <v>6110060012</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>6110060005</v>
+      </c>
+      <c r="B12" s="1">
+        <v>6110060102</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>6110060102</v>
+      </c>
+      <c r="B13" s="1">
+        <v>6110060014</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>6110060014</v>
+      </c>
+      <c r="B14" s="1">
+        <v>6110060006</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>6110060014</v>
+      </c>
+      <c r="B15" s="1">
+        <v>6110060008</v>
+      </c>
+      <c r="C15" s="2">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>6110060008</v>
+      </c>
+      <c r="B16" s="1">
+        <v>6110060019</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>6110060102</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6110060103</v>
+      </c>
+      <c r="C17" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>6110060103</v>
+      </c>
+      <c r="B18" s="1">
+        <v>6110060103</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>6110060103</v>
+      </c>
+      <c r="B19" s="1">
+        <v>6110060015</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>6110060015</v>
+      </c>
+      <c r="B20" s="1">
+        <v>6110060018</v>
+      </c>
+      <c r="C20" s="2">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>6110060015</v>
+      </c>
+      <c r="B21" s="1">
+        <v>6110060016</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>6110060016</v>
+      </c>
+      <c r="B22" s="1">
+        <v>6110060007</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>6110060016</v>
+      </c>
+      <c r="B23" s="1">
+        <v>6110060103</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>6110060105</v>
+      </c>
+      <c r="B24" s="1">
+        <v>6110060103</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>6110060105</v>
+      </c>
+      <c r="B25" s="1">
+        <v>6110070101</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>6110060105</v>
+      </c>
+      <c r="B26" s="1">
+        <v>6110060017</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>6110060015</v>
+      </c>
+      <c r="B27" s="1">
+        <v>6110070007</v>
+      </c>
+      <c r="C27" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>6110070101</v>
+      </c>
+      <c r="B28" s="1">
+        <v>6110070102</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>6110070101</v>
+      </c>
+      <c r="B29" s="1">
+        <v>6110070006</v>
+      </c>
+      <c r="C29" s="2">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>6110070102</v>
+      </c>
+      <c r="B30" s="1">
+        <v>6110070001</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>6110070102</v>
+      </c>
+      <c r="B31" s="1">
+        <v>6110070010</v>
+      </c>
+      <c r="C31" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>6110070006</v>
+      </c>
+      <c r="B32" s="1">
+        <v>6110070016</v>
+      </c>
+      <c r="C32" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>6110070016</v>
+      </c>
+      <c r="B33" s="1">
+        <v>6110070007</v>
+      </c>
+      <c r="C33" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>6110070007</v>
+      </c>
+      <c r="B34" s="1">
+        <v>6110070103</v>
+      </c>
+      <c r="C34" s="2">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>6110070103</v>
+      </c>
+      <c r="B35" s="1">
+        <v>6110070017</v>
+      </c>
+      <c r="C35" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>6110070017</v>
+      </c>
+      <c r="B36" s="1">
+        <v>6110070104</v>
+      </c>
+      <c r="C36" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>6110070104</v>
+      </c>
+      <c r="B37" s="1">
+        <v>6110070019</v>
+      </c>
+      <c r="C37" s="2">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>6110070104</v>
+      </c>
+      <c r="B38" s="1">
+        <v>6110070018</v>
+      </c>
+      <c r="C38" s="2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>6110070018</v>
+      </c>
+      <c r="B39" s="1">
+        <v>6110070105</v>
+      </c>
+      <c r="C39" s="2">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>6110070105</v>
+      </c>
+      <c r="B40" s="1">
+        <v>6110070106</v>
+      </c>
+      <c r="C40" s="2">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>6110070106</v>
+      </c>
+      <c r="B41" s="1">
+        <v>6110070008</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>6110070106</v>
+      </c>
+      <c r="B42" s="1">
+        <v>6110070009</v>
+      </c>
+      <c r="C42" s="2">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>6110070009</v>
+      </c>
+      <c r="B43" s="1">
+        <v>6110070004</v>
+      </c>
+      <c r="C43" s="2">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>6110070004</v>
+      </c>
+      <c r="B44" s="1">
+        <v>6110070013</v>
+      </c>
+      <c r="C44" s="2">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>6110070013</v>
+      </c>
+      <c r="B45" s="1">
+        <v>6110070003</v>
+      </c>
+      <c r="C45" s="2">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>6110070003</v>
+      </c>
+      <c r="B46" s="1">
+        <v>6110070107</v>
+      </c>
+      <c r="C46" s="2">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>6110070107</v>
+      </c>
+      <c r="B47" s="1">
+        <v>6110070012</v>
+      </c>
+      <c r="C47" s="2">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>6110070107</v>
+      </c>
+      <c r="B48" s="1">
+        <v>6110070002</v>
+      </c>
+      <c r="C48" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>6110070002</v>
+      </c>
+      <c r="B49" s="1">
+        <v>6110070108</v>
+      </c>
+      <c r="C49" s="2">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>6110070108</v>
+      </c>
+      <c r="B50" s="1">
+        <v>6110070105</v>
+      </c>
+      <c r="C50" s="2">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>6110070108</v>
+      </c>
+      <c r="B51" s="1">
+        <v>6110070005</v>
+      </c>
+      <c r="C51" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>6110070005</v>
+      </c>
+      <c r="B52" s="1">
+        <v>6110070014</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>6110070005</v>
+      </c>
+      <c r="B53" s="1">
+        <v>6110070109</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>6110070109</v>
+      </c>
+      <c r="B54" s="1">
+        <v>6110070011</v>
+      </c>
+      <c r="C54" s="2">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>6110070109</v>
+      </c>
+      <c r="B55" s="1">
+        <v>6110070110</v>
+      </c>
+      <c r="C55" s="2">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>6110070110</v>
+      </c>
+      <c r="B56" s="1">
+        <v>6110070015</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>6110070015</v>
+      </c>
+      <c r="B57" s="1">
+        <v>6110070006</v>
+      </c>
+      <c r="C57" s="2">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>6110021001</v>
+      </c>
+      <c r="B58" s="1">
+        <v>6110021002</v>
+      </c>
+      <c r="C58" s="2">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>6110021001</v>
+      </c>
+      <c r="B59" s="1">
+        <v>6110021003</v>
+      </c>
+      <c r="C59" s="2">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>6110021001</v>
+      </c>
+      <c r="B60" s="1">
+        <v>6110020012</v>
+      </c>
+      <c r="C60" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>6110021003</v>
+      </c>
+      <c r="B61" s="1">
+        <v>6110021005</v>
+      </c>
+      <c r="C61" s="2">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>6110021003</v>
+      </c>
+      <c r="B62" s="1">
+        <v>6110021004</v>
+      </c>
+      <c r="C62" s="2">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>6110021004</v>
+      </c>
+      <c r="B63" s="1">
+        <v>6110021005</v>
+      </c>
+      <c r="C63" s="2">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>6110021004</v>
+      </c>
+      <c r="B64" s="1">
+        <v>6110020008</v>
+      </c>
+      <c r="C64" s="2">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>6110021004</v>
+      </c>
+      <c r="B65" s="1">
+        <v>6110021006</v>
+      </c>
+      <c r="C65" s="2">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>6110021005</v>
+      </c>
+      <c r="B66" s="1">
+        <v>6110021006</v>
+      </c>
+      <c r="C66" s="2">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>6110021006</v>
+      </c>
+      <c r="B67" s="1">
+        <v>6110021007</v>
+      </c>
+      <c r="C67" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>6110021007</v>
+      </c>
+      <c r="B68" s="1">
+        <v>6110021008</v>
+      </c>
+      <c r="C68" s="2">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>6110021008</v>
+      </c>
+      <c r="B69" s="1">
+        <v>6110021009</v>
+      </c>
+      <c r="C69" s="2">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>6110021009</v>
+      </c>
+      <c r="B70" s="1">
+        <v>6110021010</v>
+      </c>
+      <c r="C70" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>6110020003</v>
+      </c>
+      <c r="B71" s="1">
+        <v>6110020013</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>6110020013</v>
+      </c>
+      <c r="B72" s="1">
+        <v>6110020004</v>
+      </c>
+      <c r="C72" s="2">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>6110020004</v>
+      </c>
+      <c r="B73" s="1">
+        <v>6110020005</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>6110020004</v>
+      </c>
+      <c r="B74" s="1">
+        <v>6110020014</v>
+      </c>
+      <c r="C74" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>18.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>6110020005</v>
+      </c>
+      <c r="B75" s="1">
+        <v>6110020008</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>6110020003</v>
+      </c>
+      <c r="B76" s="1">
+        <v>6110020012</v>
+      </c>
+      <c r="C76" s="2">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>6110020008</v>
+      </c>
+      <c r="B77" s="1">
+        <v>6110020017</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>6110020008</v>
+      </c>
+      <c r="B78" s="1">
+        <v>6110020016</v>
+      </c>
+      <c r="C78" s="2">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>6110020016</v>
+      </c>
+      <c r="B79" s="1">
+        <v>6110020015</v>
+      </c>
+      <c r="C79" s="2">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>6110020005</v>
+      </c>
+      <c r="B80" s="1">
+        <v>6110020006</v>
+      </c>
+      <c r="C80" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>6110020006</v>
+      </c>
+      <c r="B81" s="1">
+        <v>6110020007</v>
+      </c>
+      <c r="C81" s="2">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>6110020007</v>
+      </c>
+      <c r="B82" s="1">
+        <v>6110030014</v>
+      </c>
+      <c r="C82" s="2">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>6110010008</v>
+      </c>
+      <c r="B83" s="1">
+        <v>6110020003</v>
+      </c>
+      <c r="C83" s="2">
         <v>10</v>
       </c>
     </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>6110010008</v>
+      </c>
+      <c r="B84" s="1">
+        <v>6110010018</v>
+      </c>
+      <c r="C84" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>6110010008</v>
+      </c>
+      <c r="B85" s="1">
+        <v>6110010016</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>6110030007</v>
+      </c>
+      <c r="B86" s="1">
+        <v>6110051001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>6110030013</v>
+      </c>
+      <c r="B87" s="1">
+        <v>6110030007</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>6110030004</v>
+      </c>
+      <c r="B88" s="1">
+        <v>6110030013</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>6110030012</v>
+      </c>
+      <c r="B89" s="1">
+        <v>6110030004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>6110030015</v>
+      </c>
+      <c r="B90" s="1">
+        <v>6110030004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>6110030003</v>
+      </c>
+      <c r="B91" s="1">
+        <v>6110030015</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>6110030010</v>
+      </c>
+      <c r="B92" s="1">
+        <v>6110030003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>6110030002</v>
+      </c>
+      <c r="B93" s="1">
+        <v>6110030010</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>6110030009</v>
+      </c>
+      <c r="B94" s="1">
+        <v>6110030002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>6110030001</v>
+      </c>
+      <c r="B95" s="1">
+        <v>6110030009</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>6110030016</v>
+      </c>
+      <c r="B96" s="1">
+        <v>6110030015</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>6110030005</v>
+      </c>
+      <c r="B97" s="1">
+        <v>6110030015</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>6110030014</v>
+      </c>
+      <c r="B98" s="1">
+        <v>6110030005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>6110030014</v>
+      </c>
+      <c r="B99" s="1">
+        <v>6110030018</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>6110030018</v>
+      </c>
+      <c r="B100" s="1">
+        <v>6110030006</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>6110030006</v>
+      </c>
+      <c r="B101" s="1">
+        <v>6110030017</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>6110051002</v>
+      </c>
+      <c r="B102" s="1">
+        <v>6110030011</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>6110030011</v>
+      </c>
+      <c r="B103" s="1">
+        <v>6110030008</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>6110050023</v>
+      </c>
+      <c r="B104" s="1">
+        <v>6110050101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>6110050101</v>
+      </c>
+      <c r="B105" s="1">
+        <v>6110050102</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>6110050102</v>
+      </c>
+      <c r="B106" s="1">
+        <v>6110050024</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>6110050102</v>
+      </c>
+      <c r="B107" s="1">
+        <v>6110050103</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>6110050103</v>
+      </c>
+      <c r="B108" s="1">
+        <v>6110050008</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>6110050103</v>
+      </c>
+      <c r="B109" s="1">
+        <v>6110050026</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>6110050104</v>
+      </c>
+      <c r="B110" s="1">
+        <v>6110050026</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>6110050104</v>
+      </c>
+      <c r="B111" s="1">
+        <v>6110050105</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>6110050105</v>
+      </c>
+      <c r="B112" s="1">
+        <v>6110050027</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>6110050105</v>
+      </c>
+      <c r="B113" s="1">
+        <v>6110050106</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>6110050106</v>
+      </c>
+      <c r="B114" s="1">
+        <v>6110050107</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>6110050107</v>
+      </c>
+      <c r="B115" s="1">
+        <v>6110050025</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>6110050108</v>
+      </c>
+      <c r="B116" s="1">
+        <v>6110050107</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>6110050108</v>
+      </c>
+      <c r="B117" s="1">
+        <v>6110050014</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>6110050109</v>
+      </c>
+      <c r="B118" s="1">
+        <v>6110050108</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>6110050109</v>
+      </c>
+      <c r="B119" s="1">
+        <v>6110050025</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>6110050109</v>
+      </c>
+      <c r="B120" s="1">
+        <v>6110050110</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>6110050110</v>
+      </c>
+      <c r="B121" s="1">
+        <v>6110050013</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>6110050110</v>
+      </c>
+      <c r="B122" s="1">
+        <v>6110050111</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>6110050111</v>
+      </c>
+      <c r="B123" s="1">
+        <v>6110050029</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>6110050111</v>
+      </c>
+      <c r="B124" s="1">
+        <v>6110050112</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>6110050112</v>
+      </c>
+      <c r="B125" s="1">
+        <v>6110050021</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>6110050112</v>
+      </c>
+      <c r="B126" s="1">
+        <v>6110050113</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>6110050113</v>
+      </c>
+      <c r="B127" s="1">
+        <v>6110050015</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>6110050015</v>
+      </c>
+      <c r="B128" s="1">
+        <v>6110050016</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>6110050113</v>
+      </c>
+      <c r="B129" s="1">
+        <v>6110050114</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>6110050114</v>
+      </c>
+      <c r="B130" s="1">
+        <v>6110050012</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>6110050012</v>
+      </c>
+      <c r="B131" s="1">
+        <v>6110050028</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>6110050114</v>
+      </c>
+      <c r="B132" s="1">
+        <v>6110050115</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>6110050115</v>
+      </c>
+      <c r="B133" s="1">
+        <v>6110050011</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>6110050011</v>
+      </c>
+      <c r="B134" s="1">
+        <v>6110050010</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>6110050115</v>
+      </c>
+      <c r="B135" s="1">
+        <v>6110050030</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>6110040101</v>
+      </c>
+      <c r="B136" s="1">
+        <v>6110050030</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>6110040101</v>
+      </c>
+      <c r="B137" s="1">
+        <v>6110040006</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>6110040101</v>
+      </c>
+      <c r="B138" s="1">
+        <v>6110040021</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>6110040021</v>
+      </c>
+      <c r="B139" s="1">
+        <v>6110040102</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>6110040102</v>
+      </c>
+      <c r="B140" s="1">
+        <v>6110040022</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>6110040102</v>
+      </c>
+      <c r="B141" s="1">
+        <v>6110040011</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>6110040011</v>
+      </c>
+      <c r="B142" s="1">
+        <v>6110040103</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>6110040103</v>
+      </c>
+      <c r="B143" s="1">
+        <v>6110040010</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>6110040103</v>
+      </c>
+      <c r="B144" s="1">
+        <v>6110040104</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>6110040104</v>
+      </c>
+      <c r="B145" s="1">
+        <v>6110040105</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>6110040020</v>
+      </c>
+      <c r="B146" s="1">
+        <v>6110040105</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>6110040104</v>
+      </c>
+      <c r="B147" s="1">
+        <v>6110040012</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>6110040012</v>
+      </c>
+      <c r="B148" s="1">
+        <v>6110040106</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>6110040106</v>
+      </c>
+      <c r="B149" s="1">
+        <v>6110040016</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>6110040106</v>
+      </c>
+      <c r="B150" s="1">
+        <v>6110040107</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>6110040107</v>
+      </c>
+      <c r="B151" s="1">
+        <v>6110040023</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>6110040107</v>
+      </c>
+      <c r="B152" s="1">
+        <v>6110040108</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>6110040108</v>
+      </c>
+      <c r="B153" s="1">
+        <v>6110040017</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>6110040016</v>
+      </c>
+      <c r="B154" s="1">
+        <v>6110040109</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>6110040109</v>
+      </c>
+      <c r="B155" s="1">
+        <v>6110040014</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>6110040109</v>
+      </c>
+      <c r="B156" s="1">
+        <v>6110040015</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>6110041101</v>
+      </c>
+      <c r="B157" s="1">
+        <v>6110040105</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>6110041101</v>
+      </c>
+      <c r="B158" s="1">
+        <v>6110041008</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>6110041101</v>
+      </c>
+      <c r="B159" s="1">
+        <v>6110041007</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>6110041007</v>
+      </c>
+      <c r="B160" s="1">
+        <v>6110041006</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>6110041007</v>
+      </c>
+      <c r="B161" s="1">
+        <v>6110041102</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>6110041102</v>
+      </c>
+      <c r="B162" s="1">
+        <v>6110041003</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>6110041003</v>
+      </c>
+      <c r="B163" s="1">
+        <v>6110041004</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>6110041004</v>
+      </c>
+      <c r="B164" s="1">
+        <v>6110041001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>6110041001</v>
+      </c>
+      <c r="B165" s="1">
+        <v>6110041002</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>6110041102</v>
+      </c>
+      <c r="B166" s="1">
+        <v>6110041005</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>6110041005</v>
+      </c>
+      <c r="B167" s="1">
+        <v>6110040009</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>6110040009</v>
+      </c>
+      <c r="B168" s="1">
+        <v>6110040019</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>6110040009</v>
+      </c>
+      <c r="B169" s="1">
+        <v>6110040110</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>6110040110</v>
+      </c>
+      <c r="B170" s="1">
+        <v>6110040018</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>6110040110</v>
+      </c>
+      <c r="B171" s="1">
+        <v>6110040003</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>6110040003</v>
+      </c>
+      <c r="B172" s="1">
+        <v>6110040001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>6110052003</v>
+      </c>
+      <c r="B173" s="1">
+        <v>6110052002</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>6110052002</v>
+      </c>
+      <c r="B174" s="1">
+        <v>6110052001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>6110052001</v>
+      </c>
+      <c r="B175" s="1">
+        <v>6110052004</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>6110052004</v>
+      </c>
+      <c r="B176" s="1">
+        <v>6110052005</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>6110052004</v>
+      </c>
+      <c r="B177" s="1">
+        <v>6110052006</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>6110052006</v>
+      </c>
+      <c r="B178" s="1">
+        <v>6110052007</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>6110052007</v>
+      </c>
+      <c r="B179" s="1">
+        <v>6110052010</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>6110052010</v>
+      </c>
+      <c r="B180" s="1">
+        <v>6110052101</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>6110052101</v>
+      </c>
+      <c r="B181" s="1">
+        <v>6110052102</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>6110052102</v>
+      </c>
+      <c r="B182" s="1">
+        <v>6110052013</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>6110052013</v>
+      </c>
+      <c r="B183" s="1">
+        <v>6110052011</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>6110052011</v>
+      </c>
+      <c r="B184" s="1">
+        <v>6110052012</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>6110052101</v>
+      </c>
+      <c r="B185" s="1">
+        <v>6110052008</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>6110052008</v>
+      </c>
+      <c r="B186" s="1">
+        <v>6110052009</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>6110052009</v>
+      </c>
+      <c r="B187" s="1">
+        <v>6110052015</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>6110052015</v>
+      </c>
+      <c r="B188" s="1">
+        <v>6110052103</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>6110052103</v>
+      </c>
+      <c r="B189" s="1">
+        <v>6110052018</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>6110052018</v>
+      </c>
+      <c r="B190" s="1">
+        <v>6110052016</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>6110052016</v>
+      </c>
+      <c r="B191" s="1">
+        <v>6110052019</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>6110051001</v>
+      </c>
+      <c r="B192" s="1">
+        <v>6110051102</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>6110051003</v>
+      </c>
+      <c r="B193" s="1">
+        <v>6110051102</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>6110051102</v>
+      </c>
+      <c r="B194" s="1">
+        <v>6110051008</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>6110051008</v>
+      </c>
+      <c r="B195" s="1">
+        <v>6110051101</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>6110051101</v>
+      </c>
+      <c r="B196" s="1">
+        <v>6110051012</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>6110051012</v>
+      </c>
+      <c r="B197" s="1">
+        <v>6110051005</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>6110051005</v>
+      </c>
+      <c r="B198" s="1">
+        <v>6110051006</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>6110051006</v>
+      </c>
+      <c r="B199" s="1">
+        <v>6110051007</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>6110051012</v>
+      </c>
+      <c r="B200" s="1">
+        <v>6110051011</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>6110051101</v>
+      </c>
+      <c r="B201" s="1">
+        <v>6110052103</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>6110052103</v>
+      </c>
+      <c r="B202" s="1">
+        <v>6110051011</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>6110052103</v>
+      </c>
+      <c r="B203" s="1">
+        <v>6110050104</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>6110051004</v>
+      </c>
+      <c r="B204" s="1">
+        <v>6110052103</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:C204" xr:uid="{E029D901-01C6-4C45-82CB-76280F611D91}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/jarakdesa_test.xlsx
+++ b/jarakdesa_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Project\Podes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B9B648-86F2-4824-8D2B-B2456D7E6FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6A1ED5-0FB4-4DE1-BFCB-13256E2DD883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5AB5F18D-76D4-47E6-B2AD-1D0608D6BCA0}"/>
   </bookViews>
@@ -78,7 +78,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -86,6 +86,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,8 +403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E029D901-01C6-4C45-82CB-76280F611D91}">
   <dimension ref="A1:C204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="H202" sqref="H202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,10 +428,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>6110060001</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>6110060009</v>
       </c>
       <c r="C2" s="2">
@@ -438,10 +439,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>6110060009</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>6110060002</v>
       </c>
       <c r="C3" s="2">
@@ -449,10 +450,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>6110060002</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>6110060003</v>
       </c>
       <c r="C4" s="2">
@@ -460,10 +461,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>6110060003</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>6110060010</v>
       </c>
       <c r="C5" s="2">
@@ -471,10 +472,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>6110060010</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>6110060011</v>
       </c>
       <c r="C6" s="2">
@@ -482,10 +483,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>6110060003</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>6110060101</v>
       </c>
       <c r="C7" s="2">
@@ -493,10 +494,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>6110060101</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>6110060004</v>
       </c>
       <c r="C8" s="2">
@@ -504,10 +505,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>6110060005</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>6110060101</v>
       </c>
       <c r="C9" s="2">
@@ -515,10 +516,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>6110060005</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>6110060013</v>
       </c>
       <c r="C10" s="2">
@@ -526,10 +527,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>6110060013</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>6110060012</v>
       </c>
       <c r="C11" s="2">
@@ -537,10 +538,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>6110060005</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>6110060102</v>
       </c>
       <c r="C12" s="2">
@@ -548,10 +549,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>6110060102</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>6110060014</v>
       </c>
       <c r="C13" s="2">
@@ -559,10 +560,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>6110060014</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>6110060006</v>
       </c>
       <c r="C14" s="2">
@@ -570,10 +571,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>6110060014</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <v>6110060008</v>
       </c>
       <c r="C15" s="2">
@@ -581,10 +582,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>6110060008</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <v>6110060019</v>
       </c>
       <c r="C16" s="2">
@@ -592,10 +593,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>6110060102</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <v>6110060103</v>
       </c>
       <c r="C17" s="2">
@@ -603,10 +604,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>6110060103</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="3">
         <v>6110060103</v>
       </c>
       <c r="C18" s="2">
@@ -614,10 +615,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>6110060103</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="3">
         <v>6110060015</v>
       </c>
       <c r="C19" s="2">
@@ -625,10 +626,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20" s="3">
         <v>6110060015</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="3">
         <v>6110060018</v>
       </c>
       <c r="C20" s="2">
@@ -636,10 +637,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21" s="3">
         <v>6110060015</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="3">
         <v>6110060016</v>
       </c>
       <c r="C21" s="2">
@@ -647,10 +648,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="A22" s="3">
         <v>6110060016</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="3">
         <v>6110060007</v>
       </c>
       <c r="C22" s="2">
@@ -658,10 +659,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="A23" s="3">
         <v>6110060016</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="3">
         <v>6110060103</v>
       </c>
       <c r="C23" s="2">
@@ -669,10 +670,10 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="A24" s="3">
         <v>6110060105</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="3">
         <v>6110060103</v>
       </c>
       <c r="C24" s="2">
@@ -680,10 +681,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="A25" s="3">
         <v>6110060105</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="3">
         <v>6110070101</v>
       </c>
       <c r="C25" s="2">
@@ -691,10 +692,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="A26" s="3">
         <v>6110060105</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="3">
         <v>6110060017</v>
       </c>
       <c r="C26" s="2">
@@ -702,10 +703,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27" s="3">
         <v>6110060015</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="3">
         <v>6110070007</v>
       </c>
       <c r="C27" s="2">
@@ -713,10 +714,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="A28" s="3">
         <v>6110070101</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="3">
         <v>6110070102</v>
       </c>
       <c r="C28" s="2">
@@ -724,10 +725,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="A29" s="3">
         <v>6110070101</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="3">
         <v>6110070006</v>
       </c>
       <c r="C29" s="2">
@@ -735,10 +736,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="A30" s="3">
         <v>6110070102</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="3">
         <v>6110070001</v>
       </c>
       <c r="C30" s="2">
@@ -746,10 +747,10 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="A31" s="3">
         <v>6110070102</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="3">
         <v>6110070010</v>
       </c>
       <c r="C31" s="2">
@@ -757,10 +758,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="A32" s="3">
         <v>6110070006</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="3">
         <v>6110070016</v>
       </c>
       <c r="C32" s="2">
@@ -768,10 +769,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="A33" s="3">
         <v>6110070016</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="3">
         <v>6110070007</v>
       </c>
       <c r="C33" s="2">
@@ -779,10 +780,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="A34" s="3">
         <v>6110070007</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="3">
         <v>6110070103</v>
       </c>
       <c r="C34" s="2">
@@ -790,10 +791,10 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="A35" s="3">
         <v>6110070103</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="3">
         <v>6110070017</v>
       </c>
       <c r="C35" s="2">
@@ -801,10 +802,10 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="A36" s="3">
         <v>6110070017</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="3">
         <v>6110070104</v>
       </c>
       <c r="C36" s="2">
@@ -812,10 +813,10 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="A37" s="3">
         <v>6110070104</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="3">
         <v>6110070019</v>
       </c>
       <c r="C37" s="2">
@@ -823,10 +824,10 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="A38" s="3">
         <v>6110070104</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="3">
         <v>6110070018</v>
       </c>
       <c r="C38" s="2">
@@ -834,10 +835,10 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+      <c r="A39" s="3">
         <v>6110070018</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="3">
         <v>6110070105</v>
       </c>
       <c r="C39" s="2">
@@ -845,10 +846,10 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+      <c r="A40" s="3">
         <v>6110070105</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="3">
         <v>6110070106</v>
       </c>
       <c r="C40" s="2">
@@ -856,10 +857,10 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="A41" s="3">
         <v>6110070106</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="3">
         <v>6110070008</v>
       </c>
       <c r="C41" s="2">
@@ -867,10 +868,10 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+      <c r="A42" s="3">
         <v>6110070106</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="3">
         <v>6110070009</v>
       </c>
       <c r="C42" s="2">
@@ -878,10 +879,10 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+      <c r="A43" s="3">
         <v>6110070009</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="3">
         <v>6110070004</v>
       </c>
       <c r="C43" s="2">
@@ -889,10 +890,10 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+      <c r="A44" s="3">
         <v>6110070004</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="3">
         <v>6110070013</v>
       </c>
       <c r="C44" s="2">
@@ -900,10 +901,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+      <c r="A45" s="3">
         <v>6110070013</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="3">
         <v>6110070003</v>
       </c>
       <c r="C45" s="2">
@@ -911,10 +912,10 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+      <c r="A46" s="3">
         <v>6110070003</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="3">
         <v>6110070107</v>
       </c>
       <c r="C46" s="2">
@@ -922,10 +923,10 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+      <c r="A47" s="3">
         <v>6110070107</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="3">
         <v>6110070012</v>
       </c>
       <c r="C47" s="2">
@@ -933,10 +934,10 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+      <c r="A48" s="3">
         <v>6110070107</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="3">
         <v>6110070002</v>
       </c>
       <c r="C48" s="2">
@@ -944,10 +945,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+      <c r="A49" s="3">
         <v>6110070002</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="3">
         <v>6110070108</v>
       </c>
       <c r="C49" s="2">
@@ -955,10 +956,10 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+      <c r="A50" s="3">
         <v>6110070108</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="3">
         <v>6110070105</v>
       </c>
       <c r="C50" s="2">
@@ -966,10 +967,10 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+      <c r="A51" s="3">
         <v>6110070108</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="3">
         <v>6110070005</v>
       </c>
       <c r="C51" s="2">
@@ -977,10 +978,10 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+      <c r="A52" s="3">
         <v>6110070005</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="3">
         <v>6110070014</v>
       </c>
       <c r="C52" s="2">
@@ -988,10 +989,10 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+      <c r="A53" s="3">
         <v>6110070005</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="3">
         <v>6110070109</v>
       </c>
       <c r="C53" s="2">
@@ -999,10 +1000,10 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
+      <c r="A54" s="3">
         <v>6110070109</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="3">
         <v>6110070011</v>
       </c>
       <c r="C54" s="2">
@@ -1010,10 +1011,10 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+      <c r="A55" s="3">
         <v>6110070109</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="3">
         <v>6110070110</v>
       </c>
       <c r="C55" s="2">
@@ -1021,10 +1022,10 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+      <c r="A56" s="3">
         <v>6110070110</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="3">
         <v>6110070015</v>
       </c>
       <c r="C56" s="2">
@@ -1032,10 +1033,10 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+      <c r="A57" s="3">
         <v>6110070015</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="3">
         <v>6110070006</v>
       </c>
       <c r="C57" s="2">
@@ -1043,10 +1044,10 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+      <c r="A58" s="3">
         <v>6110021001</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="3">
         <v>6110021002</v>
       </c>
       <c r="C58" s="2">
@@ -1054,10 +1055,10 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
+      <c r="A59" s="3">
         <v>6110021001</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="3">
         <v>6110021003</v>
       </c>
       <c r="C59" s="2">
@@ -1065,10 +1066,10 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
+      <c r="A60" s="3">
         <v>6110021001</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="3">
         <v>6110020012</v>
       </c>
       <c r="C60" s="2">
@@ -1076,10 +1077,10 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
+      <c r="A61" s="3">
         <v>6110021003</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="3">
         <v>6110021005</v>
       </c>
       <c r="C61" s="2">
@@ -1087,10 +1088,10 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
+      <c r="A62" s="3">
         <v>6110021003</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="3">
         <v>6110021004</v>
       </c>
       <c r="C62" s="2">
@@ -1098,10 +1099,10 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
+      <c r="A63" s="3">
         <v>6110021004</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="3">
         <v>6110021005</v>
       </c>
       <c r="C63" s="2">
@@ -1109,10 +1110,10 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
+      <c r="A64" s="3">
         <v>6110021004</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="3">
         <v>6110020008</v>
       </c>
       <c r="C64" s="2">
@@ -1120,10 +1121,10 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
+      <c r="A65" s="3">
         <v>6110021004</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="3">
         <v>6110021006</v>
       </c>
       <c r="C65" s="2">
@@ -1131,10 +1132,10 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
+      <c r="A66" s="3">
         <v>6110021005</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="3">
         <v>6110021006</v>
       </c>
       <c r="C66" s="2">
@@ -1142,10 +1143,10 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
+      <c r="A67" s="3">
         <v>6110021006</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="3">
         <v>6110021007</v>
       </c>
       <c r="C67" s="2">
@@ -1153,10 +1154,10 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
+      <c r="A68" s="3">
         <v>6110021007</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="3">
         <v>6110021008</v>
       </c>
       <c r="C68" s="2">
@@ -1164,10 +1165,10 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
+      <c r="A69" s="3">
         <v>6110021008</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="3">
         <v>6110021009</v>
       </c>
       <c r="C69" s="2">
@@ -1175,10 +1176,10 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
+      <c r="A70" s="3">
         <v>6110021009</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="3">
         <v>6110021010</v>
       </c>
       <c r="C70" s="2">
@@ -1186,10 +1187,10 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
+      <c r="A71" s="3">
         <v>6110020003</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="3">
         <v>6110020013</v>
       </c>
       <c r="C71" s="2">
@@ -1197,10 +1198,10 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
+      <c r="A72" s="3">
         <v>6110020013</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="3">
         <v>6110020004</v>
       </c>
       <c r="C72" s="2">
@@ -1208,10 +1209,10 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
+      <c r="A73" s="3">
         <v>6110020004</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="3">
         <v>6110020005</v>
       </c>
       <c r="C73" s="2">
@@ -1219,10 +1220,10 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
+      <c r="A74" s="3">
         <v>6110020004</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="3">
         <v>6110020014</v>
       </c>
       <c r="C74" s="2">
@@ -1230,10 +1231,10 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
+      <c r="A75" s="3">
         <v>6110020005</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="3">
         <v>6110020008</v>
       </c>
       <c r="C75" s="2">
@@ -1241,10 +1242,10 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
+      <c r="A76" s="3">
         <v>6110020003</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="3">
         <v>6110020012</v>
       </c>
       <c r="C76" s="2">
@@ -1252,10 +1253,10 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
+      <c r="A77" s="3">
         <v>6110020008</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="3">
         <v>6110020017</v>
       </c>
       <c r="C77" s="2">
@@ -1263,10 +1264,10 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
+      <c r="A78" s="3">
         <v>6110020008</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="3">
         <v>6110020016</v>
       </c>
       <c r="C78" s="2">
@@ -1274,10 +1275,10 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
+      <c r="A79" s="3">
         <v>6110020016</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="3">
         <v>6110020015</v>
       </c>
       <c r="C79" s="2">
@@ -1285,10 +1286,10 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
+      <c r="A80" s="3">
         <v>6110020005</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="3">
         <v>6110020006</v>
       </c>
       <c r="C80" s="2">
@@ -1296,10 +1297,10 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
+      <c r="A81" s="3">
         <v>6110020006</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="3">
         <v>6110020007</v>
       </c>
       <c r="C81" s="2">
@@ -1307,10 +1308,10 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
+      <c r="A82" s="3">
         <v>6110020007</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="3">
         <v>6110030014</v>
       </c>
       <c r="C82" s="2">
@@ -1318,10 +1319,10 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
+      <c r="A83" s="3">
         <v>6110010008</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="3">
         <v>6110020003</v>
       </c>
       <c r="C83" s="2">
@@ -1329,10 +1330,10 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
+      <c r="A84" s="3">
         <v>6110010008</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="3">
         <v>6110010018</v>
       </c>
       <c r="C84" s="2">
@@ -1340,10 +1341,10 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
+      <c r="A85" s="3">
         <v>6110010008</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="3">
         <v>6110010016</v>
       </c>
       <c r="C85" s="2">
@@ -1351,955 +1352,1312 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
+      <c r="A86" s="3">
         <v>6110030007</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="3">
         <v>6110051001</v>
       </c>
+      <c r="C86" s="2">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
+      <c r="A87" s="3">
         <v>6110030013</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="3">
         <v>6110030007</v>
       </c>
+      <c r="C87" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
+      <c r="A88" s="3">
         <v>6110030004</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="3">
         <v>6110030013</v>
       </c>
+      <c r="C88" s="2">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
+      <c r="A89" s="3">
         <v>6110030012</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="3">
         <v>6110030004</v>
       </c>
+      <c r="C89" s="2">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
+      <c r="A90" s="3">
         <v>6110030015</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="3">
         <v>6110030004</v>
       </c>
+      <c r="C90" s="2">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
+      <c r="A91" s="3">
         <v>6110030003</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="3">
         <v>6110030015</v>
       </c>
+      <c r="C91" s="2">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
+      <c r="A92" s="3">
         <v>6110030010</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="3">
         <v>6110030003</v>
       </c>
+      <c r="C92" s="2">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
+      <c r="A93" s="3">
         <v>6110030002</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="3">
         <v>6110030010</v>
       </c>
+      <c r="C93" s="2">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
+      <c r="A94" s="3">
         <v>6110030009</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="3">
         <v>6110030002</v>
       </c>
+      <c r="C94" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
+      <c r="A95" s="3">
         <v>6110030001</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="3">
         <v>6110030009</v>
       </c>
+      <c r="C95" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
+      <c r="A96" s="3">
         <v>6110030016</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="3">
         <v>6110030015</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
+      <c r="C96" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
         <v>6110030005</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="3">
         <v>6110030015</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
+      <c r="C97" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
         <v>6110030014</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="3">
         <v>6110030005</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
+      <c r="C98" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
         <v>6110030014</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="3">
         <v>6110030018</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
+      <c r="C99" s="2">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
         <v>6110030018</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="3">
         <v>6110030006</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
+      <c r="C100" s="2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
         <v>6110030006</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="3">
         <v>6110030017</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
+      <c r="C101" s="2">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
         <v>6110051002</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="3">
         <v>6110030011</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="1">
+      <c r="C102" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
         <v>6110030011</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="3">
         <v>6110030008</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
+      <c r="C103" s="2">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
         <v>6110050023</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="3">
         <v>6110050101</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="1">
+      <c r="C104" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
         <v>6110050101</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="3">
         <v>6110050102</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
+      <c r="C105" s="2">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="3">
         <v>6110050102</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="3">
         <v>6110050024</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
+      <c r="C106" s="2">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="3">
         <v>6110050102</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="3">
         <v>6110050103</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
+      <c r="C107" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="3">
         <v>6110050103</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="3">
         <v>6110050008</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
+      <c r="C108" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="3">
         <v>6110050103</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="3">
         <v>6110050026</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
+      <c r="C109" s="2">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="3">
         <v>6110050104</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="3">
         <v>6110050026</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="1">
+      <c r="C110" s="2">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="3">
         <v>6110050104</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="3">
         <v>6110050105</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="1">
+      <c r="C111" s="2">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="3">
         <v>6110050105</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="3">
         <v>6110050027</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="1">
+      <c r="C112" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="3">
         <v>6110050105</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="3">
         <v>6110050106</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
+      <c r="C113" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="3">
         <v>6110050106</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="3">
         <v>6110050107</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="1">
+      <c r="C114" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="3">
         <v>6110050107</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="3">
         <v>6110050025</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="1">
+      <c r="C115" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="3">
         <v>6110050108</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="3">
         <v>6110050107</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="1">
+      <c r="C116" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="3">
         <v>6110050108</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117" s="3">
         <v>6110050014</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="1">
+      <c r="C117" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="3">
         <v>6110050109</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118" s="3">
         <v>6110050108</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="1">
+      <c r="C118" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="3">
         <v>6110050109</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119" s="3">
         <v>6110050025</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="1">
+      <c r="C119" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="3">
         <v>6110050109</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120" s="3">
         <v>6110050110</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="1">
+      <c r="C120" s="2">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="3">
         <v>6110050110</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121" s="3">
         <v>6110050013</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="1">
+      <c r="C121" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="3">
         <v>6110050110</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122" s="3">
         <v>6110050111</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="1">
+      <c r="C122" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="3">
         <v>6110050111</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123" s="3">
         <v>6110050029</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="1">
+      <c r="C123" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="3">
         <v>6110050111</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124" s="3">
         <v>6110050112</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="1">
+      <c r="C124" s="2">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="3">
         <v>6110050112</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B125" s="3">
         <v>6110050021</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="1">
+      <c r="C125" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="3">
         <v>6110050112</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126" s="3">
         <v>6110050113</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="1">
+      <c r="C126" s="2">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="3">
         <v>6110050113</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127" s="3">
         <v>6110050015</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="1">
+      <c r="C127" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="3">
         <v>6110050015</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B128" s="3">
         <v>6110050016</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="1">
+      <c r="C128" s="2">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="3">
         <v>6110050113</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129" s="3">
         <v>6110050114</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="1">
+      <c r="C129" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="3">
         <v>6110050114</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B130" s="3">
         <v>6110050012</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="1">
+      <c r="C130" s="2">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="3">
         <v>6110050012</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131" s="3">
         <v>6110050028</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="1">
+      <c r="C131" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="3">
         <v>6110050114</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B132" s="3">
         <v>6110050115</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="1">
+      <c r="C132" s="2">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="3">
         <v>6110050115</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B133" s="3">
         <v>6110050011</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="1">
+      <c r="C133" s="2">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="3">
         <v>6110050011</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B134" s="3">
         <v>6110050010</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="1">
+      <c r="C134" s="2">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="3">
         <v>6110050115</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B135" s="3">
         <v>6110050030</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="1">
+      <c r="C135" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="3">
         <v>6110040101</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B136" s="3">
         <v>6110050030</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="1">
+      <c r="C136" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="3">
         <v>6110040101</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B137" s="3">
         <v>6110040006</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="1">
+      <c r="C137" s="2">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="3">
         <v>6110040101</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B138" s="3">
         <v>6110040021</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="1">
+      <c r="C138" s="2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="3">
         <v>6110040021</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B139" s="3">
         <v>6110040102</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="1">
+      <c r="C139" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="3">
         <v>6110040102</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B140" s="3">
         <v>6110040022</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="1">
+      <c r="C140" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="3">
         <v>6110040102</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B141" s="3">
         <v>6110040011</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="1">
+      <c r="C141" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="3">
         <v>6110040011</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B142" s="3">
         <v>6110040103</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="1">
+      <c r="C142" s="2">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="3">
         <v>6110040103</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143" s="3">
         <v>6110040010</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="1">
+      <c r="C143" s="2">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="3">
         <v>6110040103</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B144" s="3">
         <v>6110040104</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="1">
+      <c r="C144" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="3">
         <v>6110040104</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B145" s="3">
         <v>6110040105</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="1">
+      <c r="C145" s="2">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="3">
         <v>6110040020</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B146" s="3">
         <v>6110040105</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="1">
+      <c r="C146" s="2">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="3">
         <v>6110040104</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B147" s="3">
         <v>6110040012</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="1">
+      <c r="C147" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="3">
         <v>6110040012</v>
       </c>
-      <c r="B148" s="1">
+      <c r="B148" s="3">
         <v>6110040106</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="1">
+      <c r="C148" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="3">
         <v>6110040106</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B149" s="3">
         <v>6110040016</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="1">
+      <c r="C149" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="3">
         <v>6110040106</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B150" s="3">
         <v>6110040107</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="1">
+      <c r="C150" s="2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="3">
         <v>6110040107</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B151" s="3">
         <v>6110040023</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="1">
+      <c r="C151" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="3">
         <v>6110040107</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B152" s="3">
         <v>6110040108</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="1">
+      <c r="C152" s="2">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="3">
         <v>6110040108</v>
       </c>
-      <c r="B153" s="1">
+      <c r="B153" s="3">
         <v>6110040017</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="1">
+      <c r="C153" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="3">
         <v>6110040016</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B154" s="3">
         <v>6110040109</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="1">
+      <c r="C154" s="2">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="3">
         <v>6110040109</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B155" s="3">
         <v>6110040014</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="1">
+      <c r="C155" s="2">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="3">
         <v>6110040109</v>
       </c>
-      <c r="B156" s="1">
+      <c r="B156" s="3">
         <v>6110040015</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="1">
+      <c r="C156" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="3">
         <v>6110041101</v>
       </c>
-      <c r="B157" s="1">
+      <c r="B157" s="3">
         <v>6110040105</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="1">
+      <c r="C157" s="2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="3">
         <v>6110041101</v>
       </c>
-      <c r="B158" s="1">
+      <c r="B158" s="3">
         <v>6110041008</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="1">
+      <c r="C158" s="2">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="3">
         <v>6110041101</v>
       </c>
-      <c r="B159" s="1">
+      <c r="B159" s="3">
         <v>6110041007</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="1">
+      <c r="C159" s="2">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="3">
         <v>6110041007</v>
       </c>
-      <c r="B160" s="1">
+      <c r="B160" s="3">
         <v>6110041006</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="1">
+      <c r="C160" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="3">
         <v>6110041007</v>
       </c>
-      <c r="B161" s="1">
+      <c r="B161" s="3">
         <v>6110041102</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="1">
+      <c r="C161" s="2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="3">
         <v>6110041102</v>
       </c>
-      <c r="B162" s="1">
+      <c r="B162" s="3">
         <v>6110041003</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="1">
+      <c r="C162" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="3">
         <v>6110041003</v>
       </c>
-      <c r="B163" s="1">
+      <c r="B163" s="3">
         <v>6110041004</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="1">
+      <c r="C163" s="2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="3">
         <v>6110041004</v>
       </c>
-      <c r="B164" s="1">
+      <c r="B164" s="3">
         <v>6110041001</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="1">
+      <c r="C164" s="2">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="3">
         <v>6110041001</v>
       </c>
-      <c r="B165" s="1">
+      <c r="B165" s="3">
         <v>6110041002</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="1">
+      <c r="C165" s="2">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="3">
         <v>6110041102</v>
       </c>
-      <c r="B166" s="1">
+      <c r="B166" s="3">
         <v>6110041005</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="1">
+      <c r="C166" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="3">
         <v>6110041005</v>
       </c>
-      <c r="B167" s="1">
+      <c r="B167" s="3">
         <v>6110040009</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="1">
+      <c r="C167" s="2">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="3">
         <v>6110040009</v>
       </c>
-      <c r="B168" s="1">
+      <c r="B168" s="3">
         <v>6110040019</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="1">
+      <c r="C168" s="2">
+        <v>7.46</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="3">
         <v>6110040009</v>
       </c>
-      <c r="B169" s="1">
+      <c r="B169" s="3">
         <v>6110040110</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="1">
+      <c r="C169" s="2">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="3">
         <v>6110040110</v>
       </c>
-      <c r="B170" s="1">
+      <c r="B170" s="3">
         <v>6110040018</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="1">
+      <c r="C170" s="2">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="3">
         <v>6110040110</v>
       </c>
-      <c r="B171" s="1">
+      <c r="B171" s="3">
         <v>6110040003</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="1">
+      <c r="C171" s="2">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="3">
         <v>6110040003</v>
       </c>
-      <c r="B172" s="1">
+      <c r="B172" s="3">
         <v>6110040001</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="1">
+      <c r="C172" s="2">
+        <v>20.57</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="3">
         <v>6110052003</v>
       </c>
-      <c r="B173" s="1">
+      <c r="B173" s="3">
         <v>6110052002</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="1">
+      <c r="C173" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="3">
         <v>6110052002</v>
       </c>
-      <c r="B174" s="1">
+      <c r="B174" s="3">
         <v>6110052001</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="1">
+      <c r="C174" s="2">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="3">
         <v>6110052001</v>
       </c>
-      <c r="B175" s="1">
+      <c r="B175" s="3">
         <v>6110052004</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="1">
+      <c r="C175" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="3">
         <v>6110052004</v>
       </c>
-      <c r="B176" s="1">
+      <c r="B176" s="3">
         <v>6110052005</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="1">
+      <c r="C176" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="3">
         <v>6110052004</v>
       </c>
-      <c r="B177" s="1">
+      <c r="B177" s="3">
         <v>6110052006</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="1">
+      <c r="C177" s="2">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="3">
         <v>6110052006</v>
       </c>
-      <c r="B178" s="1">
+      <c r="B178" s="3">
         <v>6110052007</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="1">
+      <c r="C178" s="2">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="3">
         <v>6110052007</v>
       </c>
-      <c r="B179" s="1">
+      <c r="B179" s="3">
         <v>6110052010</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="1">
+      <c r="C179" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="3">
         <v>6110052010</v>
       </c>
-      <c r="B180" s="1">
+      <c r="B180" s="3">
         <v>6110052101</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" s="1">
+      <c r="C180" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="3">
         <v>6110052101</v>
       </c>
-      <c r="B181" s="1">
+      <c r="B181" s="3">
         <v>6110052102</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="1">
+      <c r="C181" s="2">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="3">
         <v>6110052102</v>
       </c>
-      <c r="B182" s="1">
+      <c r="B182" s="3">
         <v>6110052013</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="1">
+      <c r="C182" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="3">
         <v>6110052013</v>
       </c>
-      <c r="B183" s="1">
+      <c r="B183" s="3">
         <v>6110052011</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="1">
+      <c r="C183" s="2">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="3">
         <v>6110052011</v>
       </c>
-      <c r="B184" s="1">
+      <c r="B184" s="3">
         <v>6110052012</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="1">
+      <c r="C184" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="3">
         <v>6110052101</v>
       </c>
-      <c r="B185" s="1">
+      <c r="B185" s="3">
         <v>6110052008</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="1">
+      <c r="C185" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="3">
         <v>6110052008</v>
       </c>
-      <c r="B186" s="1">
+      <c r="B186" s="3">
         <v>6110052009</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="1">
+      <c r="C186" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="3">
         <v>6110052009</v>
       </c>
-      <c r="B187" s="1">
+      <c r="B187" s="3">
         <v>6110052015</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="1">
+      <c r="C187" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="3">
         <v>6110052015</v>
       </c>
-      <c r="B188" s="1">
+      <c r="B188" s="3">
         <v>6110052103</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="1">
+      <c r="C188" s="2">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="3">
         <v>6110052103</v>
       </c>
-      <c r="B189" s="1">
+      <c r="B189" s="3">
         <v>6110052018</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="1">
+      <c r="C189" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="3">
         <v>6110052018</v>
       </c>
-      <c r="B190" s="1">
+      <c r="B190" s="3">
         <v>6110052016</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="1">
+      <c r="C190" s="2">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="3">
         <v>6110052016</v>
       </c>
-      <c r="B191" s="1">
+      <c r="B191" s="3">
         <v>6110052019</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="1">
+      <c r="C191" s="2">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="3">
         <v>6110051001</v>
       </c>
-      <c r="B192" s="1">
+      <c r="B192" s="3">
         <v>6110051102</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" s="1">
+      <c r="C192" s="2">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="3">
         <v>6110051003</v>
       </c>
-      <c r="B193" s="1">
+      <c r="B193" s="3">
         <v>6110051102</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="1">
+      <c r="C193" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="3">
         <v>6110051102</v>
       </c>
-      <c r="B194" s="1">
+      <c r="B194" s="3">
         <v>6110051008</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" s="1">
+      <c r="C194" s="2">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="3">
         <v>6110051008</v>
       </c>
-      <c r="B195" s="1">
+      <c r="B195" s="3">
         <v>6110051101</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" s="1">
+      <c r="C195" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="3">
         <v>6110051101</v>
       </c>
-      <c r="B196" s="1">
+      <c r="B196" s="3">
         <v>6110051012</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" s="1">
+      <c r="C196" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="3">
         <v>6110051012</v>
       </c>
-      <c r="B197" s="1">
+      <c r="B197" s="3">
         <v>6110051005</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" s="1">
+      <c r="C197" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="3">
         <v>6110051005</v>
       </c>
-      <c r="B198" s="1">
+      <c r="B198" s="3">
         <v>6110051006</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" s="1">
+      <c r="C198" s="2">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="3">
         <v>6110051006</v>
       </c>
-      <c r="B199" s="1">
+      <c r="B199" s="3">
         <v>6110051007</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" s="1">
+      <c r="C199" s="2">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="3">
         <v>6110051012</v>
       </c>
-      <c r="B200" s="1">
+      <c r="B200" s="3">
         <v>6110051011</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" s="1">
+      <c r="C200" s="2">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="3">
         <v>6110051101</v>
       </c>
-      <c r="B201" s="1">
+      <c r="B201" s="3">
         <v>6110052103</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" s="1">
+      <c r="C201" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="3">
         <v>6110052103</v>
       </c>
-      <c r="B202" s="1">
+      <c r="B202" s="3">
         <v>6110051011</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" s="1">
+      <c r="C202" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="3">
         <v>6110052103</v>
       </c>
-      <c r="B203" s="1">
+      <c r="B203" s="3">
         <v>6110050104</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" s="1">
+      <c r="C203" s="2">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="3">
         <v>6110051004</v>
       </c>
-      <c r="B204" s="1">
+      <c r="B204" s="3">
         <v>6110052103</v>
+      </c>
+      <c r="C204" s="2">
+        <v>9.5</v>
       </c>
     </row>
   </sheetData>

--- a/jarakdesa_test.xlsx
+++ b/jarakdesa_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Project\Podes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6A1ED5-0FB4-4DE1-BFCB-13256E2DD883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBD03D8-D457-4D59-95A5-913F352C583D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5AB5F18D-76D4-47E6-B2AD-1D0608D6BCA0}"/>
   </bookViews>
@@ -54,8 +54,8 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,12 +66,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -83,10 +98,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E029D901-01C6-4C45-82CB-76280F611D91}">
-  <dimension ref="A1:C204"/>
+  <dimension ref="A1:C224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="H202" sqref="H202"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,7 +433,7 @@
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,8 +444,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
         <v>6110060001</v>
       </c>
       <c r="B2" s="3">
@@ -438,8 +455,8 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
         <v>6110060009</v>
       </c>
       <c r="B3" s="3">
@@ -449,8 +466,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
         <v>6110060002</v>
       </c>
       <c r="B4" s="3">
@@ -460,8 +477,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
         <v>6110060003</v>
       </c>
       <c r="B5" s="3">
@@ -471,8 +488,8 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
         <v>6110060010</v>
       </c>
       <c r="B6" s="3">
@@ -482,8 +499,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
         <v>6110060003</v>
       </c>
       <c r="B7" s="3">
@@ -493,8 +510,8 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
         <v>6110060101</v>
       </c>
       <c r="B8" s="3">
@@ -504,8 +521,8 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
         <v>6110060005</v>
       </c>
       <c r="B9" s="3">
@@ -515,8 +532,8 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
         <v>6110060005</v>
       </c>
       <c r="B10" s="3">
@@ -526,8 +543,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
         <v>6110060013</v>
       </c>
       <c r="B11" s="3">
@@ -537,8 +554,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
         <v>6110060005</v>
       </c>
       <c r="B12" s="3">
@@ -548,8 +565,8 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
         <v>6110060102</v>
       </c>
       <c r="B13" s="3">
@@ -559,8 +576,8 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
         <v>6110060014</v>
       </c>
       <c r="B14" s="3">
@@ -570,8 +587,8 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
         <v>6110060014</v>
       </c>
       <c r="B15" s="3">
@@ -581,8 +598,8 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
         <v>6110060008</v>
       </c>
       <c r="B16" s="3">
@@ -592,8 +609,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
         <v>6110060102</v>
       </c>
       <c r="B17" s="3">
@@ -603,19 +620,19 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
         <v>6110060103</v>
       </c>
       <c r="B18" s="3">
-        <v>6110060103</v>
+        <v>6110060104</v>
       </c>
       <c r="C18" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
         <v>6110060103</v>
       </c>
       <c r="B19" s="3">
@@ -625,8 +642,8 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
         <v>6110060015</v>
       </c>
       <c r="B20" s="3">
@@ -636,8 +653,8 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
         <v>6110060015</v>
       </c>
       <c r="B21" s="3">
@@ -647,8 +664,8 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
         <v>6110060016</v>
       </c>
       <c r="B22" s="3">
@@ -658,30 +675,30 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
         <v>6110060016</v>
       </c>
       <c r="B23" s="3">
-        <v>6110060103</v>
+        <v>6110060104</v>
       </c>
       <c r="C23" s="2">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
         <v>6110060105</v>
       </c>
       <c r="B24" s="3">
-        <v>6110060103</v>
+        <v>6110060104</v>
       </c>
       <c r="C24" s="2">
         <v>3.7</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
         <v>6110060105</v>
       </c>
       <c r="B25" s="3">
@@ -691,8 +708,8 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
         <v>6110060105</v>
       </c>
       <c r="B26" s="3">
@@ -702,8 +719,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
         <v>6110060015</v>
       </c>
       <c r="B27" s="3">
@@ -713,1950 +730,2170 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>6110060106</v>
+      </c>
+      <c r="B28" s="3">
+        <v>6110050101</v>
+      </c>
+      <c r="C28" s="2">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
         <v>6110070101</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B29" s="3">
         <v>6110070102</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C29" s="2">
         <v>4.3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
         <v>6110070101</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B30" s="3">
         <v>6110070006</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C30" s="2">
         <v>11.6</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
         <v>6110070102</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B31" s="3">
         <v>6110070001</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C31" s="2">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
         <v>6110070102</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B32" s="3">
         <v>6110070010</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C32" s="2">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
         <v>6110070006</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B33" s="3">
         <v>6110070016</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C33" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
         <v>6110070016</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B34" s="3">
         <v>6110070007</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C34" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
         <v>6110070007</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B35" s="3">
         <v>6110070103</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C35" s="2">
         <v>5.2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
         <v>6110070103</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B36" s="3">
         <v>6110070017</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C36" s="2">
         <v>4.5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
         <v>6110070017</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B37" s="3">
         <v>6110070104</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C37" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
         <v>6110070104</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B38" s="3">
         <v>6110070019</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C38" s="2">
         <v>6.6</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
         <v>6110070104</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B39" s="3">
         <v>6110070018</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C39" s="2">
         <v>5.5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
         <v>6110070018</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B40" s="3">
         <v>6110070105</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C40" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
         <v>6110070105</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B41" s="3">
         <v>6110070106</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C41" s="2">
         <v>6.3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
         <v>6110070106</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B42" s="3">
         <v>6110070008</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C42" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
         <v>6110070106</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B43" s="3">
         <v>6110070009</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C43" s="2">
         <v>7.6</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
         <v>6110070009</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B44" s="3">
         <v>6110070004</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C44" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
         <v>6110070004</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B45" s="3">
         <v>6110070013</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C45" s="2">
         <v>7.2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
+    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
         <v>6110070013</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B46" s="3">
         <v>6110070003</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C46" s="2">
         <v>5.3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
         <v>6110070003</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B47" s="3">
         <v>6110070107</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C47" s="2">
         <v>5.2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+    <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
         <v>6110070107</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B48" s="3">
         <v>6110070012</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C48" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
         <v>6110070107</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B49" s="3">
         <v>6110070002</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C49" s="2">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
+    <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
         <v>6110070002</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B50" s="3">
         <v>6110070108</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C50" s="2">
         <v>3.7</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+    <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
         <v>6110070108</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B51" s="3">
         <v>6110070105</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C51" s="2">
         <v>2.6</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
+    <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
         <v>6110070108</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B52" s="3">
         <v>6110070005</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C52" s="2">
         <v>2.5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
+    <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
         <v>6110070005</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B53" s="3">
         <v>6110070014</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C53" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
+    <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
         <v>6110070005</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B54" s="3">
         <v>6110070109</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C54" s="2">
         <v>1.2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
+    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
         <v>6110070109</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B55" s="3">
         <v>6110070011</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C55" s="2">
         <v>7.2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
+    <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
         <v>6110070109</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B56" s="3">
         <v>6110070110</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C56" s="2">
         <v>11.8</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
+    <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
         <v>6110070110</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B57" s="3">
         <v>6110070015</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C57" s="2">
         <v>0.35</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
+    <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
         <v>6110070015</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B58" s="3">
         <v>6110070006</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C58" s="2">
         <v>4.7</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
+    <row r="59" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="2">
         <v>6110021001</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B59" s="3">
         <v>6110021002</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C59" s="2">
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
+    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="2">
         <v>6110021001</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B60" s="3">
         <v>6110021003</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C60" s="2">
         <v>14.6</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
+    <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="2">
         <v>6110021001</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B61" s="3">
         <v>6110020012</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C61" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
+    <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="2">
         <v>6110021003</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B62" s="3">
         <v>6110021005</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C62" s="2">
         <v>13.9</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
+    <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="2">
         <v>6110021003</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B63" s="3">
         <v>6110021004</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C63" s="2">
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
+    <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="2">
         <v>6110021004</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B64" s="3">
         <v>6110021005</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C64" s="2">
         <v>5.9</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
+    <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="2">
         <v>6110021004</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B65" s="3">
         <v>6110020008</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C65" s="2">
         <v>6.3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
+    <row r="66" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="2">
         <v>6110021004</v>
-      </c>
-      <c r="B65" s="3">
-        <v>6110021006</v>
-      </c>
-      <c r="C65" s="2">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
-        <v>6110021005</v>
       </c>
       <c r="B66" s="3">
         <v>6110021006</v>
       </c>
       <c r="C66" s="2">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="2">
+        <v>6110021005</v>
+      </c>
+      <c r="B67" s="3">
+        <v>6110021006</v>
+      </c>
+      <c r="C67" s="2">
         <v>7.1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
+    <row r="68" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="2">
         <v>6110021006</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B68" s="3">
         <v>6110021007</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C68" s="2">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
+    <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="2">
         <v>6110021007</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B69" s="3">
         <v>6110021008</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C69" s="2">
         <v>11.2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
+    <row r="70" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="2">
         <v>6110021008</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B70" s="3">
         <v>6110021009</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C70" s="2">
         <v>13.1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
+    <row r="71" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="2">
         <v>6110021009</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B71" s="3">
         <v>6110021010</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C71" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="3">
+    <row r="72" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="2">
         <v>6110020003</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B72" s="3">
         <v>6110020013</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C72" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
+    <row r="73" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="2">
         <v>6110020013</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B73" s="3">
         <v>6110020004</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C73" s="2">
         <v>3.9</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="3">
+    <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="2">
         <v>6110020004</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B74" s="3">
         <v>6110020005</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C74" s="2">
         <v>1.4</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
+    <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="2">
         <v>6110020004</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B75" s="3">
         <v>6110020014</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C75" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="3">
+    <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="2">
         <v>6110020005</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B76" s="3">
         <v>6110020008</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C76" s="2">
         <v>0.3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
+    <row r="77" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="2">
         <v>6110020003</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B77" s="3">
         <v>6110020012</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C77" s="2">
         <v>5.6</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="3">
+    <row r="78" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="2">
         <v>6110020008</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B78" s="3">
         <v>6110020017</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C78" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
+    <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="2">
         <v>6110020008</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B79" s="3">
         <v>6110020016</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C79" s="2">
         <v>5.8</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="3">
+    <row r="80" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="2">
         <v>6110020016</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B80" s="3">
         <v>6110020015</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C80" s="2">
         <v>7.6</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
+    <row r="81" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="2">
         <v>6110020005</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B81" s="3">
         <v>6110020006</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C81" s="2">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="3">
+    <row r="82" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="2">
         <v>6110020006</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B82" s="3">
         <v>6110020007</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C82" s="2">
         <v>6.8</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
+    <row r="83" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="2">
         <v>6110020007</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B83" s="3">
         <v>6110030014</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C83" s="2">
         <v>12.1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="3">
+    <row r="84" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="2">
         <v>6110010008</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B84" s="3">
         <v>6110020003</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C84" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
+    <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="2">
         <v>6110010008</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B85" s="3">
         <v>6110010018</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C85" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="3">
+    <row r="86" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="2">
         <v>6110010008</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B86" s="3">
         <v>6110010016</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C86" s="2">
         <v>0.65</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="3">
+    <row r="87" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="2">
+        <v>6110010016</v>
+      </c>
+      <c r="B87" s="3">
+        <v>6110010007</v>
+      </c>
+      <c r="C87" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="2">
+        <v>6110010007</v>
+      </c>
+      <c r="B88" s="3">
+        <v>6110010014</v>
+      </c>
+      <c r="C88" s="2">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="2">
+        <v>6110010014</v>
+      </c>
+      <c r="B89" s="3">
+        <v>6110010006</v>
+      </c>
+      <c r="C89" s="2">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="2">
+        <v>6110010014</v>
+      </c>
+      <c r="B90" s="3">
+        <v>6110010005</v>
+      </c>
+      <c r="C90" s="2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="2">
+        <v>6110010005</v>
+      </c>
+      <c r="B91" s="3">
+        <v>6110010013</v>
+      </c>
+      <c r="C91" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="2">
+        <v>6110010006</v>
+      </c>
+      <c r="B92" s="3">
+        <v>6110010005</v>
+      </c>
+      <c r="C92" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="2">
+        <v>6110010006</v>
+      </c>
+      <c r="B93" s="3">
+        <v>6110010015</v>
+      </c>
+      <c r="C93" s="2">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="2">
+        <v>6110010009</v>
+      </c>
+      <c r="B94" s="3">
+        <v>6110010001</v>
+      </c>
+      <c r="C94" s="2">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="2">
+        <v>6110010001</v>
+      </c>
+      <c r="B95" s="3">
+        <v>6110010002</v>
+      </c>
+      <c r="C95" s="2">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="2">
+        <v>6110010002</v>
+      </c>
+      <c r="B96" s="3">
+        <v>6110010010</v>
+      </c>
+      <c r="C96" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="2">
+        <v>6110010010</v>
+      </c>
+      <c r="B97" s="3">
+        <v>6110010003</v>
+      </c>
+      <c r="C97" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="2">
+        <v>6110010003</v>
+      </c>
+      <c r="B98" s="3">
+        <v>6110010011</v>
+      </c>
+      <c r="C98" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="2">
+        <v>6110010003</v>
+      </c>
+      <c r="B99" s="3">
+        <v>6110010004</v>
+      </c>
+      <c r="C99" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="2">
+        <v>6110010004</v>
+      </c>
+      <c r="B100" s="3">
+        <v>6110010012</v>
+      </c>
+      <c r="C100" s="2">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="2">
+        <v>6110010012</v>
+      </c>
+      <c r="B101" s="3">
+        <v>6110010017</v>
+      </c>
+      <c r="C101" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="2">
+        <v>6110010017</v>
+      </c>
+      <c r="B102" s="3">
+        <v>6110010018</v>
+      </c>
+      <c r="C102" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="2">
+        <v>6110010018</v>
+      </c>
+      <c r="B103" s="3">
+        <v>6110010008</v>
+      </c>
+      <c r="C103" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="2">
         <v>6110030007</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B104" s="3">
         <v>6110051001</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C104" s="2">
         <v>1.6</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="3">
+    <row r="105" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="2">
         <v>6110030013</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B105" s="3">
         <v>6110030007</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C105" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
+    <row r="106" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="2">
         <v>6110030004</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B106" s="3">
         <v>6110030013</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C106" s="2">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="3">
+    <row r="107" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="2">
         <v>6110030012</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B107" s="3">
         <v>6110030004</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C107" s="2">
         <v>0.2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="3">
+    <row r="108" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="2">
         <v>6110030015</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B108" s="3">
         <v>6110030004</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C108" s="2">
         <v>11.1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="3">
+    <row r="109" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="2">
         <v>6110030003</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B109" s="3">
         <v>6110030015</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C109" s="2">
         <v>4.8</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="3">
+    <row r="110" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="2">
         <v>6110030010</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B110" s="3">
         <v>6110030003</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C110" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="3">
+    <row r="111" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="2">
         <v>6110030002</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B111" s="3">
         <v>6110030010</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C111" s="2">
         <v>1.8</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="3">
+    <row r="112" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="2">
         <v>6110030009</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B112" s="3">
         <v>6110030002</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C112" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="3">
+    <row r="113" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="2">
         <v>6110030001</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B113" s="3">
         <v>6110030009</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C113" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="3">
+    <row r="114" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="2">
         <v>6110030016</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B114" s="3">
         <v>6110030015</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C114" s="2">
         <v>1.2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="3">
+    <row r="115" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="2">
         <v>6110030005</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B115" s="3">
         <v>6110030015</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C115" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="3">
+    <row r="116" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="2">
         <v>6110030014</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B116" s="3">
         <v>6110030005</v>
-      </c>
-      <c r="C98" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="3">
-        <v>6110030014</v>
-      </c>
-      <c r="B99" s="3">
-        <v>6110030018</v>
-      </c>
-      <c r="C99" s="2">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="3">
-        <v>6110030018</v>
-      </c>
-      <c r="B100" s="3">
-        <v>6110030006</v>
-      </c>
-      <c r="C100" s="2">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="3">
-        <v>6110030006</v>
-      </c>
-      <c r="B101" s="3">
-        <v>6110030017</v>
-      </c>
-      <c r="C101" s="2">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="3">
-        <v>6110051002</v>
-      </c>
-      <c r="B102" s="3">
-        <v>6110030011</v>
-      </c>
-      <c r="C102" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="3">
-        <v>6110030011</v>
-      </c>
-      <c r="B103" s="3">
-        <v>6110030008</v>
-      </c>
-      <c r="C103" s="2">
-        <v>18.7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="3">
-        <v>6110050023</v>
-      </c>
-      <c r="B104" s="3">
-        <v>6110050101</v>
-      </c>
-      <c r="C104" s="2">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="3">
-        <v>6110050101</v>
-      </c>
-      <c r="B105" s="3">
-        <v>6110050102</v>
-      </c>
-      <c r="C105" s="2">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="3">
-        <v>6110050102</v>
-      </c>
-      <c r="B106" s="3">
-        <v>6110050024</v>
-      </c>
-      <c r="C106" s="2">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="3">
-        <v>6110050102</v>
-      </c>
-      <c r="B107" s="3">
-        <v>6110050103</v>
-      </c>
-      <c r="C107" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="3">
-        <v>6110050103</v>
-      </c>
-      <c r="B108" s="3">
-        <v>6110050008</v>
-      </c>
-      <c r="C108" s="2">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="3">
-        <v>6110050103</v>
-      </c>
-      <c r="B109" s="3">
-        <v>6110050026</v>
-      </c>
-      <c r="C109" s="2">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="3">
-        <v>6110050104</v>
-      </c>
-      <c r="B110" s="3">
-        <v>6110050026</v>
-      </c>
-      <c r="C110" s="2">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="3">
-        <v>6110050104</v>
-      </c>
-      <c r="B111" s="3">
-        <v>6110050105</v>
-      </c>
-      <c r="C111" s="2">
-        <v>4.45</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="3">
-        <v>6110050105</v>
-      </c>
-      <c r="B112" s="3">
-        <v>6110050027</v>
-      </c>
-      <c r="C112" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="3">
-        <v>6110050105</v>
-      </c>
-      <c r="B113" s="3">
-        <v>6110050106</v>
-      </c>
-      <c r="C113" s="2">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="3">
-        <v>6110050106</v>
-      </c>
-      <c r="B114" s="3">
-        <v>6110050107</v>
-      </c>
-      <c r="C114" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="3">
-        <v>6110050107</v>
-      </c>
-      <c r="B115" s="3">
-        <v>6110050025</v>
-      </c>
-      <c r="C115" s="2">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="3">
-        <v>6110050108</v>
-      </c>
-      <c r="B116" s="3">
-        <v>6110050107</v>
       </c>
       <c r="C116" s="2">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="3">
+    <row r="117" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="2">
+        <v>6110030014</v>
+      </c>
+      <c r="B117" s="3">
+        <v>6110030018</v>
+      </c>
+      <c r="C117" s="2">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="2">
+        <v>6110030018</v>
+      </c>
+      <c r="B118" s="3">
+        <v>6110030006</v>
+      </c>
+      <c r="C118" s="2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="2">
+        <v>6110030006</v>
+      </c>
+      <c r="B119" s="3">
+        <v>6110030017</v>
+      </c>
+      <c r="C119" s="2">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="2">
+        <v>6110051002</v>
+      </c>
+      <c r="B120" s="3">
+        <v>6110030011</v>
+      </c>
+      <c r="C120" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="2">
+        <v>6110030011</v>
+      </c>
+      <c r="B121" s="3">
+        <v>6110030008</v>
+      </c>
+      <c r="C121" s="2">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="2">
+        <v>6110050023</v>
+      </c>
+      <c r="B122" s="3">
+        <v>6110050101</v>
+      </c>
+      <c r="C122" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="2">
+        <v>6110050101</v>
+      </c>
+      <c r="B123" s="3">
+        <v>6110050102</v>
+      </c>
+      <c r="C123" s="2">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="2">
+        <v>6110050102</v>
+      </c>
+      <c r="B124" s="3">
+        <v>6110050024</v>
+      </c>
+      <c r="C124" s="2">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="2">
+        <v>6110050102</v>
+      </c>
+      <c r="B125" s="3">
+        <v>6110050103</v>
+      </c>
+      <c r="C125" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="2">
+        <v>6110050103</v>
+      </c>
+      <c r="B126" s="3">
+        <v>6110050008</v>
+      </c>
+      <c r="C126" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="2">
+        <v>6110050103</v>
+      </c>
+      <c r="B127" s="3">
+        <v>6110050026</v>
+      </c>
+      <c r="C127" s="2">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="2">
+        <v>6110050104</v>
+      </c>
+      <c r="B128" s="3">
+        <v>6110050026</v>
+      </c>
+      <c r="C128" s="2">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="2">
+        <v>6110050104</v>
+      </c>
+      <c r="B129" s="3">
+        <v>6110050105</v>
+      </c>
+      <c r="C129" s="2">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="2">
+        <v>6110050105</v>
+      </c>
+      <c r="B130" s="3">
+        <v>6110050027</v>
+      </c>
+      <c r="C130" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="2">
+        <v>6110050105</v>
+      </c>
+      <c r="B131" s="3">
+        <v>6110050106</v>
+      </c>
+      <c r="C131" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="2">
+        <v>6110050106</v>
+      </c>
+      <c r="B132" s="3">
+        <v>6110050107</v>
+      </c>
+      <c r="C132" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="2">
+        <v>6110050107</v>
+      </c>
+      <c r="B133" s="3">
+        <v>6110050025</v>
+      </c>
+      <c r="C133" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="2">
         <v>6110050108</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B134" s="3">
+        <v>6110050107</v>
+      </c>
+      <c r="C134" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="2">
+        <v>6110050108</v>
+      </c>
+      <c r="B135" s="3">
         <v>6110050014</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C135" s="2">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="3">
+    <row r="136" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="2">
         <v>6110050109</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B136" s="3">
         <v>6110050108</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C136" s="2">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="3">
+    <row r="137" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="2">
         <v>6110050109</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B137" s="3">
         <v>6110050025</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C137" s="2">
         <v>1.4</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="3">
+    <row r="138" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="2">
         <v>6110050109</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B138" s="3">
         <v>6110050110</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C138" s="2">
         <v>0.96</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="3">
+    <row r="139" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="2">
         <v>6110050110</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B139" s="3">
         <v>6110050013</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C139" s="2">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="3">
+    <row r="140" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="2">
         <v>6110050110</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B140" s="3">
         <v>6110050111</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C140" s="2">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="3">
+    <row r="141" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="2">
         <v>6110050111</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B141" s="3">
         <v>6110050029</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C141" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="3">
+    <row r="142" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="2">
         <v>6110050111</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B142" s="3">
         <v>6110050112</v>
       </c>
-      <c r="C124" s="2">
+      <c r="C142" s="2">
         <v>0.18</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="3">
+    <row r="143" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="2">
         <v>6110050112</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B143" s="3">
         <v>6110050021</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C143" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="3">
+    <row r="144" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="2">
         <v>6110050112</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B144" s="3">
         <v>6110050113</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C144" s="2">
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="3">
+    <row r="145" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="2">
         <v>6110050113</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B145" s="3">
         <v>6110050015</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C145" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="3">
+    <row r="146" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="2">
         <v>6110050015</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B146" s="3">
         <v>6110050016</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C146" s="2">
         <v>0.87</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="3">
+    <row r="147" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="2">
         <v>6110050113</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B147" s="3">
         <v>6110050114</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C147" s="2">
         <v>3.3</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="3">
+    <row r="148" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="2">
         <v>6110050114</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B148" s="3">
         <v>6110050012</v>
       </c>
-      <c r="C130" s="2">
+      <c r="C148" s="2">
         <v>6.1</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="3">
+    <row r="149" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="2">
         <v>6110050012</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B149" s="3">
         <v>6110050028</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C149" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="3">
+    <row r="150" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="2">
         <v>6110050114</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B150" s="3">
         <v>6110050115</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C150" s="2">
         <v>1.05</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="3">
+    <row r="151" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="2">
         <v>6110050115</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B151" s="3">
         <v>6110050011</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C151" s="2">
         <v>5.4</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="3">
+    <row r="152" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="2">
         <v>6110050011</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B152" s="3">
         <v>6110050010</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C152" s="2">
         <v>6.7</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="3">
+    <row r="153" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="2">
         <v>6110050115</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B153" s="3">
         <v>6110050030</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C153" s="2">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="3">
+    <row r="154" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="2">
         <v>6110040101</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B154" s="3">
         <v>6110050030</v>
       </c>
-      <c r="C136" s="2">
+      <c r="C154" s="2">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="3">
+    <row r="155" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="2">
         <v>6110040101</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B155" s="3">
         <v>6110040006</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C155" s="2">
         <v>8.9</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="3">
+    <row r="156" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="2">
         <v>6110040101</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B156" s="3">
         <v>6110040021</v>
       </c>
-      <c r="C138" s="2">
+      <c r="C156" s="2">
         <v>1.3</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="3">
+    <row r="157" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="2">
         <v>6110040021</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B157" s="3">
         <v>6110040102</v>
       </c>
-      <c r="C139" s="2">
+      <c r="C157" s="2">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="3">
+    <row r="158" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="2">
         <v>6110040102</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B158" s="3">
         <v>6110040022</v>
       </c>
-      <c r="C140" s="2">
+      <c r="C158" s="2">
         <v>1.8</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="3">
+    <row r="159" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="2">
         <v>6110040102</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B159" s="3">
         <v>6110040011</v>
       </c>
-      <c r="C141" s="2">
+      <c r="C159" s="2">
         <v>1.2</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="3">
+    <row r="160" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="2">
         <v>6110040011</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B160" s="3">
         <v>6110040103</v>
       </c>
-      <c r="C142" s="2">
+      <c r="C160" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="3">
+    <row r="161" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="2">
         <v>6110040103</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B161" s="3">
         <v>6110040010</v>
       </c>
-      <c r="C143" s="2">
+      <c r="C161" s="2">
         <v>8.5</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="3">
+    <row r="162" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="2">
         <v>6110040103</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B162" s="3">
         <v>6110040104</v>
       </c>
-      <c r="C144" s="2">
+      <c r="C162" s="2">
         <v>0.9</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="3">
+    <row r="163" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="2">
         <v>6110040104</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B163" s="3">
         <v>6110040105</v>
       </c>
-      <c r="C145" s="2">
+      <c r="C163" s="2">
         <v>8.5</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="3">
+    <row r="164" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="2">
         <v>6110040020</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B164" s="3">
         <v>6110040105</v>
       </c>
-      <c r="C146" s="2">
+      <c r="C164" s="2">
         <v>5.8</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="3">
+    <row r="165" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="2">
         <v>6110040104</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B165" s="3">
         <v>6110040012</v>
       </c>
-      <c r="C147" s="2">
+      <c r="C165" s="2">
         <v>0.3</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="3">
+    <row r="166" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="2">
         <v>6110040012</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B166" s="3">
         <v>6110040106</v>
       </c>
-      <c r="C148" s="2">
+      <c r="C166" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="3">
+    <row r="167" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="2">
         <v>6110040106</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B167" s="3">
         <v>6110040016</v>
       </c>
-      <c r="C149" s="2">
+      <c r="C167" s="2">
         <v>2.1</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="3">
+    <row r="168" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="2">
         <v>6110040106</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B168" s="3">
         <v>6110040107</v>
       </c>
-      <c r="C150" s="2">
+      <c r="C168" s="2">
         <v>1.3</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="3">
+    <row r="169" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="2">
         <v>6110040107</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B169" s="3">
         <v>6110040023</v>
       </c>
-      <c r="C151" s="2">
+      <c r="C169" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="3">
+    <row r="170" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="2">
         <v>6110040107</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B170" s="3">
         <v>6110040108</v>
       </c>
-      <c r="C152" s="2">
+      <c r="C170" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="3">
+    <row r="171" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="2">
         <v>6110040108</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B171" s="3">
         <v>6110040017</v>
       </c>
-      <c r="C153" s="2">
+      <c r="C171" s="2">
         <v>2.4</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="3">
+    <row r="172" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="2">
         <v>6110040016</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B172" s="3">
         <v>6110040109</v>
       </c>
-      <c r="C154" s="2">
+      <c r="C172" s="2">
         <v>4.8</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="3">
+    <row r="173" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="2">
         <v>6110040109</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B173" s="3">
         <v>6110040014</v>
       </c>
-      <c r="C155" s="2">
+      <c r="C173" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="3">
+    <row r="174" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="2">
         <v>6110040109</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B174" s="3">
         <v>6110040015</v>
       </c>
-      <c r="C156" s="2">
+      <c r="C174" s="2">
         <v>2.5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="3">
+    <row r="175" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="2">
         <v>6110041101</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B175" s="3">
         <v>6110040105</v>
       </c>
-      <c r="C157" s="2">
+      <c r="C175" s="2">
         <v>3.1</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="3">
+    <row r="176" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="2">
         <v>6110041101</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B176" s="3">
         <v>6110041008</v>
       </c>
-      <c r="C158" s="2">
+      <c r="C176" s="2">
         <v>3.7</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="3">
+    <row r="177" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="2">
         <v>6110041101</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B177" s="3">
         <v>6110041007</v>
       </c>
-      <c r="C159" s="2">
+      <c r="C177" s="2">
         <v>4.7</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="3">
+    <row r="178" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="2">
         <v>6110041007</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B178" s="3">
         <v>6110041006</v>
       </c>
-      <c r="C160" s="2">
+      <c r="C178" s="2">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="3">
+    <row r="179" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="2">
         <v>6110041007</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B179" s="3">
         <v>6110041102</v>
       </c>
-      <c r="C161" s="2">
+      <c r="C179" s="2">
         <v>2.7</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="3">
+    <row r="180" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="2">
         <v>6110041102</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B180" s="3">
         <v>6110041003</v>
       </c>
-      <c r="C162" s="2">
+      <c r="C180" s="2">
         <v>1.8</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="3">
+    <row r="181" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="2">
         <v>6110041003</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B181" s="3">
         <v>6110041004</v>
       </c>
-      <c r="C163" s="2">
+      <c r="C181" s="2">
         <v>5.5</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="3">
+    <row r="182" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="2">
         <v>6110041004</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B182" s="3">
         <v>6110041001</v>
       </c>
-      <c r="C164" s="2">
+      <c r="C182" s="2">
         <v>12.5</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="3">
+    <row r="183" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="2">
         <v>6110041001</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B183" s="3">
         <v>6110041002</v>
       </c>
-      <c r="C165" s="2">
+      <c r="C183" s="2">
         <v>5.4</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="3">
+    <row r="184" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="2">
         <v>6110041102</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B184" s="3">
         <v>6110041005</v>
       </c>
-      <c r="C166" s="2">
+      <c r="C184" s="2">
         <v>1.7</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="3">
+    <row r="185" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="2">
         <v>6110041005</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B185" s="3">
         <v>6110040009</v>
       </c>
-      <c r="C167" s="2">
+      <c r="C185" s="2">
         <v>11.8</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="3">
+    <row r="186" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="2">
         <v>6110040009</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B186" s="3">
         <v>6110040019</v>
       </c>
-      <c r="C168" s="2">
+      <c r="C186" s="2">
         <v>7.46</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="3">
+    <row r="187" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="2">
         <v>6110040009</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B187" s="3">
         <v>6110040110</v>
       </c>
-      <c r="C169" s="2">
+      <c r="C187" s="2">
         <v>2.97</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="3">
+    <row r="188" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="2">
         <v>6110040110</v>
       </c>
-      <c r="B170" s="3">
+      <c r="B188" s="3">
         <v>6110040018</v>
       </c>
-      <c r="C170" s="2">
+      <c r="C188" s="2">
         <v>5.19</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="3">
+    <row r="189" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="2">
         <v>6110040110</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B189" s="3">
         <v>6110040003</v>
       </c>
-      <c r="C171" s="2">
+      <c r="C189" s="2">
         <v>5.89</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="3">
+    <row r="190" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="2">
         <v>6110040003</v>
       </c>
-      <c r="B172" s="3">
+      <c r="B190" s="3">
         <v>6110040001</v>
       </c>
-      <c r="C172" s="2">
+      <c r="C190" s="2">
         <v>20.57</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="3">
+    <row r="191" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="2">
         <v>6110052003</v>
       </c>
-      <c r="B173" s="3">
+      <c r="B191" s="3">
         <v>6110052002</v>
       </c>
-      <c r="C173" s="2">
+      <c r="C191" s="2">
         <v>7.5</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="3">
+    <row r="192" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="2">
         <v>6110052002</v>
       </c>
-      <c r="B174" s="3">
+      <c r="B192" s="3">
         <v>6110052001</v>
       </c>
-      <c r="C174" s="2">
+      <c r="C192" s="2">
         <v>5.6</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="3">
+    <row r="193" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="2">
         <v>6110052001</v>
       </c>
-      <c r="B175" s="3">
+      <c r="B193" s="3">
         <v>6110052004</v>
       </c>
-      <c r="C175" s="2">
+      <c r="C193" s="2">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="3">
+    <row r="194" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="2">
         <v>6110052004</v>
       </c>
-      <c r="B176" s="3">
+      <c r="B194" s="3">
         <v>6110052005</v>
       </c>
-      <c r="C176" s="2">
+      <c r="C194" s="2">
         <v>2.4</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="3">
+    <row r="195" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="2">
         <v>6110052004</v>
       </c>
-      <c r="B177" s="3">
+      <c r="B195" s="3">
         <v>6110052006</v>
       </c>
-      <c r="C177" s="2">
+      <c r="C195" s="2">
         <v>12.5</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="3">
+    <row r="196" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="2">
         <v>6110052006</v>
       </c>
-      <c r="B178" s="3">
+      <c r="B196" s="3">
         <v>6110052007</v>
       </c>
-      <c r="C178" s="2">
+      <c r="C196" s="2">
         <v>8.9</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="3">
+    <row r="197" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="2">
         <v>6110052007</v>
       </c>
-      <c r="B179" s="3">
+      <c r="B197" s="3">
         <v>6110052010</v>
       </c>
-      <c r="C179" s="2">
+      <c r="C197" s="2">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="3">
+    <row r="198" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="2">
         <v>6110052010</v>
       </c>
-      <c r="B180" s="3">
+      <c r="B198" s="3">
         <v>6110052101</v>
       </c>
-      <c r="C180" s="2">
+      <c r="C198" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="3">
+    <row r="199" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="2">
         <v>6110052101</v>
       </c>
-      <c r="B181" s="3">
+      <c r="B199" s="3">
         <v>6110052102</v>
       </c>
-      <c r="C181" s="2">
+      <c r="C199" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="3">
+    <row r="200" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="2">
         <v>6110052102</v>
       </c>
-      <c r="B182" s="3">
+      <c r="B200" s="3">
         <v>6110052013</v>
       </c>
-      <c r="C182" s="2">
+      <c r="C200" s="2">
         <v>0.3</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="3">
+    <row r="201" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="2">
         <v>6110052013</v>
       </c>
-      <c r="B183" s="3">
+      <c r="B201" s="3">
         <v>6110052011</v>
       </c>
-      <c r="C183" s="2">
+      <c r="C201" s="2">
         <v>9.4</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="3">
+    <row r="202" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="2">
         <v>6110052011</v>
       </c>
-      <c r="B184" s="3">
+      <c r="B202" s="3">
         <v>6110052012</v>
       </c>
-      <c r="C184" s="2">
+      <c r="C202" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="3">
+    <row r="203" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="2">
         <v>6110052101</v>
       </c>
-      <c r="B185" s="3">
+      <c r="B203" s="3">
         <v>6110052008</v>
       </c>
-      <c r="C185" s="2">
+      <c r="C203" s="2">
         <v>0.9</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="3">
+    <row r="204" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="2">
         <v>6110052008</v>
       </c>
-      <c r="B186" s="3">
+      <c r="B204" s="3">
         <v>6110052009</v>
       </c>
-      <c r="C186" s="2">
+      <c r="C204" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="3">
+    <row r="205" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="2">
         <v>6110052009</v>
       </c>
-      <c r="B187" s="3">
+      <c r="B205" s="3">
         <v>6110052015</v>
       </c>
-      <c r="C187" s="2">
+      <c r="C205" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="3">
+    <row r="206" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="2">
         <v>6110052015</v>
       </c>
-      <c r="B188" s="3">
+      <c r="B206" s="3">
         <v>6110052103</v>
       </c>
-      <c r="C188" s="2">
+      <c r="C206" s="2">
         <v>6.1</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="3">
+    <row r="207" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="2">
         <v>6110052103</v>
       </c>
-      <c r="B189" s="3">
+      <c r="B207" s="3">
         <v>6110052018</v>
       </c>
-      <c r="C189" s="2">
+      <c r="C207" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="3">
+    <row r="208" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="2">
         <v>6110052018</v>
       </c>
-      <c r="B190" s="3">
+      <c r="B208" s="3">
         <v>6110052016</v>
       </c>
-      <c r="C190" s="2">
+      <c r="C208" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="3">
+    <row r="209" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="2">
         <v>6110052016</v>
       </c>
-      <c r="B191" s="3">
+      <c r="B209" s="3">
         <v>6110052019</v>
       </c>
-      <c r="C191" s="2">
+      <c r="C209" s="2">
         <v>15.7</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="3">
+    <row r="210" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="2">
+        <v>6110052016</v>
+      </c>
+      <c r="B210" s="3">
+        <v>6110052017</v>
+      </c>
+      <c r="C210" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="2">
+        <v>6110052102</v>
+      </c>
+      <c r="B211" s="3">
+        <v>6110052017</v>
+      </c>
+      <c r="C211" s="2">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="2">
         <v>6110051001</v>
       </c>
-      <c r="B192" s="3">
+      <c r="B212" s="3">
         <v>6110051102</v>
       </c>
-      <c r="C192" s="2">
+      <c r="C212" s="2">
         <v>6.1</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="3">
+    <row r="213" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="2">
         <v>6110051003</v>
       </c>
-      <c r="B193" s="3">
+      <c r="B213" s="3">
         <v>6110051102</v>
       </c>
-      <c r="C193" s="2">
+      <c r="C213" s="2">
         <v>6.5</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="3">
+    <row r="214" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="2">
         <v>6110051102</v>
       </c>
-      <c r="B194" s="3">
+      <c r="B214" s="3">
         <v>6110051008</v>
       </c>
-      <c r="C194" s="2">
+      <c r="C214" s="2">
         <v>10.6</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="3">
+    <row r="215" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A215" s="2">
         <v>6110051008</v>
       </c>
-      <c r="B195" s="3">
+      <c r="B215" s="3">
         <v>6110051101</v>
       </c>
-      <c r="C195" s="2">
+      <c r="C215" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="3">
+    <row r="216" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A216" s="2">
         <v>6110051101</v>
       </c>
-      <c r="B196" s="3">
+      <c r="B216" s="3">
         <v>6110051012</v>
       </c>
-      <c r="C196" s="2">
+      <c r="C216" s="2">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="3">
+    <row r="217" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="2">
         <v>6110051012</v>
       </c>
-      <c r="B197" s="3">
+      <c r="B217" s="3">
         <v>6110051005</v>
       </c>
-      <c r="C197" s="2">
+      <c r="C217" s="2">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="3">
+    <row r="218" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="2">
         <v>6110051005</v>
       </c>
-      <c r="B198" s="3">
+      <c r="B218" s="3">
         <v>6110051006</v>
       </c>
-      <c r="C198" s="2">
+      <c r="C218" s="2">
         <v>4.96</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="3">
+    <row r="219" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="2">
         <v>6110051006</v>
       </c>
-      <c r="B199" s="3">
+      <c r="B219" s="3">
         <v>6110051007</v>
       </c>
-      <c r="C199" s="2">
+      <c r="C219" s="2">
         <v>1.18</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="3">
+    <row r="220" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="2">
         <v>6110051012</v>
       </c>
-      <c r="B200" s="3">
+      <c r="B220" s="3">
         <v>6110051011</v>
       </c>
-      <c r="C200" s="2">
+      <c r="C220" s="2">
         <v>4.8</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="3">
+    <row r="221" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="2">
         <v>6110051101</v>
       </c>
-      <c r="B201" s="3">
+      <c r="B221" s="3">
         <v>6110052103</v>
       </c>
-      <c r="C201" s="2">
+      <c r="C221" s="2">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="3">
+    <row r="222" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="2">
         <v>6110052103</v>
       </c>
-      <c r="B202" s="3">
+      <c r="B222" s="3">
         <v>6110051011</v>
       </c>
-      <c r="C202" s="2">
+      <c r="C222" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="3">
+    <row r="223" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A223" s="2">
         <v>6110052103</v>
       </c>
-      <c r="B203" s="3">
+      <c r="B223" s="3">
         <v>6110050104</v>
       </c>
-      <c r="C203" s="2">
+      <c r="C223" s="2">
         <v>7.8</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="3">
+    <row r="224" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="2">
         <v>6110051004</v>
       </c>
-      <c r="B204" s="3">
+      <c r="B224" s="3">
         <v>6110052103</v>
       </c>
-      <c r="C204" s="2">
+      <c r="C224" s="2">
         <v>9.5</v>
       </c>
     </row>

--- a/jarakdesa_test.xlsx
+++ b/jarakdesa_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Project\Podes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBD03D8-D457-4D59-95A5-913F352C583D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6869FF-B935-4597-A213-8AB52293CAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5AB5F18D-76D4-47E6-B2AD-1D0608D6BCA0}"/>
   </bookViews>
@@ -93,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -104,6 +104,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E029D901-01C6-4C45-82CB-76280F611D91}">
   <dimension ref="A1:C224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C224"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,8 +732,8 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>6110060106</v>
+      <c r="A28" s="4">
+        <v>6110060102</v>
       </c>
       <c r="B28" s="3">
         <v>6110050101</v>

--- a/jarakdesa_test.xlsx
+++ b/jarakdesa_test.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Project\Podes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6869FF-B935-4597-A213-8AB52293CAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E0D021-CD86-430B-8951-9344E616A242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5AB5F18D-76D4-47E6-B2AD-1D0608D6BCA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$204</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$203</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -93,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -105,6 +106,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E029D901-01C6-4C45-82CB-76280F611D91}">
-  <dimension ref="A1:C224"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -721,25 +723,25 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>6110060015</v>
+      <c r="A27" s="4">
+        <v>6110060102</v>
       </c>
       <c r="B27" s="3">
-        <v>6110070007</v>
+        <v>6110050101</v>
       </c>
       <c r="C27" s="2">
-        <v>15</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="4">
-        <v>6110060102</v>
+      <c r="A28" s="2">
+        <v>6110070101</v>
       </c>
       <c r="B28" s="3">
-        <v>6110050101</v>
+        <v>6110070102</v>
       </c>
       <c r="C28" s="2">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -747,21 +749,21 @@
         <v>6110070101</v>
       </c>
       <c r="B29" s="3">
-        <v>6110070102</v>
+        <v>6110070006</v>
       </c>
       <c r="C29" s="2">
-        <v>4.3</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
-        <v>6110070101</v>
+        <v>6110070102</v>
       </c>
       <c r="B30" s="3">
-        <v>6110070006</v>
+        <v>6110070001</v>
       </c>
       <c r="C30" s="2">
-        <v>11.6</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -769,76 +771,76 @@
         <v>6110070102</v>
       </c>
       <c r="B31" s="3">
-        <v>6110070001</v>
+        <v>6110070010</v>
       </c>
       <c r="C31" s="2">
-        <v>1.1000000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
-        <v>6110070102</v>
+        <v>6110070006</v>
       </c>
       <c r="B32" s="3">
-        <v>6110070010</v>
+        <v>6110070016</v>
       </c>
       <c r="C32" s="2">
-        <v>8.3000000000000007</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
-        <v>6110070006</v>
+        <v>6110070016</v>
       </c>
       <c r="B33" s="3">
-        <v>6110070016</v>
+        <v>6110070007</v>
       </c>
       <c r="C33" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
-        <v>6110070016</v>
+        <v>6110070007</v>
       </c>
       <c r="B34" s="3">
-        <v>6110070007</v>
+        <v>6110070103</v>
       </c>
       <c r="C34" s="2">
-        <v>9</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
-        <v>6110070007</v>
+        <v>6110070103</v>
       </c>
       <c r="B35" s="3">
-        <v>6110070103</v>
+        <v>6110070017</v>
       </c>
       <c r="C35" s="2">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
-        <v>6110070103</v>
+        <v>6110070017</v>
       </c>
       <c r="B36" s="3">
-        <v>6110070017</v>
+        <v>6110070104</v>
       </c>
       <c r="C36" s="2">
-        <v>4.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
-        <v>6110070017</v>
+        <v>6110070104</v>
       </c>
       <c r="B37" s="3">
-        <v>6110070104</v>
+        <v>6110070019</v>
       </c>
       <c r="C37" s="2">
-        <v>10</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -846,43 +848,43 @@
         <v>6110070104</v>
       </c>
       <c r="B38" s="3">
-        <v>6110070019</v>
+        <v>6110070018</v>
       </c>
       <c r="C38" s="2">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
-        <v>6110070104</v>
+        <v>6110070018</v>
       </c>
       <c r="B39" s="3">
-        <v>6110070018</v>
+        <v>6110070105</v>
       </c>
       <c r="C39" s="2">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
-        <v>6110070018</v>
+        <v>6110070105</v>
       </c>
       <c r="B40" s="3">
-        <v>6110070105</v>
+        <v>6110070106</v>
       </c>
       <c r="C40" s="2">
-        <v>3.4</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
-        <v>6110070105</v>
+        <v>6110070106</v>
       </c>
       <c r="B41" s="3">
-        <v>6110070106</v>
+        <v>6110070008</v>
       </c>
       <c r="C41" s="2">
-        <v>6.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -890,65 +892,65 @@
         <v>6110070106</v>
       </c>
       <c r="B42" s="3">
-        <v>6110070008</v>
+        <v>6110070009</v>
       </c>
       <c r="C42" s="2">
-        <v>0.8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
-        <v>6110070106</v>
+        <v>6110070009</v>
       </c>
       <c r="B43" s="3">
-        <v>6110070009</v>
+        <v>6110070004</v>
       </c>
       <c r="C43" s="2">
-        <v>7.6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
-        <v>6110070009</v>
+        <v>6110070004</v>
       </c>
       <c r="B44" s="3">
-        <v>6110070004</v>
+        <v>6110070013</v>
       </c>
       <c r="C44" s="2">
-        <v>6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
-        <v>6110070004</v>
+        <v>6110070013</v>
       </c>
       <c r="B45" s="3">
-        <v>6110070013</v>
+        <v>6110070003</v>
       </c>
       <c r="C45" s="2">
-        <v>7.2</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
-        <v>6110070013</v>
+        <v>6110070003</v>
       </c>
       <c r="B46" s="3">
-        <v>6110070003</v>
+        <v>6110070107</v>
       </c>
       <c r="C46" s="2">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
-        <v>6110070003</v>
+        <v>6110070107</v>
       </c>
       <c r="B47" s="3">
-        <v>6110070107</v>
+        <v>6110070012</v>
       </c>
       <c r="C47" s="2">
-        <v>5.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -956,32 +958,32 @@
         <v>6110070107</v>
       </c>
       <c r="B48" s="3">
-        <v>6110070012</v>
+        <v>6110070002</v>
       </c>
       <c r="C48" s="2">
-        <v>6</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
-        <v>6110070107</v>
+        <v>6110070002</v>
       </c>
       <c r="B49" s="3">
-        <v>6110070002</v>
+        <v>6110070108</v>
       </c>
       <c r="C49" s="2">
-        <v>4.0999999999999996</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
-        <v>6110070002</v>
+        <v>6110070108</v>
       </c>
       <c r="B50" s="3">
-        <v>6110070108</v>
+        <v>6110070105</v>
       </c>
       <c r="C50" s="2">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -989,21 +991,21 @@
         <v>6110070108</v>
       </c>
       <c r="B51" s="3">
-        <v>6110070105</v>
+        <v>6110070005</v>
       </c>
       <c r="C51" s="2">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
-        <v>6110070108</v>
+        <v>6110070005</v>
       </c>
       <c r="B52" s="3">
-        <v>6110070005</v>
+        <v>6110070014</v>
       </c>
       <c r="C52" s="2">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1011,21 +1013,21 @@
         <v>6110070005</v>
       </c>
       <c r="B53" s="3">
-        <v>6110070014</v>
+        <v>6110070109</v>
       </c>
       <c r="C53" s="2">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
-        <v>6110070005</v>
+        <v>6110070109</v>
       </c>
       <c r="B54" s="3">
-        <v>6110070109</v>
+        <v>6110070011</v>
       </c>
       <c r="C54" s="2">
-        <v>1.2</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1033,21 +1035,21 @@
         <v>6110070109</v>
       </c>
       <c r="B55" s="3">
-        <v>6110070011</v>
+        <v>6110070110</v>
       </c>
       <c r="C55" s="2">
-        <v>7.2</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
-        <v>6110070109</v>
+        <v>6110070110</v>
       </c>
       <c r="B56" s="3">
-        <v>6110070110</v>
+        <v>6110070015</v>
       </c>
       <c r="C56" s="2">
-        <v>11.8</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1055,21 +1057,21 @@
         <v>6110070110</v>
       </c>
       <c r="B57" s="3">
-        <v>6110070015</v>
+        <v>6110070006</v>
       </c>
       <c r="C57" s="2">
-        <v>0.35</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
-        <v>6110070015</v>
+        <v>6110021001</v>
       </c>
       <c r="B58" s="3">
-        <v>6110070006</v>
+        <v>6110021002</v>
       </c>
       <c r="C58" s="2">
-        <v>4.7</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1077,10 +1079,10 @@
         <v>6110021001</v>
       </c>
       <c r="B59" s="3">
-        <v>6110021002</v>
+        <v>6110021003</v>
       </c>
       <c r="C59" s="2">
-        <v>10.199999999999999</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1088,21 +1090,21 @@
         <v>6110021001</v>
       </c>
       <c r="B60" s="3">
-        <v>6110021003</v>
+        <v>6110020012</v>
       </c>
       <c r="C60" s="2">
-        <v>14.6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
-        <v>6110021001</v>
+        <v>6110021003</v>
       </c>
       <c r="B61" s="3">
-        <v>6110020012</v>
+        <v>6110021005</v>
       </c>
       <c r="C61" s="2">
-        <v>20</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1110,21 +1112,21 @@
         <v>6110021003</v>
       </c>
       <c r="B62" s="3">
-        <v>6110021005</v>
+        <v>6110021004</v>
       </c>
       <c r="C62" s="2">
-        <v>13.9</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
-        <v>6110021003</v>
+        <v>6110021004</v>
       </c>
       <c r="B63" s="3">
-        <v>6110021004</v>
+        <v>6110021005</v>
       </c>
       <c r="C63" s="2">
-        <v>17.399999999999999</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1132,10 +1134,10 @@
         <v>6110021004</v>
       </c>
       <c r="B64" s="3">
-        <v>6110021005</v>
+        <v>6110020008</v>
       </c>
       <c r="C64" s="2">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1143,98 +1145,98 @@
         <v>6110021004</v>
       </c>
       <c r="B65" s="3">
-        <v>6110020008</v>
+        <v>6110021006</v>
       </c>
       <c r="C65" s="2">
-        <v>6.3</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
-        <v>6110021004</v>
+        <v>6110021005</v>
       </c>
       <c r="B66" s="3">
         <v>6110021006</v>
       </c>
       <c r="C66" s="2">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
-        <v>6110021005</v>
+        <v>6110021006</v>
       </c>
       <c r="B67" s="3">
-        <v>6110021006</v>
+        <v>6110021007</v>
       </c>
       <c r="C67" s="2">
-        <v>7.1</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
-        <v>6110021006</v>
+        <v>6110021007</v>
       </c>
       <c r="B68" s="3">
-        <v>6110021007</v>
+        <v>6110021008</v>
       </c>
       <c r="C68" s="2">
-        <v>8.1999999999999993</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
-        <v>6110021007</v>
+        <v>6110021008</v>
       </c>
       <c r="B69" s="3">
-        <v>6110021008</v>
+        <v>6110021009</v>
       </c>
       <c r="C69" s="2">
-        <v>11.2</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
-        <v>6110021008</v>
+        <v>6110021009</v>
       </c>
       <c r="B70" s="3">
-        <v>6110021009</v>
+        <v>6110021010</v>
       </c>
       <c r="C70" s="2">
-        <v>13.1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
-        <v>6110021009</v>
+        <v>6110020003</v>
       </c>
       <c r="B71" s="3">
-        <v>6110021010</v>
+        <v>6110020013</v>
       </c>
       <c r="C71" s="2">
-        <v>9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
-        <v>6110020003</v>
+        <v>6110020013</v>
       </c>
       <c r="B72" s="3">
-        <v>6110020013</v>
+        <v>6110020004</v>
       </c>
       <c r="C72" s="2">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
-        <v>6110020013</v>
+        <v>6110020004</v>
       </c>
       <c r="B73" s="3">
-        <v>6110020004</v>
+        <v>6110020005</v>
       </c>
       <c r="C73" s="2">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1242,43 +1244,43 @@
         <v>6110020004</v>
       </c>
       <c r="B74" s="3">
-        <v>6110020005</v>
+        <v>6110020014</v>
       </c>
       <c r="C74" s="2">
-        <v>1.4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
-        <v>6110020004</v>
+        <v>6110020005</v>
       </c>
       <c r="B75" s="3">
-        <v>6110020014</v>
+        <v>6110020008</v>
       </c>
       <c r="C75" s="2">
-        <v>8</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
-        <v>6110020005</v>
+        <v>6110020003</v>
       </c>
       <c r="B76" s="3">
-        <v>6110020008</v>
+        <v>6110020012</v>
       </c>
       <c r="C76" s="2">
-        <v>0.3</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
-        <v>6110020003</v>
+        <v>6110020008</v>
       </c>
       <c r="B77" s="3">
-        <v>6110020012</v>
+        <v>6110020017</v>
       </c>
       <c r="C77" s="2">
-        <v>5.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1286,65 +1288,65 @@
         <v>6110020008</v>
       </c>
       <c r="B78" s="3">
-        <v>6110020017</v>
+        <v>6110020016</v>
       </c>
       <c r="C78" s="2">
-        <v>0.8</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
-        <v>6110020008</v>
+        <v>6110020016</v>
       </c>
       <c r="B79" s="3">
-        <v>6110020016</v>
+        <v>6110020015</v>
       </c>
       <c r="C79" s="2">
-        <v>5.8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
-        <v>6110020016</v>
+        <v>6110020005</v>
       </c>
       <c r="B80" s="3">
-        <v>6110020015</v>
+        <v>6110020006</v>
       </c>
       <c r="C80" s="2">
-        <v>7.6</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
-        <v>6110020005</v>
+        <v>6110020006</v>
       </c>
       <c r="B81" s="3">
-        <v>6110020006</v>
+        <v>6110020007</v>
       </c>
       <c r="C81" s="2">
-        <v>4.9000000000000004</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
-        <v>6110020006</v>
+        <v>6110020007</v>
       </c>
       <c r="B82" s="3">
-        <v>6110020007</v>
+        <v>6110030014</v>
       </c>
       <c r="C82" s="2">
-        <v>6.8</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
-        <v>6110020007</v>
+        <v>6110010008</v>
       </c>
       <c r="B83" s="3">
-        <v>6110030014</v>
+        <v>6110020003</v>
       </c>
       <c r="C83" s="2">
-        <v>12.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1352,10 +1354,10 @@
         <v>6110010008</v>
       </c>
       <c r="B84" s="3">
-        <v>6110020003</v>
+        <v>6110010018</v>
       </c>
       <c r="C84" s="2">
-        <v>10</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1363,43 +1365,43 @@
         <v>6110010008</v>
       </c>
       <c r="B85" s="3">
-        <v>6110010018</v>
+        <v>6110010016</v>
       </c>
       <c r="C85" s="2">
-        <v>0.4</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
-        <v>6110010008</v>
+        <v>6110010016</v>
       </c>
       <c r="B86" s="3">
-        <v>6110010016</v>
+        <v>6110010007</v>
       </c>
       <c r="C86" s="2">
-        <v>0.65</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
-        <v>6110010016</v>
+        <v>6110010007</v>
       </c>
       <c r="B87" s="3">
-        <v>6110010007</v>
+        <v>6110010014</v>
       </c>
       <c r="C87" s="2">
-        <v>1.6</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
-        <v>6110010007</v>
+        <v>6110010014</v>
       </c>
       <c r="B88" s="3">
-        <v>6110010014</v>
+        <v>6110010006</v>
       </c>
       <c r="C88" s="2">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1407,32 +1409,32 @@
         <v>6110010014</v>
       </c>
       <c r="B89" s="3">
-        <v>6110010006</v>
+        <v>6110010005</v>
       </c>
       <c r="C89" s="2">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
-        <v>6110010014</v>
+        <v>6110010005</v>
       </c>
       <c r="B90" s="3">
-        <v>6110010005</v>
+        <v>6110010013</v>
       </c>
       <c r="C90" s="2">
-        <v>5.5</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
+        <v>6110010006</v>
+      </c>
+      <c r="B91" s="3">
         <v>6110010005</v>
       </c>
-      <c r="B91" s="3">
-        <v>6110010013</v>
-      </c>
       <c r="C91" s="2">
-        <v>1.1000000000000001</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1440,65 +1442,65 @@
         <v>6110010006</v>
       </c>
       <c r="B92" s="3">
-        <v>6110010005</v>
+        <v>6110010015</v>
       </c>
       <c r="C92" s="2">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
-        <v>6110010006</v>
+        <v>6110010009</v>
       </c>
       <c r="B93" s="3">
-        <v>6110010015</v>
+        <v>6110010001</v>
       </c>
       <c r="C93" s="2">
-        <v>12.5</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
-        <v>6110010009</v>
+        <v>6110010001</v>
       </c>
       <c r="B94" s="3">
-        <v>6110010001</v>
+        <v>6110010002</v>
       </c>
       <c r="C94" s="2">
-        <v>5.2</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
-        <v>6110010001</v>
+        <v>6110010002</v>
       </c>
       <c r="B95" s="3">
-        <v>6110010002</v>
+        <v>6110010010</v>
       </c>
       <c r="C95" s="2">
-        <v>15.5</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
-        <v>6110010002</v>
+        <v>6110010010</v>
       </c>
       <c r="B96" s="3">
-        <v>6110010010</v>
+        <v>6110010003</v>
       </c>
       <c r="C96" s="2">
-        <v>4.0999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
-        <v>6110010010</v>
+        <v>6110010003</v>
       </c>
       <c r="B97" s="3">
-        <v>6110010003</v>
+        <v>6110010011</v>
       </c>
       <c r="C97" s="2">
-        <v>4.9000000000000004</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1506,161 +1508,161 @@
         <v>6110010003</v>
       </c>
       <c r="B98" s="3">
-        <v>6110010011</v>
+        <v>6110010004</v>
       </c>
       <c r="C98" s="2">
-        <v>0.4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
-        <v>6110010003</v>
+        <v>6110010004</v>
       </c>
       <c r="B99" s="3">
-        <v>6110010004</v>
+        <v>6110010012</v>
       </c>
       <c r="C99" s="2">
-        <v>8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
-        <v>6110010004</v>
+        <v>6110010012</v>
       </c>
       <c r="B100" s="3">
-        <v>6110010012</v>
+        <v>6110010017</v>
       </c>
       <c r="C100" s="2">
-        <v>3.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
-        <v>6110010012</v>
+        <v>6110010017</v>
       </c>
       <c r="B101" s="3">
-        <v>6110010017</v>
+        <v>6110010018</v>
       </c>
       <c r="C101" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
-        <v>6110010017</v>
+        <v>6110010018</v>
       </c>
       <c r="B102" s="3">
-        <v>6110010018</v>
+        <v>6110010008</v>
       </c>
       <c r="C102" s="2">
-        <v>7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
-        <v>6110010018</v>
+        <v>6110030007</v>
       </c>
       <c r="B103" s="3">
-        <v>6110010008</v>
+        <v>6110051001</v>
       </c>
       <c r="C103" s="2">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
+        <v>6110030013</v>
+      </c>
+      <c r="B104" s="3">
         <v>6110030007</v>
       </c>
-      <c r="B104" s="3">
-        <v>6110051001</v>
-      </c>
       <c r="C104" s="2">
-        <v>1.6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
+        <v>6110030004</v>
+      </c>
+      <c r="B105" s="3">
         <v>6110030013</v>
       </c>
-      <c r="B105" s="3">
-        <v>6110030007</v>
-      </c>
       <c r="C105" s="2">
-        <v>6</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
+        <v>6110030012</v>
+      </c>
+      <c r="B106" s="3">
         <v>6110030004</v>
       </c>
-      <c r="B106" s="3">
-        <v>6110030013</v>
-      </c>
       <c r="C106" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
-        <v>6110030012</v>
+        <v>6110030015</v>
       </c>
       <c r="B107" s="3">
         <v>6110030004</v>
       </c>
       <c r="C107" s="2">
-        <v>0.2</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
+        <v>6110030003</v>
+      </c>
+      <c r="B108" s="3">
         <v>6110030015</v>
       </c>
-      <c r="B108" s="3">
-        <v>6110030004</v>
-      </c>
       <c r="C108" s="2">
-        <v>11.1</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
+        <v>6110030010</v>
+      </c>
+      <c r="B109" s="3">
         <v>6110030003</v>
       </c>
-      <c r="B109" s="3">
-        <v>6110030015</v>
-      </c>
       <c r="C109" s="2">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
+        <v>6110030002</v>
+      </c>
+      <c r="B110" s="3">
         <v>6110030010</v>
       </c>
-      <c r="B110" s="3">
-        <v>6110030003</v>
-      </c>
       <c r="C110" s="2">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
+        <v>6110030009</v>
+      </c>
+      <c r="B111" s="3">
         <v>6110030002</v>
       </c>
-      <c r="B111" s="3">
-        <v>6110030010</v>
-      </c>
       <c r="C111" s="2">
-        <v>1.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
+        <v>6110030001</v>
+      </c>
+      <c r="B112" s="3">
         <v>6110030009</v>
-      </c>
-      <c r="B112" s="3">
-        <v>6110030002</v>
       </c>
       <c r="C112" s="2">
         <v>1</v>
@@ -1668,35 +1670,35 @@
     </row>
     <row r="113" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
-        <v>6110030001</v>
+        <v>6110030016</v>
       </c>
       <c r="B113" s="3">
-        <v>6110030009</v>
+        <v>6110030015</v>
       </c>
       <c r="C113" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
-        <v>6110030016</v>
+        <v>6110030005</v>
       </c>
       <c r="B114" s="3">
         <v>6110030015</v>
       </c>
       <c r="C114" s="2">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
+        <v>6110030014</v>
+      </c>
+      <c r="B115" s="3">
         <v>6110030005</v>
       </c>
-      <c r="B115" s="3">
-        <v>6110030015</v>
-      </c>
       <c r="C115" s="2">
-        <v>1.5</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1704,87 +1706,87 @@
         <v>6110030014</v>
       </c>
       <c r="B116" s="3">
-        <v>6110030005</v>
+        <v>6110030018</v>
       </c>
       <c r="C116" s="2">
-        <v>2.2000000000000002</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
-        <v>6110030014</v>
+        <v>6110030018</v>
       </c>
       <c r="B117" s="3">
-        <v>6110030018</v>
+        <v>6110030006</v>
       </c>
       <c r="C117" s="2">
-        <v>15.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
-        <v>6110030018</v>
+        <v>6110030006</v>
       </c>
       <c r="B118" s="3">
-        <v>6110030006</v>
+        <v>6110030017</v>
       </c>
       <c r="C118" s="2">
-        <v>1.3</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
-        <v>6110030006</v>
+        <v>6110051002</v>
       </c>
       <c r="B119" s="3">
-        <v>6110030017</v>
+        <v>6110030011</v>
       </c>
       <c r="C119" s="2">
-        <v>6.3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
-        <v>6110051002</v>
+        <v>6110030011</v>
       </c>
       <c r="B120" s="3">
-        <v>6110030011</v>
+        <v>6110030008</v>
       </c>
       <c r="C120" s="2">
-        <v>23</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
-        <v>6110030011</v>
+        <v>6110050023</v>
       </c>
       <c r="B121" s="3">
-        <v>6110030008</v>
+        <v>6110050101</v>
       </c>
       <c r="C121" s="2">
-        <v>18.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
-        <v>6110050023</v>
+        <v>6110050101</v>
       </c>
       <c r="B122" s="3">
-        <v>6110050101</v>
+        <v>6110050102</v>
       </c>
       <c r="C122" s="2">
-        <v>2.5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
-        <v>6110050101</v>
+        <v>6110050102</v>
       </c>
       <c r="B123" s="3">
-        <v>6110050102</v>
+        <v>6110050024</v>
       </c>
       <c r="C123" s="2">
-        <v>5.7</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1792,21 +1794,21 @@
         <v>6110050102</v>
       </c>
       <c r="B124" s="3">
-        <v>6110050024</v>
+        <v>6110050103</v>
       </c>
       <c r="C124" s="2">
-        <v>12.3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
-        <v>6110050102</v>
+        <v>6110050103</v>
       </c>
       <c r="B125" s="3">
-        <v>6110050103</v>
+        <v>6110050008</v>
       </c>
       <c r="C125" s="2">
-        <v>11</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1814,21 +1816,21 @@
         <v>6110050103</v>
       </c>
       <c r="B126" s="3">
-        <v>6110050008</v>
+        <v>6110050026</v>
       </c>
       <c r="C126" s="2">
-        <v>2.1</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
-        <v>6110050103</v>
+        <v>6110050104</v>
       </c>
       <c r="B127" s="3">
         <v>6110050026</v>
       </c>
       <c r="C127" s="2">
-        <v>6.3</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1836,21 +1838,21 @@
         <v>6110050104</v>
       </c>
       <c r="B128" s="3">
-        <v>6110050026</v>
+        <v>6110050105</v>
       </c>
       <c r="C128" s="2">
-        <v>4.3</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
-        <v>6110050104</v>
+        <v>6110050105</v>
       </c>
       <c r="B129" s="3">
-        <v>6110050105</v>
+        <v>6110050027</v>
       </c>
       <c r="C129" s="2">
-        <v>4.45</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1858,43 +1860,43 @@
         <v>6110050105</v>
       </c>
       <c r="B130" s="3">
-        <v>6110050027</v>
+        <v>6110050106</v>
       </c>
       <c r="C130" s="2">
-        <v>2.2999999999999998</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
-        <v>6110050105</v>
+        <v>6110050106</v>
       </c>
       <c r="B131" s="3">
-        <v>6110050106</v>
+        <v>6110050107</v>
       </c>
       <c r="C131" s="2">
-        <v>1.2</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
-        <v>6110050106</v>
+        <v>6110050107</v>
       </c>
       <c r="B132" s="3">
-        <v>6110050107</v>
+        <v>6110050025</v>
       </c>
       <c r="C132" s="2">
-        <v>0.55000000000000004</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
+        <v>6110050108</v>
+      </c>
+      <c r="B133" s="3">
         <v>6110050107</v>
       </c>
-      <c r="B133" s="3">
-        <v>6110050025</v>
-      </c>
       <c r="C133" s="2">
-        <v>3.3</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1902,21 +1904,21 @@
         <v>6110050108</v>
       </c>
       <c r="B134" s="3">
-        <v>6110050107</v>
+        <v>6110050014</v>
       </c>
       <c r="C134" s="2">
-        <v>2.2000000000000002</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
+        <v>6110050109</v>
+      </c>
+      <c r="B135" s="3">
         <v>6110050108</v>
       </c>
-      <c r="B135" s="3">
-        <v>6110050014</v>
-      </c>
       <c r="C135" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1924,10 +1926,10 @@
         <v>6110050109</v>
       </c>
       <c r="B136" s="3">
-        <v>6110050108</v>
+        <v>6110050025</v>
       </c>
       <c r="C136" s="2">
-        <v>0.28000000000000003</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1935,21 +1937,21 @@
         <v>6110050109</v>
       </c>
       <c r="B137" s="3">
-        <v>6110050025</v>
+        <v>6110050110</v>
       </c>
       <c r="C137" s="2">
-        <v>1.4</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
-        <v>6110050109</v>
+        <v>6110050110</v>
       </c>
       <c r="B138" s="3">
-        <v>6110050110</v>
+        <v>6110050013</v>
       </c>
       <c r="C138" s="2">
-        <v>0.96</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1957,21 +1959,21 @@
         <v>6110050110</v>
       </c>
       <c r="B139" s="3">
-        <v>6110050013</v>
+        <v>6110050111</v>
       </c>
       <c r="C139" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
-        <v>6110050110</v>
+        <v>6110050111</v>
       </c>
       <c r="B140" s="3">
-        <v>6110050111</v>
+        <v>6110050029</v>
       </c>
       <c r="C140" s="2">
-        <v>0.28000000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1979,21 +1981,21 @@
         <v>6110050111</v>
       </c>
       <c r="B141" s="3">
-        <v>6110050029</v>
+        <v>6110050112</v>
       </c>
       <c r="C141" s="2">
-        <v>1</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
-        <v>6110050111</v>
+        <v>6110050112</v>
       </c>
       <c r="B142" s="3">
-        <v>6110050112</v>
+        <v>6110050021</v>
       </c>
       <c r="C142" s="2">
-        <v>0.18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2001,120 +2003,120 @@
         <v>6110050112</v>
       </c>
       <c r="B143" s="3">
-        <v>6110050021</v>
+        <v>6110050113</v>
       </c>
       <c r="C143" s="2">
-        <v>30</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
-        <v>6110050112</v>
+        <v>6110050113</v>
       </c>
       <c r="B144" s="3">
-        <v>6110050113</v>
+        <v>6110050015</v>
       </c>
       <c r="C144" s="2">
-        <v>1.1399999999999999</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
-        <v>6110050113</v>
+        <v>6110050015</v>
       </c>
       <c r="B145" s="3">
-        <v>6110050015</v>
+        <v>6110050016</v>
       </c>
       <c r="C145" s="2">
-        <v>0.1</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
-        <v>6110050015</v>
+        <v>6110050113</v>
       </c>
       <c r="B146" s="3">
-        <v>6110050016</v>
+        <v>6110050114</v>
       </c>
       <c r="C146" s="2">
-        <v>0.87</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
-        <v>6110050113</v>
+        <v>6110050114</v>
       </c>
       <c r="B147" s="3">
-        <v>6110050114</v>
+        <v>6110050012</v>
       </c>
       <c r="C147" s="2">
-        <v>3.3</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
-        <v>6110050114</v>
+        <v>6110050012</v>
       </c>
       <c r="B148" s="3">
-        <v>6110050012</v>
+        <v>6110050028</v>
       </c>
       <c r="C148" s="2">
-        <v>6.1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
-        <v>6110050012</v>
+        <v>6110050114</v>
       </c>
       <c r="B149" s="3">
-        <v>6110050028</v>
+        <v>6110050115</v>
       </c>
       <c r="C149" s="2">
-        <v>6</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
-        <v>6110050114</v>
+        <v>6110050115</v>
       </c>
       <c r="B150" s="3">
-        <v>6110050115</v>
+        <v>6110050011</v>
       </c>
       <c r="C150" s="2">
-        <v>1.05</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
-        <v>6110050115</v>
+        <v>6110050011</v>
       </c>
       <c r="B151" s="3">
-        <v>6110050011</v>
+        <v>6110050010</v>
       </c>
       <c r="C151" s="2">
-        <v>5.4</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
-        <v>6110050011</v>
+        <v>6110050115</v>
       </c>
       <c r="B152" s="3">
-        <v>6110050010</v>
+        <v>6110050030</v>
       </c>
       <c r="C152" s="2">
-        <v>6.7</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
-        <v>6110050115</v>
+        <v>6110040101</v>
       </c>
       <c r="B153" s="3">
         <v>6110050030</v>
       </c>
       <c r="C153" s="2">
-        <v>1.1499999999999999</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2122,10 +2124,10 @@
         <v>6110040101</v>
       </c>
       <c r="B154" s="3">
-        <v>6110050030</v>
+        <v>6110040006</v>
       </c>
       <c r="C154" s="2">
-        <v>2.2999999999999998</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2133,32 +2135,32 @@
         <v>6110040101</v>
       </c>
       <c r="B155" s="3">
-        <v>6110040006</v>
+        <v>6110040021</v>
       </c>
       <c r="C155" s="2">
-        <v>8.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
-        <v>6110040101</v>
+        <v>6110040021</v>
       </c>
       <c r="B156" s="3">
-        <v>6110040021</v>
+        <v>6110040102</v>
       </c>
       <c r="C156" s="2">
-        <v>1.3</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
-        <v>6110040021</v>
+        <v>6110040102</v>
       </c>
       <c r="B157" s="3">
-        <v>6110040102</v>
+        <v>6110040022</v>
       </c>
       <c r="C157" s="2">
-        <v>4.0999999999999996</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2166,32 +2168,32 @@
         <v>6110040102</v>
       </c>
       <c r="B158" s="3">
-        <v>6110040022</v>
+        <v>6110040011</v>
       </c>
       <c r="C158" s="2">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
-        <v>6110040102</v>
+        <v>6110040011</v>
       </c>
       <c r="B159" s="3">
-        <v>6110040011</v>
+        <v>6110040103</v>
       </c>
       <c r="C159" s="2">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
-        <v>6110040011</v>
+        <v>6110040103</v>
       </c>
       <c r="B160" s="3">
-        <v>6110040103</v>
+        <v>6110040010</v>
       </c>
       <c r="C160" s="2">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2199,65 +2201,65 @@
         <v>6110040103</v>
       </c>
       <c r="B161" s="3">
-        <v>6110040010</v>
+        <v>6110040104</v>
       </c>
       <c r="C161" s="2">
-        <v>8.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
-        <v>6110040103</v>
+        <v>6110040104</v>
       </c>
       <c r="B162" s="3">
-        <v>6110040104</v>
+        <v>6110040105</v>
       </c>
       <c r="C162" s="2">
-        <v>0.9</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
-        <v>6110040104</v>
+        <v>6110040020</v>
       </c>
       <c r="B163" s="3">
         <v>6110040105</v>
       </c>
       <c r="C163" s="2">
-        <v>8.5</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
-        <v>6110040020</v>
+        <v>6110040104</v>
       </c>
       <c r="B164" s="3">
-        <v>6110040105</v>
+        <v>6110040012</v>
       </c>
       <c r="C164" s="2">
-        <v>5.8</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
-        <v>6110040104</v>
+        <v>6110040012</v>
       </c>
       <c r="B165" s="3">
-        <v>6110040012</v>
+        <v>6110040106</v>
       </c>
       <c r="C165" s="2">
-        <v>0.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
-        <v>6110040012</v>
+        <v>6110040106</v>
       </c>
       <c r="B166" s="3">
-        <v>6110040106</v>
+        <v>6110040016</v>
       </c>
       <c r="C166" s="2">
-        <v>5</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2265,21 +2267,21 @@
         <v>6110040106</v>
       </c>
       <c r="B167" s="3">
-        <v>6110040016</v>
+        <v>6110040107</v>
       </c>
       <c r="C167" s="2">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
-        <v>6110040106</v>
+        <v>6110040107</v>
       </c>
       <c r="B168" s="3">
-        <v>6110040107</v>
+        <v>6110040023</v>
       </c>
       <c r="C168" s="2">
-        <v>1.3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2287,43 +2289,43 @@
         <v>6110040107</v>
       </c>
       <c r="B169" s="3">
-        <v>6110040023</v>
+        <v>6110040108</v>
       </c>
       <c r="C169" s="2">
-        <v>13</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
-        <v>6110040107</v>
+        <v>6110040108</v>
       </c>
       <c r="B170" s="3">
-        <v>6110040108</v>
+        <v>6110040017</v>
       </c>
       <c r="C170" s="2">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
-        <v>6110040108</v>
+        <v>6110040016</v>
       </c>
       <c r="B171" s="3">
-        <v>6110040017</v>
+        <v>6110040109</v>
       </c>
       <c r="C171" s="2">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
-        <v>6110040016</v>
+        <v>6110040109</v>
       </c>
       <c r="B172" s="3">
-        <v>6110040109</v>
+        <v>6110040014</v>
       </c>
       <c r="C172" s="2">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2331,21 +2333,21 @@
         <v>6110040109</v>
       </c>
       <c r="B173" s="3">
-        <v>6110040014</v>
+        <v>6110040015</v>
       </c>
       <c r="C173" s="2">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
-        <v>6110040109</v>
+        <v>6110041101</v>
       </c>
       <c r="B174" s="3">
-        <v>6110040015</v>
+        <v>6110040105</v>
       </c>
       <c r="C174" s="2">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2353,10 +2355,10 @@
         <v>6110041101</v>
       </c>
       <c r="B175" s="3">
-        <v>6110040105</v>
+        <v>6110041008</v>
       </c>
       <c r="C175" s="2">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2364,21 +2366,21 @@
         <v>6110041101</v>
       </c>
       <c r="B176" s="3">
-        <v>6110041008</v>
+        <v>6110041007</v>
       </c>
       <c r="C176" s="2">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
-        <v>6110041101</v>
+        <v>6110041007</v>
       </c>
       <c r="B177" s="3">
-        <v>6110041007</v>
+        <v>6110041006</v>
       </c>
       <c r="C177" s="2">
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2386,87 +2388,87 @@
         <v>6110041007</v>
       </c>
       <c r="B178" s="3">
-        <v>6110041006</v>
+        <v>6110041102</v>
       </c>
       <c r="C178" s="2">
-        <v>4.9000000000000004</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
-        <v>6110041007</v>
+        <v>6110041102</v>
       </c>
       <c r="B179" s="3">
-        <v>6110041102</v>
+        <v>6110041003</v>
       </c>
       <c r="C179" s="2">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
-        <v>6110041102</v>
+        <v>6110041003</v>
       </c>
       <c r="B180" s="3">
-        <v>6110041003</v>
+        <v>6110041004</v>
       </c>
       <c r="C180" s="2">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
-        <v>6110041003</v>
+        <v>6110041004</v>
       </c>
       <c r="B181" s="3">
-        <v>6110041004</v>
+        <v>6110041001</v>
       </c>
       <c r="C181" s="2">
-        <v>5.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
-        <v>6110041004</v>
+        <v>6110041001</v>
       </c>
       <c r="B182" s="3">
-        <v>6110041001</v>
+        <v>6110041002</v>
       </c>
       <c r="C182" s="2">
-        <v>12.5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
-        <v>6110041001</v>
+        <v>6110041102</v>
       </c>
       <c r="B183" s="3">
-        <v>6110041002</v>
+        <v>6110041005</v>
       </c>
       <c r="C183" s="2">
-        <v>5.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
-        <v>6110041102</v>
+        <v>6110041005</v>
       </c>
       <c r="B184" s="3">
-        <v>6110041005</v>
+        <v>6110040009</v>
       </c>
       <c r="C184" s="2">
-        <v>1.7</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
-        <v>6110041005</v>
+        <v>6110040009</v>
       </c>
       <c r="B185" s="3">
-        <v>6110040009</v>
+        <v>6110040019</v>
       </c>
       <c r="C185" s="2">
-        <v>11.8</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2474,21 +2476,21 @@
         <v>6110040009</v>
       </c>
       <c r="B186" s="3">
-        <v>6110040019</v>
+        <v>6110040110</v>
       </c>
       <c r="C186" s="2">
-        <v>7.46</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
-        <v>6110040009</v>
+        <v>6110040110</v>
       </c>
       <c r="B187" s="3">
-        <v>6110040110</v>
+        <v>6110040018</v>
       </c>
       <c r="C187" s="2">
-        <v>2.97</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2496,65 +2498,65 @@
         <v>6110040110</v>
       </c>
       <c r="B188" s="3">
-        <v>6110040018</v>
+        <v>6110040003</v>
       </c>
       <c r="C188" s="2">
-        <v>5.19</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
-        <v>6110040110</v>
+        <v>6110040003</v>
       </c>
       <c r="B189" s="3">
-        <v>6110040003</v>
+        <v>6110040001</v>
       </c>
       <c r="C189" s="2">
-        <v>5.89</v>
+        <v>20.57</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
-        <v>6110040003</v>
+        <v>6110052003</v>
       </c>
       <c r="B190" s="3">
-        <v>6110040001</v>
+        <v>6110052002</v>
       </c>
       <c r="C190" s="2">
-        <v>20.57</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
-        <v>6110052003</v>
+        <v>6110052002</v>
       </c>
       <c r="B191" s="3">
-        <v>6110052002</v>
+        <v>6110052001</v>
       </c>
       <c r="C191" s="2">
-        <v>7.5</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
-        <v>6110052002</v>
+        <v>6110052001</v>
       </c>
       <c r="B192" s="3">
-        <v>6110052001</v>
+        <v>6110052004</v>
       </c>
       <c r="C192" s="2">
-        <v>5.6</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
-        <v>6110052001</v>
+        <v>6110052004</v>
       </c>
       <c r="B193" s="3">
-        <v>6110052004</v>
+        <v>6110052005</v>
       </c>
       <c r="C193" s="2">
-        <v>9.1999999999999993</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2562,164 +2564,164 @@
         <v>6110052004</v>
       </c>
       <c r="B194" s="3">
-        <v>6110052005</v>
+        <v>6110052006</v>
       </c>
       <c r="C194" s="2">
-        <v>2.4</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
-        <v>6110052004</v>
+        <v>6110052006</v>
       </c>
       <c r="B195" s="3">
-        <v>6110052006</v>
+        <v>6110052007</v>
       </c>
       <c r="C195" s="2">
-        <v>12.5</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
-        <v>6110052006</v>
+        <v>6110052007</v>
       </c>
       <c r="B196" s="3">
-        <v>6110052007</v>
+        <v>6110052010</v>
       </c>
       <c r="C196" s="2">
-        <v>8.9</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
-        <v>6110052007</v>
+        <v>6110052010</v>
       </c>
       <c r="B197" s="3">
-        <v>6110052010</v>
+        <v>6110052101</v>
       </c>
       <c r="C197" s="2">
-        <v>9.1999999999999993</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
-        <v>6110052010</v>
+        <v>6110052101</v>
       </c>
       <c r="B198" s="3">
-        <v>6110052101</v>
+        <v>6110052102</v>
       </c>
       <c r="C198" s="2">
-        <v>0.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
-        <v>6110052101</v>
+        <v>6110052102</v>
       </c>
       <c r="B199" s="3">
-        <v>6110052102</v>
+        <v>6110052013</v>
       </c>
       <c r="C199" s="2">
-        <v>3.8</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
-        <v>6110052102</v>
+        <v>6110052013</v>
       </c>
       <c r="B200" s="3">
-        <v>6110052013</v>
+        <v>6110052011</v>
       </c>
       <c r="C200" s="2">
-        <v>0.3</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
-        <v>6110052013</v>
+        <v>6110052011</v>
       </c>
       <c r="B201" s="3">
-        <v>6110052011</v>
+        <v>6110052012</v>
       </c>
       <c r="C201" s="2">
-        <v>9.4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
-        <v>6110052011</v>
+        <v>6110052101</v>
       </c>
       <c r="B202" s="3">
-        <v>6110052012</v>
+        <v>6110052008</v>
       </c>
       <c r="C202" s="2">
-        <v>6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
-        <v>6110052101</v>
+        <v>6110052008</v>
       </c>
       <c r="B203" s="3">
-        <v>6110052008</v>
+        <v>6110052009</v>
       </c>
       <c r="C203" s="2">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
-        <v>6110052008</v>
+        <v>6110052009</v>
       </c>
       <c r="B204" s="3">
-        <v>6110052009</v>
+        <v>6110052015</v>
       </c>
       <c r="C204" s="2">
-        <v>1.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
-        <v>6110052009</v>
+        <v>6110052015</v>
       </c>
       <c r="B205" s="3">
-        <v>6110052015</v>
+        <v>6110052103</v>
       </c>
       <c r="C205" s="2">
-        <v>5</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
-        <v>6110052015</v>
+        <v>6110052103</v>
       </c>
       <c r="B206" s="3">
-        <v>6110052103</v>
+        <v>6110052018</v>
       </c>
       <c r="C206" s="2">
-        <v>6.1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
-        <v>6110052103</v>
+        <v>6110052018</v>
       </c>
       <c r="B207" s="3">
-        <v>6110052018</v>
+        <v>6110052016</v>
       </c>
       <c r="C207" s="2">
-        <v>8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
-        <v>6110052018</v>
+        <v>6110052016</v>
       </c>
       <c r="B208" s="3">
-        <v>6110052016</v>
+        <v>6110052019</v>
       </c>
       <c r="C208" s="2">
-        <v>3.2</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2727,142 +2729,142 @@
         <v>6110052016</v>
       </c>
       <c r="B209" s="3">
-        <v>6110052019</v>
+        <v>6110052017</v>
       </c>
       <c r="C209" s="2">
-        <v>15.7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
-        <v>6110052016</v>
+        <v>6110052102</v>
       </c>
       <c r="B210" s="3">
         <v>6110052017</v>
       </c>
       <c r="C210" s="2">
-        <v>4.5999999999999996</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
-        <v>6110052102</v>
+        <v>6110051001</v>
       </c>
       <c r="B211" s="3">
-        <v>6110052017</v>
+        <v>6110051102</v>
       </c>
       <c r="C211" s="2">
-        <v>15.3</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
-        <v>6110051001</v>
+        <v>6110051003</v>
       </c>
       <c r="B212" s="3">
         <v>6110051102</v>
       </c>
       <c r="C212" s="2">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
-        <v>6110051003</v>
+        <v>6110051102</v>
       </c>
       <c r="B213" s="3">
-        <v>6110051102</v>
+        <v>6110051008</v>
       </c>
       <c r="C213" s="2">
-        <v>6.5</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
-        <v>6110051102</v>
+        <v>6110051008</v>
       </c>
       <c r="B214" s="3">
-        <v>6110051008</v>
+        <v>6110051101</v>
       </c>
       <c r="C214" s="2">
-        <v>10.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
-        <v>6110051008</v>
+        <v>6110051101</v>
       </c>
       <c r="B215" s="3">
-        <v>6110051101</v>
+        <v>6110051012</v>
       </c>
       <c r="C215" s="2">
-        <v>0.4</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
-        <v>6110051101</v>
+        <v>6110051012</v>
       </c>
       <c r="B216" s="3">
-        <v>6110051012</v>
+        <v>6110051005</v>
       </c>
       <c r="C216" s="2">
-        <v>2.2999999999999998</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
-        <v>6110051012</v>
+        <v>6110051005</v>
       </c>
       <c r="B217" s="3">
-        <v>6110051005</v>
+        <v>6110051006</v>
       </c>
       <c r="C217" s="2">
-        <v>4.9000000000000004</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
-        <v>6110051005</v>
+        <v>6110051006</v>
       </c>
       <c r="B218" s="3">
-        <v>6110051006</v>
+        <v>6110051007</v>
       </c>
       <c r="C218" s="2">
-        <v>4.96</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
-        <v>6110051006</v>
+        <v>6110051012</v>
       </c>
       <c r="B219" s="3">
-        <v>6110051007</v>
+        <v>6110051011</v>
       </c>
       <c r="C219" s="2">
-        <v>1.18</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
-        <v>6110051012</v>
+        <v>6110051101</v>
       </c>
       <c r="B220" s="3">
-        <v>6110051011</v>
+        <v>6110052103</v>
       </c>
       <c r="C220" s="2">
-        <v>4.8</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
-        <v>6110051101</v>
+        <v>6110052103</v>
       </c>
       <c r="B221" s="3">
-        <v>6110052103</v>
+        <v>6110051011</v>
       </c>
       <c r="C221" s="2">
-        <v>4.4000000000000004</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2870,36 +2872,55 @@
         <v>6110052103</v>
       </c>
       <c r="B222" s="3">
-        <v>6110051011</v>
+        <v>6110050104</v>
       </c>
       <c r="C222" s="2">
-        <v>0.6</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
+        <v>6110051004</v>
+      </c>
+      <c r="B223" s="3">
         <v>6110052103</v>
       </c>
-      <c r="B223" s="3">
-        <v>6110050104</v>
-      </c>
       <c r="C223" s="2">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A224" s="2">
-        <v>6110051004</v>
-      </c>
-      <c r="B224" s="3">
-        <v>6110052103</v>
-      </c>
-      <c r="C224" s="2">
         <v>9.5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C204" xr:uid="{E029D901-01C6-4C45-82CB-76280F611D91}"/>
+  <autoFilter ref="A1:C203" xr:uid="{E029D901-01C6-4C45-82CB-76280F611D91}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204C265F-2E57-4A40-B21A-71C73FB9CFD6}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5">
+        <v>6110060015</v>
+      </c>
+      <c r="B1" s="5">
+        <v>6110070007</v>
+      </c>
+      <c r="C1" s="5">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/jarakdesa_test.xlsx
+++ b/jarakdesa_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Project\Podes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E0D021-CD86-430B-8951-9344E616A242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4147B4-B095-4D86-9877-27B5126AC24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5AB5F18D-76D4-47E6-B2AD-1D0608D6BCA0}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$203</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$204</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -94,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -105,8 +105,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E029D901-01C6-4C45-82CB-76280F611D91}">
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -723,7 +728,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
+      <c r="A27" s="5">
         <v>6110060102</v>
       </c>
       <c r="B27" s="3">
@@ -734,14 +739,14 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>6110070101</v>
-      </c>
-      <c r="B28" s="3">
-        <v>6110070102</v>
-      </c>
-      <c r="C28" s="2">
-        <v>4.3</v>
+      <c r="A28" s="6">
+        <v>6110060015</v>
+      </c>
+      <c r="B28" s="6">
+        <v>6110070007</v>
+      </c>
+      <c r="C28" s="6">
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -749,21 +754,21 @@
         <v>6110070101</v>
       </c>
       <c r="B29" s="3">
-        <v>6110070006</v>
+        <v>6110070102</v>
       </c>
       <c r="C29" s="2">
-        <v>11.6</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
-        <v>6110070102</v>
+        <v>6110070101</v>
       </c>
       <c r="B30" s="3">
-        <v>6110070001</v>
+        <v>6110070006</v>
       </c>
       <c r="C30" s="2">
-        <v>1.1000000000000001</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -771,76 +776,76 @@
         <v>6110070102</v>
       </c>
       <c r="B31" s="3">
-        <v>6110070010</v>
+        <v>6110070001</v>
       </c>
       <c r="C31" s="2">
-        <v>8.3000000000000007</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
-        <v>6110070006</v>
+        <v>6110070102</v>
       </c>
       <c r="B32" s="3">
-        <v>6110070016</v>
+        <v>6110070010</v>
       </c>
       <c r="C32" s="2">
-        <v>4</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
+        <v>6110070006</v>
+      </c>
+      <c r="B33" s="3">
         <v>6110070016</v>
       </c>
-      <c r="B33" s="3">
-        <v>6110070007</v>
-      </c>
       <c r="C33" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
+        <v>6110070016</v>
+      </c>
+      <c r="B34" s="3">
         <v>6110070007</v>
       </c>
-      <c r="B34" s="3">
-        <v>6110070103</v>
-      </c>
       <c r="C34" s="2">
-        <v>5.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
+        <v>6110070007</v>
+      </c>
+      <c r="B35" s="3">
         <v>6110070103</v>
       </c>
-      <c r="B35" s="3">
-        <v>6110070017</v>
-      </c>
       <c r="C35" s="2">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
+        <v>6110070103</v>
+      </c>
+      <c r="B36" s="3">
         <v>6110070017</v>
       </c>
-      <c r="B36" s="3">
-        <v>6110070104</v>
-      </c>
       <c r="C36" s="2">
-        <v>10</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
+        <v>6110070017</v>
+      </c>
+      <c r="B37" s="3">
         <v>6110070104</v>
       </c>
-      <c r="B37" s="3">
-        <v>6110070019</v>
-      </c>
       <c r="C37" s="2">
-        <v>6.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -848,43 +853,43 @@
         <v>6110070104</v>
       </c>
       <c r="B38" s="3">
-        <v>6110070018</v>
+        <v>6110070019</v>
       </c>
       <c r="C38" s="2">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
+        <v>6110070104</v>
+      </c>
+      <c r="B39" s="3">
         <v>6110070018</v>
       </c>
-      <c r="B39" s="3">
-        <v>6110070105</v>
-      </c>
       <c r="C39" s="2">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
+        <v>6110070018</v>
+      </c>
+      <c r="B40" s="3">
         <v>6110070105</v>
       </c>
-      <c r="B40" s="3">
-        <v>6110070106</v>
-      </c>
       <c r="C40" s="2">
-        <v>6.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
+        <v>6110070105</v>
+      </c>
+      <c r="B41" s="3">
         <v>6110070106</v>
       </c>
-      <c r="B41" s="3">
-        <v>6110070008</v>
-      </c>
       <c r="C41" s="2">
-        <v>0.8</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -892,65 +897,65 @@
         <v>6110070106</v>
       </c>
       <c r="B42" s="3">
-        <v>6110070009</v>
+        <v>6110070008</v>
       </c>
       <c r="C42" s="2">
-        <v>7.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
+        <v>6110070106</v>
+      </c>
+      <c r="B43" s="3">
         <v>6110070009</v>
       </c>
-      <c r="B43" s="3">
-        <v>6110070004</v>
-      </c>
       <c r="C43" s="2">
-        <v>6</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
+        <v>6110070009</v>
+      </c>
+      <c r="B44" s="3">
         <v>6110070004</v>
       </c>
-      <c r="B44" s="3">
-        <v>6110070013</v>
-      </c>
       <c r="C44" s="2">
-        <v>7.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
+        <v>6110070004</v>
+      </c>
+      <c r="B45" s="3">
         <v>6110070013</v>
       </c>
-      <c r="B45" s="3">
-        <v>6110070003</v>
-      </c>
       <c r="C45" s="2">
-        <v>5.3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
+        <v>6110070013</v>
+      </c>
+      <c r="B46" s="3">
         <v>6110070003</v>
       </c>
-      <c r="B46" s="3">
-        <v>6110070107</v>
-      </c>
       <c r="C46" s="2">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
+        <v>6110070003</v>
+      </c>
+      <c r="B47" s="3">
         <v>6110070107</v>
       </c>
-      <c r="B47" s="3">
-        <v>6110070012</v>
-      </c>
       <c r="C47" s="2">
-        <v>6</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -958,32 +963,32 @@
         <v>6110070107</v>
       </c>
       <c r="B48" s="3">
-        <v>6110070002</v>
+        <v>6110070012</v>
       </c>
       <c r="C48" s="2">
-        <v>4.0999999999999996</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
+        <v>6110070107</v>
+      </c>
+      <c r="B49" s="3">
         <v>6110070002</v>
       </c>
-      <c r="B49" s="3">
-        <v>6110070108</v>
-      </c>
       <c r="C49" s="2">
-        <v>3.7</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
+        <v>6110070002</v>
+      </c>
+      <c r="B50" s="3">
         <v>6110070108</v>
       </c>
-      <c r="B50" s="3">
-        <v>6110070105</v>
-      </c>
       <c r="C50" s="2">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -991,21 +996,21 @@
         <v>6110070108</v>
       </c>
       <c r="B51" s="3">
-        <v>6110070005</v>
+        <v>6110070105</v>
       </c>
       <c r="C51" s="2">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
+        <v>6110070108</v>
+      </c>
+      <c r="B52" s="3">
         <v>6110070005</v>
       </c>
-      <c r="B52" s="3">
-        <v>6110070014</v>
-      </c>
       <c r="C52" s="2">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1013,21 +1018,21 @@
         <v>6110070005</v>
       </c>
       <c r="B53" s="3">
-        <v>6110070109</v>
+        <v>6110070014</v>
       </c>
       <c r="C53" s="2">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
+        <v>6110070005</v>
+      </c>
+      <c r="B54" s="3">
         <v>6110070109</v>
       </c>
-      <c r="B54" s="3">
-        <v>6110070011</v>
-      </c>
       <c r="C54" s="2">
-        <v>7.2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1035,21 +1040,21 @@
         <v>6110070109</v>
       </c>
       <c r="B55" s="3">
-        <v>6110070110</v>
+        <v>6110070011</v>
       </c>
       <c r="C55" s="2">
-        <v>11.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
+        <v>6110070109</v>
+      </c>
+      <c r="B56" s="3">
         <v>6110070110</v>
       </c>
-      <c r="B56" s="3">
-        <v>6110070015</v>
-      </c>
       <c r="C56" s="2">
-        <v>0.35</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1057,21 +1062,21 @@
         <v>6110070110</v>
       </c>
       <c r="B57" s="3">
-        <v>6110070006</v>
+        <v>6110070015</v>
       </c>
       <c r="C57" s="2">
-        <v>4.7</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
-        <v>6110021001</v>
+        <v>6110070110</v>
       </c>
       <c r="B58" s="3">
-        <v>6110021002</v>
+        <v>6110070006</v>
       </c>
       <c r="C58" s="2">
-        <v>10.199999999999999</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1079,10 +1084,10 @@
         <v>6110021001</v>
       </c>
       <c r="B59" s="3">
-        <v>6110021003</v>
+        <v>6110021002</v>
       </c>
       <c r="C59" s="2">
-        <v>14.6</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1090,21 +1095,21 @@
         <v>6110021001</v>
       </c>
       <c r="B60" s="3">
-        <v>6110020012</v>
+        <v>6110021003</v>
       </c>
       <c r="C60" s="2">
-        <v>20</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
-        <v>6110021003</v>
+        <v>6110021001</v>
       </c>
       <c r="B61" s="3">
-        <v>6110021005</v>
+        <v>6110020012</v>
       </c>
       <c r="C61" s="2">
-        <v>13.9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1112,21 +1117,21 @@
         <v>6110021003</v>
       </c>
       <c r="B62" s="3">
-        <v>6110021004</v>
+        <v>6110021005</v>
       </c>
       <c r="C62" s="2">
-        <v>17.399999999999999</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
+        <v>6110021003</v>
+      </c>
+      <c r="B63" s="3">
         <v>6110021004</v>
       </c>
-      <c r="B63" s="3">
-        <v>6110021005</v>
-      </c>
       <c r="C63" s="2">
-        <v>5.9</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1134,10 +1139,10 @@
         <v>6110021004</v>
       </c>
       <c r="B64" s="3">
-        <v>6110020008</v>
+        <v>6110021005</v>
       </c>
       <c r="C64" s="2">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1145,98 +1150,98 @@
         <v>6110021004</v>
       </c>
       <c r="B65" s="3">
-        <v>6110021006</v>
+        <v>6110020008</v>
       </c>
       <c r="C65" s="2">
-        <v>7.4</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
-        <v>6110021005</v>
+        <v>6110021004</v>
       </c>
       <c r="B66" s="3">
         <v>6110021006</v>
       </c>
       <c r="C66" s="2">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
+        <v>6110021005</v>
+      </c>
+      <c r="B67" s="3">
         <v>6110021006</v>
       </c>
-      <c r="B67" s="3">
-        <v>6110021007</v>
-      </c>
       <c r="C67" s="2">
-        <v>8.1999999999999993</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
+        <v>6110021006</v>
+      </c>
+      <c r="B68" s="3">
         <v>6110021007</v>
       </c>
-      <c r="B68" s="3">
-        <v>6110021008</v>
-      </c>
       <c r="C68" s="2">
-        <v>11.2</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
+        <v>6110021007</v>
+      </c>
+      <c r="B69" s="3">
         <v>6110021008</v>
       </c>
-      <c r="B69" s="3">
-        <v>6110021009</v>
-      </c>
       <c r="C69" s="2">
-        <v>13.1</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
+        <v>6110021008</v>
+      </c>
+      <c r="B70" s="3">
         <v>6110021009</v>
       </c>
-      <c r="B70" s="3">
-        <v>6110021010</v>
-      </c>
       <c r="C70" s="2">
-        <v>9</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
-        <v>6110020003</v>
+        <v>6110021009</v>
       </c>
       <c r="B71" s="3">
-        <v>6110020013</v>
+        <v>6110021010</v>
       </c>
       <c r="C71" s="2">
-        <v>0.7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
+        <v>6110020003</v>
+      </c>
+      <c r="B72" s="3">
         <v>6110020013</v>
       </c>
-      <c r="B72" s="3">
-        <v>6110020004</v>
-      </c>
       <c r="C72" s="2">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
+        <v>6110020013</v>
+      </c>
+      <c r="B73" s="3">
         <v>6110020004</v>
       </c>
-      <c r="B73" s="3">
-        <v>6110020005</v>
-      </c>
       <c r="C73" s="2">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1244,43 +1249,43 @@
         <v>6110020004</v>
       </c>
       <c r="B74" s="3">
-        <v>6110020014</v>
+        <v>6110020005</v>
       </c>
       <c r="C74" s="2">
-        <v>8</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
-        <v>6110020005</v>
+        <v>6110020004</v>
       </c>
       <c r="B75" s="3">
-        <v>6110020008</v>
+        <v>6110020014</v>
       </c>
       <c r="C75" s="2">
-        <v>0.3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
-        <v>6110020003</v>
+        <v>6110020005</v>
       </c>
       <c r="B76" s="3">
-        <v>6110020012</v>
+        <v>6110020008</v>
       </c>
       <c r="C76" s="2">
-        <v>5.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
-        <v>6110020008</v>
+        <v>6110020003</v>
       </c>
       <c r="B77" s="3">
-        <v>6110020017</v>
+        <v>6110020012</v>
       </c>
       <c r="C77" s="2">
-        <v>0.8</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1288,65 +1293,65 @@
         <v>6110020008</v>
       </c>
       <c r="B78" s="3">
-        <v>6110020016</v>
+        <v>6110020017</v>
       </c>
       <c r="C78" s="2">
-        <v>5.8</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
+        <v>6110020008</v>
+      </c>
+      <c r="B79" s="3">
         <v>6110020016</v>
       </c>
-      <c r="B79" s="3">
-        <v>6110020015</v>
-      </c>
       <c r="C79" s="2">
-        <v>7.6</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
-        <v>6110020005</v>
+        <v>6110020016</v>
       </c>
       <c r="B80" s="3">
-        <v>6110020006</v>
+        <v>6110020015</v>
       </c>
       <c r="C80" s="2">
-        <v>4.9000000000000004</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
+        <v>6110020005</v>
+      </c>
+      <c r="B81" s="3">
         <v>6110020006</v>
       </c>
-      <c r="B81" s="3">
-        <v>6110020007</v>
-      </c>
       <c r="C81" s="2">
-        <v>6.8</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
+        <v>6110020006</v>
+      </c>
+      <c r="B82" s="3">
         <v>6110020007</v>
       </c>
-      <c r="B82" s="3">
-        <v>6110030014</v>
-      </c>
       <c r="C82" s="2">
-        <v>12.1</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
-        <v>6110010008</v>
+        <v>6110020007</v>
       </c>
       <c r="B83" s="3">
-        <v>6110020003</v>
+        <v>6110030014</v>
       </c>
       <c r="C83" s="2">
-        <v>10</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1354,10 +1359,10 @@
         <v>6110010008</v>
       </c>
       <c r="B84" s="3">
-        <v>6110010018</v>
+        <v>6110020003</v>
       </c>
       <c r="C84" s="2">
-        <v>0.4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1365,43 +1370,43 @@
         <v>6110010008</v>
       </c>
       <c r="B85" s="3">
-        <v>6110010016</v>
+        <v>6110010018</v>
       </c>
       <c r="C85" s="2">
-        <v>0.65</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
+        <v>6110010008</v>
+      </c>
+      <c r="B86" s="3">
         <v>6110010016</v>
       </c>
-      <c r="B86" s="3">
-        <v>6110010007</v>
-      </c>
       <c r="C86" s="2">
-        <v>1.6</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
+        <v>6110010016</v>
+      </c>
+      <c r="B87" s="3">
         <v>6110010007</v>
       </c>
-      <c r="B87" s="3">
-        <v>6110010014</v>
-      </c>
       <c r="C87" s="2">
-        <v>5.8</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
+        <v>6110010007</v>
+      </c>
+      <c r="B88" s="3">
         <v>6110010014</v>
       </c>
-      <c r="B88" s="3">
-        <v>6110010006</v>
-      </c>
       <c r="C88" s="2">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1409,32 +1414,32 @@
         <v>6110010014</v>
       </c>
       <c r="B89" s="3">
-        <v>6110010005</v>
+        <v>6110010006</v>
       </c>
       <c r="C89" s="2">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
+        <v>6110010014</v>
+      </c>
+      <c r="B90" s="3">
         <v>6110010005</v>
       </c>
-      <c r="B90" s="3">
-        <v>6110010013</v>
-      </c>
       <c r="C90" s="2">
-        <v>1.1000000000000001</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
-        <v>6110010006</v>
+        <v>6110010005</v>
       </c>
       <c r="B91" s="3">
-        <v>6110010005</v>
+        <v>6110010013</v>
       </c>
       <c r="C91" s="2">
-        <v>4.5</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1442,65 +1447,65 @@
         <v>6110010006</v>
       </c>
       <c r="B92" s="3">
-        <v>6110010015</v>
+        <v>6110010005</v>
       </c>
       <c r="C92" s="2">
-        <v>12.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
-        <v>6110010009</v>
+        <v>6110010006</v>
       </c>
       <c r="B93" s="3">
-        <v>6110010001</v>
+        <v>6110010015</v>
       </c>
       <c r="C93" s="2">
-        <v>5.2</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
+        <v>6110010009</v>
+      </c>
+      <c r="B94" s="3">
         <v>6110010001</v>
       </c>
-      <c r="B94" s="3">
-        <v>6110010002</v>
-      </c>
       <c r="C94" s="2">
-        <v>15.5</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
+        <v>6110010001</v>
+      </c>
+      <c r="B95" s="3">
         <v>6110010002</v>
       </c>
-      <c r="B95" s="3">
-        <v>6110010010</v>
-      </c>
       <c r="C95" s="2">
-        <v>4.0999999999999996</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
+        <v>6110010002</v>
+      </c>
+      <c r="B96" s="3">
         <v>6110010010</v>
       </c>
-      <c r="B96" s="3">
-        <v>6110010003</v>
-      </c>
       <c r="C96" s="2">
-        <v>4.9000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
+        <v>6110010010</v>
+      </c>
+      <c r="B97" s="3">
         <v>6110010003</v>
       </c>
-      <c r="B97" s="3">
-        <v>6110010011</v>
-      </c>
       <c r="C97" s="2">
-        <v>0.4</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1508,161 +1513,161 @@
         <v>6110010003</v>
       </c>
       <c r="B98" s="3">
-        <v>6110010004</v>
+        <v>6110010011</v>
       </c>
       <c r="C98" s="2">
-        <v>8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
+        <v>6110010003</v>
+      </c>
+      <c r="B99" s="3">
         <v>6110010004</v>
       </c>
-      <c r="B99" s="3">
-        <v>6110010012</v>
-      </c>
       <c r="C99" s="2">
-        <v>3.6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
+        <v>6110010004</v>
+      </c>
+      <c r="B100" s="3">
         <v>6110010012</v>
       </c>
-      <c r="B100" s="3">
-        <v>6110010017</v>
-      </c>
       <c r="C100" s="2">
-        <v>3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
+        <v>6110010012</v>
+      </c>
+      <c r="B101" s="3">
         <v>6110010017</v>
       </c>
-      <c r="B101" s="3">
-        <v>6110010018</v>
-      </c>
       <c r="C101" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
+        <v>6110010017</v>
+      </c>
+      <c r="B102" s="3">
         <v>6110010018</v>
       </c>
-      <c r="B102" s="3">
-        <v>6110010008</v>
-      </c>
       <c r="C102" s="2">
-        <v>0.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
-        <v>6110030007</v>
+        <v>6110010018</v>
       </c>
       <c r="B103" s="3">
-        <v>6110051001</v>
+        <v>6110010008</v>
       </c>
       <c r="C103" s="2">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
-        <v>6110030013</v>
+        <v>6110030007</v>
       </c>
       <c r="B104" s="3">
-        <v>6110030007</v>
+        <v>6110051001</v>
       </c>
       <c r="C104" s="2">
-        <v>6</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
-        <v>6110030004</v>
+        <v>6110030013</v>
       </c>
       <c r="B105" s="3">
-        <v>6110030013</v>
+        <v>6110030007</v>
       </c>
       <c r="C105" s="2">
-        <v>1.1000000000000001</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
-        <v>6110030012</v>
+        <v>6110030004</v>
       </c>
       <c r="B106" s="3">
-        <v>6110030004</v>
+        <v>6110030013</v>
       </c>
       <c r="C106" s="2">
-        <v>0.2</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
-        <v>6110030015</v>
+        <v>6110030012</v>
       </c>
       <c r="B107" s="3">
         <v>6110030004</v>
       </c>
       <c r="C107" s="2">
-        <v>11.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
-        <v>6110030003</v>
+        <v>6110030015</v>
       </c>
       <c r="B108" s="3">
-        <v>6110030015</v>
+        <v>6110030004</v>
       </c>
       <c r="C108" s="2">
-        <v>4.8</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
-        <v>6110030010</v>
+        <v>6110030003</v>
       </c>
       <c r="B109" s="3">
-        <v>6110030003</v>
+        <v>6110030015</v>
       </c>
       <c r="C109" s="2">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
-        <v>6110030002</v>
+        <v>6110030010</v>
       </c>
       <c r="B110" s="3">
-        <v>6110030010</v>
+        <v>6110030003</v>
       </c>
       <c r="C110" s="2">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
-        <v>6110030009</v>
+        <v>6110030002</v>
       </c>
       <c r="B111" s="3">
-        <v>6110030002</v>
+        <v>6110030010</v>
       </c>
       <c r="C111" s="2">
-        <v>1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
-        <v>6110030001</v>
+        <v>6110030009</v>
       </c>
       <c r="B112" s="3">
-        <v>6110030009</v>
+        <v>6110030002</v>
       </c>
       <c r="C112" s="2">
         <v>1</v>
@@ -1670,35 +1675,35 @@
     </row>
     <row r="113" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
-        <v>6110030016</v>
+        <v>6110030001</v>
       </c>
       <c r="B113" s="3">
-        <v>6110030015</v>
+        <v>6110030009</v>
       </c>
       <c r="C113" s="2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
-        <v>6110030005</v>
+        <v>6110030016</v>
       </c>
       <c r="B114" s="3">
         <v>6110030015</v>
       </c>
       <c r="C114" s="2">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
-        <v>6110030014</v>
+        <v>6110030005</v>
       </c>
       <c r="B115" s="3">
-        <v>6110030005</v>
+        <v>6110030015</v>
       </c>
       <c r="C115" s="2">
-        <v>2.2000000000000002</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1706,87 +1711,87 @@
         <v>6110030014</v>
       </c>
       <c r="B116" s="3">
-        <v>6110030018</v>
+        <v>6110030005</v>
       </c>
       <c r="C116" s="2">
-        <v>15.5</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
+        <v>6110030014</v>
+      </c>
+      <c r="B117" s="3">
         <v>6110030018</v>
       </c>
-      <c r="B117" s="3">
-        <v>6110030006</v>
-      </c>
       <c r="C117" s="2">
-        <v>1.3</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
+        <v>6110030018</v>
+      </c>
+      <c r="B118" s="3">
         <v>6110030006</v>
       </c>
-      <c r="B118" s="3">
-        <v>6110030017</v>
-      </c>
       <c r="C118" s="2">
-        <v>6.3</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
-        <v>6110051002</v>
+        <v>6110030006</v>
       </c>
       <c r="B119" s="3">
-        <v>6110030011</v>
+        <v>6110030017</v>
       </c>
       <c r="C119" s="2">
-        <v>23</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
+        <v>6110051002</v>
+      </c>
+      <c r="B120" s="3">
         <v>6110030011</v>
       </c>
-      <c r="B120" s="3">
-        <v>6110030008</v>
-      </c>
       <c r="C120" s="2">
-        <v>18.7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
-        <v>6110050023</v>
+        <v>6110030011</v>
       </c>
       <c r="B121" s="3">
-        <v>6110050101</v>
+        <v>6110030008</v>
       </c>
       <c r="C121" s="2">
-        <v>2.5</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
+        <v>6110050023</v>
+      </c>
+      <c r="B122" s="3">
         <v>6110050101</v>
       </c>
-      <c r="B122" s="3">
-        <v>6110050102</v>
-      </c>
       <c r="C122" s="2">
-        <v>5.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
+        <v>6110050101</v>
+      </c>
+      <c r="B123" s="3">
         <v>6110050102</v>
       </c>
-      <c r="B123" s="3">
-        <v>6110050024</v>
-      </c>
       <c r="C123" s="2">
-        <v>12.3</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1794,21 +1799,21 @@
         <v>6110050102</v>
       </c>
       <c r="B124" s="3">
-        <v>6110050103</v>
+        <v>6110050024</v>
       </c>
       <c r="C124" s="2">
-        <v>11</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
+        <v>6110050102</v>
+      </c>
+      <c r="B125" s="3">
         <v>6110050103</v>
       </c>
-      <c r="B125" s="3">
-        <v>6110050008</v>
-      </c>
       <c r="C125" s="2">
-        <v>2.1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1816,21 +1821,21 @@
         <v>6110050103</v>
       </c>
       <c r="B126" s="3">
-        <v>6110050026</v>
+        <v>6110050008</v>
       </c>
       <c r="C126" s="2">
-        <v>6.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
-        <v>6110050104</v>
+        <v>6110050103</v>
       </c>
       <c r="B127" s="3">
         <v>6110050026</v>
       </c>
       <c r="C127" s="2">
-        <v>4.3</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1838,21 +1843,21 @@
         <v>6110050104</v>
       </c>
       <c r="B128" s="3">
-        <v>6110050105</v>
+        <v>6110050026</v>
       </c>
       <c r="C128" s="2">
-        <v>4.45</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
+        <v>6110050104</v>
+      </c>
+      <c r="B129" s="3">
         <v>6110050105</v>
       </c>
-      <c r="B129" s="3">
-        <v>6110050027</v>
-      </c>
       <c r="C129" s="2">
-        <v>2.2999999999999998</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1860,43 +1865,43 @@
         <v>6110050105</v>
       </c>
       <c r="B130" s="3">
-        <v>6110050106</v>
+        <v>6110050027</v>
       </c>
       <c r="C130" s="2">
-        <v>1.2</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
+        <v>6110050105</v>
+      </c>
+      <c r="B131" s="3">
         <v>6110050106</v>
       </c>
-      <c r="B131" s="3">
-        <v>6110050107</v>
-      </c>
       <c r="C131" s="2">
-        <v>0.55000000000000004</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
+        <v>6110050106</v>
+      </c>
+      <c r="B132" s="3">
         <v>6110050107</v>
       </c>
-      <c r="B132" s="3">
-        <v>6110050025</v>
-      </c>
       <c r="C132" s="2">
-        <v>3.3</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
-        <v>6110050108</v>
+        <v>6110050107</v>
       </c>
       <c r="B133" s="3">
-        <v>6110050107</v>
+        <v>6110050025</v>
       </c>
       <c r="C133" s="2">
-        <v>2.2000000000000002</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1904,21 +1909,21 @@
         <v>6110050108</v>
       </c>
       <c r="B134" s="3">
-        <v>6110050014</v>
+        <v>6110050107</v>
       </c>
       <c r="C134" s="2">
-        <v>0.14000000000000001</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
-        <v>6110050109</v>
+        <v>6110050108</v>
       </c>
       <c r="B135" s="3">
-        <v>6110050108</v>
+        <v>6110050014</v>
       </c>
       <c r="C135" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1926,10 +1931,10 @@
         <v>6110050109</v>
       </c>
       <c r="B136" s="3">
-        <v>6110050025</v>
+        <v>6110050108</v>
       </c>
       <c r="C136" s="2">
-        <v>1.4</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1937,21 +1942,21 @@
         <v>6110050109</v>
       </c>
       <c r="B137" s="3">
-        <v>6110050110</v>
+        <v>6110050025</v>
       </c>
       <c r="C137" s="2">
-        <v>0.96</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
+        <v>6110050109</v>
+      </c>
+      <c r="B138" s="3">
         <v>6110050110</v>
       </c>
-      <c r="B138" s="3">
-        <v>6110050013</v>
-      </c>
       <c r="C138" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1959,21 +1964,21 @@
         <v>6110050110</v>
       </c>
       <c r="B139" s="3">
-        <v>6110050111</v>
+        <v>6110050013</v>
       </c>
       <c r="C139" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
+        <v>6110050110</v>
+      </c>
+      <c r="B140" s="3">
         <v>6110050111</v>
       </c>
-      <c r="B140" s="3">
-        <v>6110050029</v>
-      </c>
       <c r="C140" s="2">
-        <v>1</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1981,21 +1986,21 @@
         <v>6110050111</v>
       </c>
       <c r="B141" s="3">
-        <v>6110050112</v>
+        <v>6110050029</v>
       </c>
       <c r="C141" s="2">
-        <v>0.18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
+        <v>6110050111</v>
+      </c>
+      <c r="B142" s="3">
         <v>6110050112</v>
       </c>
-      <c r="B142" s="3">
-        <v>6110050021</v>
-      </c>
       <c r="C142" s="2">
-        <v>30</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2003,120 +2008,120 @@
         <v>6110050112</v>
       </c>
       <c r="B143" s="3">
-        <v>6110050113</v>
+        <v>6110050021</v>
       </c>
       <c r="C143" s="2">
-        <v>1.1399999999999999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
+        <v>6110050112</v>
+      </c>
+      <c r="B144" s="3">
         <v>6110050113</v>
       </c>
-      <c r="B144" s="3">
-        <v>6110050015</v>
-      </c>
       <c r="C144" s="2">
-        <v>0.1</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
+        <v>6110050113</v>
+      </c>
+      <c r="B145" s="3">
         <v>6110050015</v>
       </c>
-      <c r="B145" s="3">
-        <v>6110050016</v>
-      </c>
       <c r="C145" s="2">
-        <v>0.87</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
-        <v>6110050113</v>
+        <v>6110050015</v>
       </c>
       <c r="B146" s="3">
-        <v>6110050114</v>
+        <v>6110050016</v>
       </c>
       <c r="C146" s="2">
-        <v>3.3</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
+        <v>6110050113</v>
+      </c>
+      <c r="B147" s="3">
         <v>6110050114</v>
       </c>
-      <c r="B147" s="3">
-        <v>6110050012</v>
-      </c>
       <c r="C147" s="2">
-        <v>6.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
+        <v>6110050114</v>
+      </c>
+      <c r="B148" s="3">
         <v>6110050012</v>
       </c>
-      <c r="B148" s="3">
-        <v>6110050028</v>
-      </c>
       <c r="C148" s="2">
-        <v>6</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
-        <v>6110050114</v>
+        <v>6110050012</v>
       </c>
       <c r="B149" s="3">
-        <v>6110050115</v>
+        <v>6110050028</v>
       </c>
       <c r="C149" s="2">
-        <v>1.05</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
+        <v>6110050114</v>
+      </c>
+      <c r="B150" s="3">
         <v>6110050115</v>
       </c>
-      <c r="B150" s="3">
-        <v>6110050011</v>
-      </c>
       <c r="C150" s="2">
-        <v>5.4</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
+        <v>6110050115</v>
+      </c>
+      <c r="B151" s="3">
         <v>6110050011</v>
       </c>
-      <c r="B151" s="3">
-        <v>6110050010</v>
-      </c>
       <c r="C151" s="2">
-        <v>6.7</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
-        <v>6110050115</v>
+        <v>6110050011</v>
       </c>
       <c r="B152" s="3">
-        <v>6110050030</v>
+        <v>6110050010</v>
       </c>
       <c r="C152" s="2">
-        <v>1.1499999999999999</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
-        <v>6110040101</v>
+        <v>6110050115</v>
       </c>
       <c r="B153" s="3">
         <v>6110050030</v>
       </c>
       <c r="C153" s="2">
-        <v>2.2999999999999998</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2124,10 +2129,10 @@
         <v>6110040101</v>
       </c>
       <c r="B154" s="3">
-        <v>6110040006</v>
+        <v>6110050030</v>
       </c>
       <c r="C154" s="2">
-        <v>8.9</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2135,32 +2140,32 @@
         <v>6110040101</v>
       </c>
       <c r="B155" s="3">
-        <v>6110040021</v>
+        <v>6110040006</v>
       </c>
       <c r="C155" s="2">
-        <v>1.3</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
+        <v>6110040101</v>
+      </c>
+      <c r="B156" s="3">
         <v>6110040021</v>
       </c>
-      <c r="B156" s="3">
-        <v>6110040102</v>
-      </c>
       <c r="C156" s="2">
-        <v>4.0999999999999996</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
+        <v>6110040021</v>
+      </c>
+      <c r="B157" s="3">
         <v>6110040102</v>
       </c>
-      <c r="B157" s="3">
-        <v>6110040022</v>
-      </c>
       <c r="C157" s="2">
-        <v>1.8</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2168,32 +2173,32 @@
         <v>6110040102</v>
       </c>
       <c r="B158" s="3">
-        <v>6110040011</v>
+        <v>6110040022</v>
       </c>
       <c r="C158" s="2">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
+        <v>6110040102</v>
+      </c>
+      <c r="B159" s="3">
         <v>6110040011</v>
       </c>
-      <c r="B159" s="3">
-        <v>6110040103</v>
-      </c>
       <c r="C159" s="2">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
+        <v>6110040011</v>
+      </c>
+      <c r="B160" s="3">
         <v>6110040103</v>
       </c>
-      <c r="B160" s="3">
-        <v>6110040010</v>
-      </c>
       <c r="C160" s="2">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2201,65 +2206,65 @@
         <v>6110040103</v>
       </c>
       <c r="B161" s="3">
-        <v>6110040104</v>
+        <v>6110040010</v>
       </c>
       <c r="C161" s="2">
-        <v>0.9</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
+        <v>6110040103</v>
+      </c>
+      <c r="B162" s="3">
         <v>6110040104</v>
       </c>
-      <c r="B162" s="3">
-        <v>6110040105</v>
-      </c>
       <c r="C162" s="2">
-        <v>8.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
-        <v>6110040020</v>
+        <v>6110040104</v>
       </c>
       <c r="B163" s="3">
         <v>6110040105</v>
       </c>
       <c r="C163" s="2">
-        <v>5.8</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
-        <v>6110040104</v>
+        <v>6110040020</v>
       </c>
       <c r="B164" s="3">
-        <v>6110040012</v>
+        <v>6110040105</v>
       </c>
       <c r="C164" s="2">
-        <v>0.3</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
+        <v>6110040104</v>
+      </c>
+      <c r="B165" s="3">
         <v>6110040012</v>
       </c>
-      <c r="B165" s="3">
-        <v>6110040106</v>
-      </c>
       <c r="C165" s="2">
-        <v>5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
+        <v>6110040012</v>
+      </c>
+      <c r="B166" s="3">
         <v>6110040106</v>
       </c>
-      <c r="B166" s="3">
-        <v>6110040016</v>
-      </c>
       <c r="C166" s="2">
-        <v>2.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2267,21 +2272,21 @@
         <v>6110040106</v>
       </c>
       <c r="B167" s="3">
-        <v>6110040107</v>
+        <v>6110040016</v>
       </c>
       <c r="C167" s="2">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
+        <v>6110040106</v>
+      </c>
+      <c r="B168" s="3">
         <v>6110040107</v>
       </c>
-      <c r="B168" s="3">
-        <v>6110040023</v>
-      </c>
       <c r="C168" s="2">
-        <v>13</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2289,43 +2294,43 @@
         <v>6110040107</v>
       </c>
       <c r="B169" s="3">
-        <v>6110040108</v>
+        <v>6110040023</v>
       </c>
       <c r="C169" s="2">
-        <v>3.4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
+        <v>6110040107</v>
+      </c>
+      <c r="B170" s="3">
         <v>6110040108</v>
       </c>
-      <c r="B170" s="3">
-        <v>6110040017</v>
-      </c>
       <c r="C170" s="2">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
-        <v>6110040016</v>
+        <v>6110040108</v>
       </c>
       <c r="B171" s="3">
-        <v>6110040109</v>
+        <v>6110040017</v>
       </c>
       <c r="C171" s="2">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
+        <v>6110040016</v>
+      </c>
+      <c r="B172" s="3">
         <v>6110040109</v>
       </c>
-      <c r="B172" s="3">
-        <v>6110040014</v>
-      </c>
       <c r="C172" s="2">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2333,21 +2338,21 @@
         <v>6110040109</v>
       </c>
       <c r="B173" s="3">
-        <v>6110040015</v>
+        <v>6110040014</v>
       </c>
       <c r="C173" s="2">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
-        <v>6110041101</v>
+        <v>6110040109</v>
       </c>
       <c r="B174" s="3">
-        <v>6110040105</v>
+        <v>6110040015</v>
       </c>
       <c r="C174" s="2">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2355,10 +2360,10 @@
         <v>6110041101</v>
       </c>
       <c r="B175" s="3">
-        <v>6110041008</v>
+        <v>6110040105</v>
       </c>
       <c r="C175" s="2">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2366,21 +2371,21 @@
         <v>6110041101</v>
       </c>
       <c r="B176" s="3">
-        <v>6110041007</v>
+        <v>6110041008</v>
       </c>
       <c r="C176" s="2">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
+        <v>6110041101</v>
+      </c>
+      <c r="B177" s="3">
         <v>6110041007</v>
       </c>
-      <c r="B177" s="3">
-        <v>6110041006</v>
-      </c>
       <c r="C177" s="2">
-        <v>4.9000000000000004</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2388,87 +2393,87 @@
         <v>6110041007</v>
       </c>
       <c r="B178" s="3">
-        <v>6110041102</v>
+        <v>6110041006</v>
       </c>
       <c r="C178" s="2">
-        <v>2.7</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
+        <v>6110041007</v>
+      </c>
+      <c r="B179" s="3">
         <v>6110041102</v>
       </c>
-      <c r="B179" s="3">
-        <v>6110041003</v>
-      </c>
       <c r="C179" s="2">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
+        <v>6110041102</v>
+      </c>
+      <c r="B180" s="3">
         <v>6110041003</v>
       </c>
-      <c r="B180" s="3">
-        <v>6110041004</v>
-      </c>
       <c r="C180" s="2">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
+        <v>6110041003</v>
+      </c>
+      <c r="B181" s="3">
         <v>6110041004</v>
       </c>
-      <c r="B181" s="3">
-        <v>6110041001</v>
-      </c>
       <c r="C181" s="2">
-        <v>12.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
+        <v>6110041004</v>
+      </c>
+      <c r="B182" s="3">
         <v>6110041001</v>
       </c>
-      <c r="B182" s="3">
-        <v>6110041002</v>
-      </c>
       <c r="C182" s="2">
-        <v>5.4</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
-        <v>6110041102</v>
+        <v>6110041001</v>
       </c>
       <c r="B183" s="3">
-        <v>6110041005</v>
+        <v>6110041002</v>
       </c>
       <c r="C183" s="2">
-        <v>1.7</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
+        <v>6110041102</v>
+      </c>
+      <c r="B184" s="3">
         <v>6110041005</v>
       </c>
-      <c r="B184" s="3">
-        <v>6110040009</v>
-      </c>
       <c r="C184" s="2">
-        <v>11.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
+        <v>6110041005</v>
+      </c>
+      <c r="B185" s="3">
         <v>6110040009</v>
       </c>
-      <c r="B185" s="3">
-        <v>6110040019</v>
-      </c>
       <c r="C185" s="2">
-        <v>7.46</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2476,21 +2481,21 @@
         <v>6110040009</v>
       </c>
       <c r="B186" s="3">
-        <v>6110040110</v>
+        <v>6110040019</v>
       </c>
       <c r="C186" s="2">
-        <v>2.97</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
+        <v>6110040009</v>
+      </c>
+      <c r="B187" s="3">
         <v>6110040110</v>
       </c>
-      <c r="B187" s="3">
-        <v>6110040018</v>
-      </c>
       <c r="C187" s="2">
-        <v>5.19</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2498,65 +2503,65 @@
         <v>6110040110</v>
       </c>
       <c r="B188" s="3">
-        <v>6110040003</v>
+        <v>6110040018</v>
       </c>
       <c r="C188" s="2">
-        <v>5.89</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
+        <v>6110040110</v>
+      </c>
+      <c r="B189" s="3">
         <v>6110040003</v>
       </c>
-      <c r="B189" s="3">
-        <v>6110040001</v>
-      </c>
       <c r="C189" s="2">
-        <v>20.57</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
-        <v>6110052003</v>
+        <v>6110040003</v>
       </c>
       <c r="B190" s="3">
-        <v>6110052002</v>
+        <v>6110040001</v>
       </c>
       <c r="C190" s="2">
-        <v>7.5</v>
+        <v>20.57</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
+        <v>6110052003</v>
+      </c>
+      <c r="B191" s="3">
         <v>6110052002</v>
       </c>
-      <c r="B191" s="3">
-        <v>6110052001</v>
-      </c>
       <c r="C191" s="2">
-        <v>5.6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
+        <v>6110052002</v>
+      </c>
+      <c r="B192" s="3">
         <v>6110052001</v>
       </c>
-      <c r="B192" s="3">
-        <v>6110052004</v>
-      </c>
       <c r="C192" s="2">
-        <v>9.1999999999999993</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
+        <v>6110052001</v>
+      </c>
+      <c r="B193" s="3">
         <v>6110052004</v>
       </c>
-      <c r="B193" s="3">
-        <v>6110052005</v>
-      </c>
       <c r="C193" s="2">
-        <v>2.4</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2564,164 +2569,164 @@
         <v>6110052004</v>
       </c>
       <c r="B194" s="3">
-        <v>6110052006</v>
+        <v>6110052005</v>
       </c>
       <c r="C194" s="2">
-        <v>12.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
+        <v>6110052004</v>
+      </c>
+      <c r="B195" s="3">
         <v>6110052006</v>
       </c>
-      <c r="B195" s="3">
-        <v>6110052007</v>
-      </c>
       <c r="C195" s="2">
-        <v>8.9</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
+        <v>6110052006</v>
+      </c>
+      <c r="B196" s="3">
         <v>6110052007</v>
       </c>
-      <c r="B196" s="3">
-        <v>6110052010</v>
-      </c>
       <c r="C196" s="2">
-        <v>9.1999999999999993</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
+        <v>6110052007</v>
+      </c>
+      <c r="B197" s="3">
         <v>6110052010</v>
       </c>
-      <c r="B197" s="3">
-        <v>6110052101</v>
-      </c>
       <c r="C197" s="2">
-        <v>0.4</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
+        <v>6110052010</v>
+      </c>
+      <c r="B198" s="3">
         <v>6110052101</v>
       </c>
-      <c r="B198" s="3">
-        <v>6110052102</v>
-      </c>
       <c r="C198" s="2">
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
+        <v>6110052101</v>
+      </c>
+      <c r="B199" s="3">
         <v>6110052102</v>
       </c>
-      <c r="B199" s="3">
-        <v>6110052013</v>
-      </c>
       <c r="C199" s="2">
-        <v>0.3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
+        <v>6110052102</v>
+      </c>
+      <c r="B200" s="3">
         <v>6110052013</v>
       </c>
-      <c r="B200" s="3">
-        <v>6110052011</v>
-      </c>
       <c r="C200" s="2">
-        <v>9.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
+        <v>6110052013</v>
+      </c>
+      <c r="B201" s="3">
         <v>6110052011</v>
       </c>
-      <c r="B201" s="3">
-        <v>6110052012</v>
-      </c>
       <c r="C201" s="2">
-        <v>6</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
-        <v>6110052101</v>
+        <v>6110052011</v>
       </c>
       <c r="B202" s="3">
-        <v>6110052008</v>
+        <v>6110052012</v>
       </c>
       <c r="C202" s="2">
-        <v>0.9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
+        <v>6110052101</v>
+      </c>
+      <c r="B203" s="3">
         <v>6110052008</v>
       </c>
-      <c r="B203" s="3">
-        <v>6110052009</v>
-      </c>
       <c r="C203" s="2">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
+        <v>6110052008</v>
+      </c>
+      <c r="B204" s="3">
         <v>6110052009</v>
       </c>
-      <c r="B204" s="3">
-        <v>6110052015</v>
-      </c>
       <c r="C204" s="2">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
+        <v>6110052009</v>
+      </c>
+      <c r="B205" s="3">
         <v>6110052015</v>
       </c>
-      <c r="B205" s="3">
-        <v>6110052103</v>
-      </c>
       <c r="C205" s="2">
-        <v>6.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
+        <v>6110052015</v>
+      </c>
+      <c r="B206" s="3">
         <v>6110052103</v>
       </c>
-      <c r="B206" s="3">
-        <v>6110052018</v>
-      </c>
       <c r="C206" s="2">
-        <v>8</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
+        <v>6110052103</v>
+      </c>
+      <c r="B207" s="3">
         <v>6110052018</v>
       </c>
-      <c r="B207" s="3">
-        <v>6110052016</v>
-      </c>
       <c r="C207" s="2">
-        <v>3.2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
+        <v>6110052018</v>
+      </c>
+      <c r="B208" s="3">
         <v>6110052016</v>
       </c>
-      <c r="B208" s="3">
-        <v>6110052019</v>
-      </c>
       <c r="C208" s="2">
-        <v>15.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2729,142 +2734,142 @@
         <v>6110052016</v>
       </c>
       <c r="B209" s="3">
-        <v>6110052017</v>
+        <v>6110052019</v>
       </c>
       <c r="C209" s="2">
-        <v>4.5999999999999996</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
-        <v>6110052102</v>
+        <v>6110052016</v>
       </c>
       <c r="B210" s="3">
         <v>6110052017</v>
       </c>
       <c r="C210" s="2">
-        <v>15.3</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
-        <v>6110051001</v>
+        <v>6110052102</v>
       </c>
       <c r="B211" s="3">
-        <v>6110051102</v>
+        <v>6110052017</v>
       </c>
       <c r="C211" s="2">
-        <v>6.1</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
-        <v>6110051003</v>
+        <v>6110051001</v>
       </c>
       <c r="B212" s="3">
         <v>6110051102</v>
       </c>
       <c r="C212" s="2">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
+        <v>6110051003</v>
+      </c>
+      <c r="B213" s="3">
         <v>6110051102</v>
       </c>
-      <c r="B213" s="3">
-        <v>6110051008</v>
-      </c>
       <c r="C213" s="2">
-        <v>10.6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
+        <v>6110051102</v>
+      </c>
+      <c r="B214" s="3">
         <v>6110051008</v>
       </c>
-      <c r="B214" s="3">
-        <v>6110051101</v>
-      </c>
       <c r="C214" s="2">
-        <v>0.4</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
+        <v>6110051008</v>
+      </c>
+      <c r="B215" s="3">
         <v>6110051101</v>
       </c>
-      <c r="B215" s="3">
-        <v>6110051012</v>
-      </c>
       <c r="C215" s="2">
-        <v>2.2999999999999998</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
+        <v>6110051101</v>
+      </c>
+      <c r="B216" s="3">
         <v>6110051012</v>
       </c>
-      <c r="B216" s="3">
-        <v>6110051005</v>
-      </c>
       <c r="C216" s="2">
-        <v>4.9000000000000004</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
+        <v>6110051012</v>
+      </c>
+      <c r="B217" s="3">
         <v>6110051005</v>
       </c>
-      <c r="B217" s="3">
-        <v>6110051006</v>
-      </c>
       <c r="C217" s="2">
-        <v>4.96</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
+        <v>6110051005</v>
+      </c>
+      <c r="B218" s="3">
         <v>6110051006</v>
       </c>
-      <c r="B218" s="3">
-        <v>6110051007</v>
-      </c>
       <c r="C218" s="2">
-        <v>1.18</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
-        <v>6110051012</v>
+        <v>6110051006</v>
       </c>
       <c r="B219" s="3">
-        <v>6110051011</v>
+        <v>6110051007</v>
       </c>
       <c r="C219" s="2">
-        <v>4.8</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
-        <v>6110051101</v>
+        <v>6110051012</v>
       </c>
       <c r="B220" s="3">
-        <v>6110052103</v>
+        <v>6110051011</v>
       </c>
       <c r="C220" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
+        <v>6110051101</v>
+      </c>
+      <c r="B221" s="3">
         <v>6110052103</v>
       </c>
-      <c r="B221" s="3">
-        <v>6110051011</v>
-      </c>
       <c r="C221" s="2">
-        <v>0.6</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2872,25 +2877,36 @@
         <v>6110052103</v>
       </c>
       <c r="B222" s="3">
-        <v>6110050104</v>
+        <v>6110051011</v>
       </c>
       <c r="C222" s="2">
-        <v>7.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
+        <v>6110052103</v>
+      </c>
+      <c r="B223" s="3">
+        <v>6110050104</v>
+      </c>
+      <c r="C223" s="2">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="2">
         <v>6110051004</v>
       </c>
-      <c r="B223" s="3">
+      <c r="B224" s="3">
         <v>6110052103</v>
       </c>
-      <c r="C223" s="2">
+      <c r="C224" s="2">
         <v>9.5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C203" xr:uid="{E029D901-01C6-4C45-82CB-76280F611D91}"/>
+  <autoFilter ref="A1:C204" xr:uid="{E029D901-01C6-4C45-82CB-76280F611D91}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2900,27 +2916,15 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="5"/>
+    <col min="1" max="2" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="4"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="5">
-        <v>6110060015</v>
-      </c>
-      <c r="B1" s="5">
-        <v>6110070007</v>
-      </c>
-      <c r="C1" s="5">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/jarakdesa_test.xlsx
+++ b/jarakdesa_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Project\Podes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4147B4-B095-4D86-9877-27B5126AC24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FEAEF9-7D8A-48C3-AF71-17CE6B90A8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5AB5F18D-76D4-47E6-B2AD-1D0608D6BCA0}"/>
   </bookViews>
@@ -428,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E029D901-01C6-4C45-82CB-76280F611D91}">
   <dimension ref="A1:C224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1670,7 +1670,7 @@
         <v>6110030002</v>
       </c>
       <c r="C112" s="2">
-        <v>1</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/jarakdesa_test.xlsx
+++ b/jarakdesa_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Project\Podes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FEAEF9-7D8A-48C3-AF71-17CE6B90A8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05F3A72-1B2C-41AF-8DD9-F594ABB4EB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5AB5F18D-76D4-47E6-B2AD-1D0608D6BCA0}"/>
   </bookViews>
@@ -94,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -106,12 +106,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E029D901-01C6-4C45-82CB-76280F611D91}">
-  <dimension ref="A1:C224"/>
+  <dimension ref="A1:C230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="G226" sqref="G226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,25 +722,25 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="5">
+      <c r="A27" s="2">
+        <v>6110060015</v>
+      </c>
+      <c r="B27" s="3">
+        <v>6110070007</v>
+      </c>
+      <c r="C27" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
         <v>6110060102</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B28" s="3">
         <v>6110050101</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C28" s="2">
         <v>5.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="6">
-        <v>6110060015</v>
-      </c>
-      <c r="B28" s="6">
-        <v>6110070007</v>
-      </c>
-      <c r="C28" s="6">
-        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2764,144 +2758,210 @@
     </row>
     <row r="212" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
-        <v>6110051001</v>
+        <v>6110052001</v>
       </c>
       <c r="B212" s="3">
-        <v>6110051102</v>
+        <v>6110050102</v>
       </c>
       <c r="C212" s="2">
-        <v>6.1</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
-        <v>6110051003</v>
+        <v>6110052004</v>
       </c>
       <c r="B213" s="3">
-        <v>6110051102</v>
+        <v>6110050024</v>
       </c>
       <c r="C213" s="2">
-        <v>6.5</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
-        <v>6110051102</v>
+        <v>6110050024</v>
       </c>
       <c r="B214" s="3">
-        <v>6110051008</v>
+        <v>6110050102</v>
       </c>
       <c r="C214" s="2">
-        <v>10.6</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
-        <v>6110051008</v>
+        <v>6110052006</v>
       </c>
       <c r="B215" s="3">
-        <v>6110051101</v>
+        <v>6110050008</v>
       </c>
       <c r="C215" s="2">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
-        <v>6110051101</v>
+        <v>6110052007</v>
       </c>
       <c r="B216" s="3">
-        <v>6110051012</v>
+        <v>6110050026</v>
       </c>
       <c r="C216" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
-        <v>6110051012</v>
+        <v>6110052101</v>
       </c>
       <c r="B217" s="3">
-        <v>6110051005</v>
+        <v>6110050112</v>
       </c>
       <c r="C217" s="2">
-        <v>4.9000000000000004</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
-        <v>6110051005</v>
+        <v>6110051001</v>
       </c>
       <c r="B218" s="3">
-        <v>6110051006</v>
+        <v>6110051102</v>
       </c>
       <c r="C218" s="2">
-        <v>4.96</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
-        <v>6110051006</v>
+        <v>6110051003</v>
       </c>
       <c r="B219" s="3">
-        <v>6110051007</v>
+        <v>6110051102</v>
       </c>
       <c r="C219" s="2">
-        <v>1.18</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
-        <v>6110051012</v>
+        <v>6110051102</v>
       </c>
       <c r="B220" s="3">
-        <v>6110051011</v>
+        <v>6110051008</v>
       </c>
       <c r="C220" s="2">
-        <v>4.8</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
+        <v>6110051008</v>
+      </c>
+      <c r="B221" s="3">
         <v>6110051101</v>
       </c>
-      <c r="B221" s="3">
-        <v>6110052103</v>
-      </c>
       <c r="C221" s="2">
-        <v>4.4000000000000004</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
-        <v>6110052103</v>
+        <v>6110051101</v>
       </c>
       <c r="B222" s="3">
-        <v>6110051011</v>
+        <v>6110051012</v>
       </c>
       <c r="C222" s="2">
-        <v>0.6</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
-        <v>6110052103</v>
+        <v>6110051012</v>
       </c>
       <c r="B223" s="3">
-        <v>6110050104</v>
+        <v>6110051005</v>
       </c>
       <c r="C223" s="2">
-        <v>7.8</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
+        <v>6110051005</v>
+      </c>
+      <c r="B224" s="3">
+        <v>6110051006</v>
+      </c>
+      <c r="C224" s="2">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A225" s="2">
+        <v>6110051006</v>
+      </c>
+      <c r="B225" s="3">
+        <v>6110051007</v>
+      </c>
+      <c r="C225" s="2">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A226" s="2">
+        <v>6110051012</v>
+      </c>
+      <c r="B226" s="3">
+        <v>6110051011</v>
+      </c>
+      <c r="C226" s="2">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A227" s="2">
+        <v>6110051101</v>
+      </c>
+      <c r="B227" s="3">
+        <v>6110052103</v>
+      </c>
+      <c r="C227" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A228" s="2">
+        <v>6110052103</v>
+      </c>
+      <c r="B228" s="3">
+        <v>6110051011</v>
+      </c>
+      <c r="C228" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A229" s="2">
+        <v>6110052103</v>
+      </c>
+      <c r="B229" s="3">
+        <v>6110050104</v>
+      </c>
+      <c r="C229" s="2">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A230" s="2">
         <v>6110051004</v>
       </c>
-      <c r="B224" s="3">
+      <c r="B230" s="3">
         <v>6110052103</v>
       </c>
-      <c r="C224" s="2">
+      <c r="C230" s="2">
         <v>9.5</v>
       </c>
     </row>

--- a/jarakdesa_test.xlsx
+++ b/jarakdesa_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Project\Podes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05F3A72-1B2C-41AF-8DD9-F594ABB4EB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CDA347-0FE0-456F-8D3D-BB0503AA449D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5AB5F18D-76D4-47E6-B2AD-1D0608D6BCA0}"/>
   </bookViews>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E029D901-01C6-4C45-82CB-76280F611D91}">
-  <dimension ref="A1:C230"/>
+  <dimension ref="A1:C231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="G226" sqref="G226"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="120" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
-        <v>6110051002</v>
+        <v>6110051104</v>
       </c>
       <c r="B120" s="3">
         <v>6110030011</v>
@@ -2926,7 +2926,7 @@
         <v>6110051101</v>
       </c>
       <c r="B227" s="3">
-        <v>6110052103</v>
+        <v>6110051103</v>
       </c>
       <c r="C227" s="2">
         <v>4.4000000000000004</v>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="228" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
-        <v>6110052103</v>
+        <v>6110051103</v>
       </c>
       <c r="B228" s="3">
         <v>6110051011</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="229" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
-        <v>6110052103</v>
+        <v>6110051103</v>
       </c>
       <c r="B229" s="3">
         <v>6110050104</v>
@@ -2959,10 +2959,21 @@
         <v>6110051004</v>
       </c>
       <c r="B230" s="3">
-        <v>6110052103</v>
+        <v>6110051103</v>
       </c>
       <c r="C230" s="2">
         <v>9.5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A231" s="2">
+        <v>6110051001</v>
+      </c>
+      <c r="B231" s="3">
+        <v>6110051104</v>
+      </c>
+      <c r="C231" s="2">
+        <v>2.1</v>
       </c>
     </row>
   </sheetData>

--- a/jarakdesa_test.xlsx
+++ b/jarakdesa_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Project\Podes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CDA347-0FE0-456F-8D3D-BB0503AA449D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD8CDAA-4BA0-4112-8175-7F4F548ACAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5AB5F18D-76D4-47E6-B2AD-1D0608D6BCA0}"/>
   </bookViews>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E029D901-01C6-4C45-82CB-76280F611D91}">
-  <dimension ref="A1:C231"/>
+  <dimension ref="A1:C232"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C231"/>
+      <selection activeCell="C233" sqref="C233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2974,6 +2974,17 @@
       </c>
       <c r="C231" s="2">
         <v>2.1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A232" s="2">
+        <v>6110060004</v>
+      </c>
+      <c r="B232" s="3">
+        <v>6110060011</v>
+      </c>
+      <c r="C232" s="1">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/jarakdesa_test.xlsx
+++ b/jarakdesa_test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Project\Podes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD8CDAA-4BA0-4112-8175-7F4F548ACAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5867E2-C61F-4846-BD0D-352AD0F2E7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5AB5F18D-76D4-47E6-B2AD-1D0608D6BCA0}"/>
   </bookViews>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E029D901-01C6-4C45-82CB-76280F611D91}">
-  <dimension ref="A1:C232"/>
+  <dimension ref="A1:C235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="C233" sqref="C233"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,35 +503,35 @@
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
-        <v>6110060003</v>
+        <v>6110060004</v>
       </c>
       <c r="B7" s="3">
-        <v>6110060101</v>
+        <v>6110060011</v>
       </c>
       <c r="C7" s="2">
-        <v>15.3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
+        <v>6110060003</v>
+      </c>
+      <c r="B8" s="3">
         <v>6110060101</v>
       </c>
-      <c r="B8" s="3">
-        <v>6110060004</v>
-      </c>
       <c r="C8" s="2">
-        <v>3.5</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>6110060005</v>
+        <v>6110060101</v>
       </c>
       <c r="B9" s="3">
-        <v>6110060101</v>
+        <v>6110060004</v>
       </c>
       <c r="C9" s="2">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -539,54 +539,54 @@
         <v>6110060005</v>
       </c>
       <c r="B10" s="3">
-        <v>6110060013</v>
+        <v>6110060101</v>
       </c>
       <c r="C10" s="2">
-        <v>7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
+        <v>6110060005</v>
+      </c>
+      <c r="B11" s="3">
         <v>6110060013</v>
       </c>
-      <c r="B11" s="3">
-        <v>6110060012</v>
-      </c>
       <c r="C11" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>6110060005</v>
+        <v>6110060013</v>
       </c>
       <c r="B12" s="3">
-        <v>6110060102</v>
+        <v>6110060012</v>
       </c>
       <c r="C12" s="2">
-        <v>10.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
+        <v>6110060005</v>
+      </c>
+      <c r="B13" s="3">
         <v>6110060102</v>
       </c>
-      <c r="B13" s="3">
-        <v>6110060014</v>
-      </c>
       <c r="C13" s="2">
-        <v>1.3</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
+        <v>6110060102</v>
+      </c>
+      <c r="B14" s="3">
         <v>6110060014</v>
       </c>
-      <c r="B14" s="3">
-        <v>6110060006</v>
-      </c>
       <c r="C14" s="2">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -594,43 +594,43 @@
         <v>6110060014</v>
       </c>
       <c r="B15" s="3">
-        <v>6110060008</v>
+        <v>6110060006</v>
       </c>
       <c r="C15" s="2">
-        <v>7.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
+        <v>6110060014</v>
+      </c>
+      <c r="B16" s="3">
         <v>6110060008</v>
       </c>
-      <c r="B16" s="3">
-        <v>6110060019</v>
-      </c>
       <c r="C16" s="2">
-        <v>2</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
-        <v>6110060102</v>
+        <v>6110060008</v>
       </c>
       <c r="B17" s="3">
-        <v>6110060103</v>
+        <v>6110060019</v>
       </c>
       <c r="C17" s="2">
-        <v>8.3000000000000007</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
+        <v>6110060102</v>
+      </c>
+      <c r="B18" s="3">
         <v>6110060103</v>
       </c>
-      <c r="B18" s="3">
-        <v>6110060104</v>
-      </c>
       <c r="C18" s="2">
-        <v>3.6</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -638,21 +638,21 @@
         <v>6110060103</v>
       </c>
       <c r="B19" s="3">
-        <v>6110060015</v>
+        <v>6110060104</v>
       </c>
       <c r="C19" s="2">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
+        <v>6110060103</v>
+      </c>
+      <c r="B20" s="3">
         <v>6110060015</v>
       </c>
-      <c r="B20" s="3">
-        <v>6110060018</v>
-      </c>
       <c r="C20" s="2">
-        <v>11.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -660,21 +660,21 @@
         <v>6110060015</v>
       </c>
       <c r="B21" s="3">
-        <v>6110060016</v>
+        <v>6110060018</v>
       </c>
       <c r="C21" s="2">
-        <v>4.7</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
+        <v>6110060015</v>
+      </c>
+      <c r="B22" s="3">
         <v>6110060016</v>
       </c>
-      <c r="B22" s="3">
-        <v>6110060007</v>
-      </c>
       <c r="C22" s="2">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -682,21 +682,21 @@
         <v>6110060016</v>
       </c>
       <c r="B23" s="3">
-        <v>6110060104</v>
+        <v>6110060007</v>
       </c>
       <c r="C23" s="2">
-        <v>2.2000000000000002</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
-        <v>6110060105</v>
+        <v>6110060016</v>
       </c>
       <c r="B24" s="3">
         <v>6110060104</v>
       </c>
       <c r="C24" s="2">
-        <v>3.7</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -704,10 +704,10 @@
         <v>6110060105</v>
       </c>
       <c r="B25" s="3">
-        <v>6110070101</v>
+        <v>6110060104</v>
       </c>
       <c r="C25" s="2">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -715,43 +715,43 @@
         <v>6110060105</v>
       </c>
       <c r="B26" s="3">
-        <v>6110060017</v>
+        <v>6110070101</v>
       </c>
       <c r="C26" s="2">
-        <v>3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
-        <v>6110060015</v>
+        <v>6110060105</v>
       </c>
       <c r="B27" s="3">
-        <v>6110070007</v>
+        <v>6110060017</v>
       </c>
       <c r="C27" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
-        <v>6110060102</v>
+        <v>6110060015</v>
       </c>
       <c r="B28" s="3">
-        <v>6110050101</v>
+        <v>6110070007</v>
       </c>
       <c r="C28" s="2">
-        <v>5.2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
-        <v>6110070101</v>
+        <v>6110060102</v>
       </c>
       <c r="B29" s="3">
-        <v>6110070102</v>
+        <v>6110050101</v>
       </c>
       <c r="C29" s="2">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -759,21 +759,21 @@
         <v>6110070101</v>
       </c>
       <c r="B30" s="3">
-        <v>6110070006</v>
+        <v>6110070102</v>
       </c>
       <c r="C30" s="2">
-        <v>11.6</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
-        <v>6110070102</v>
+        <v>6110070101</v>
       </c>
       <c r="B31" s="3">
-        <v>6110070001</v>
+        <v>6110070006</v>
       </c>
       <c r="C31" s="2">
-        <v>1.1000000000000001</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -781,76 +781,76 @@
         <v>6110070102</v>
       </c>
       <c r="B32" s="3">
-        <v>6110070010</v>
+        <v>6110070001</v>
       </c>
       <c r="C32" s="2">
-        <v>8.3000000000000007</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
-        <v>6110070006</v>
+        <v>6110070102</v>
       </c>
       <c r="B33" s="3">
-        <v>6110070016</v>
+        <v>6110070010</v>
       </c>
       <c r="C33" s="2">
-        <v>4</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
+        <v>6110070006</v>
+      </c>
+      <c r="B34" s="3">
         <v>6110070016</v>
       </c>
-      <c r="B34" s="3">
-        <v>6110070007</v>
-      </c>
       <c r="C34" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
+        <v>6110070016</v>
+      </c>
+      <c r="B35" s="3">
         <v>6110070007</v>
       </c>
-      <c r="B35" s="3">
-        <v>6110070103</v>
-      </c>
       <c r="C35" s="2">
-        <v>5.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
+        <v>6110070007</v>
+      </c>
+      <c r="B36" s="3">
         <v>6110070103</v>
       </c>
-      <c r="B36" s="3">
-        <v>6110070017</v>
-      </c>
       <c r="C36" s="2">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
+        <v>6110070103</v>
+      </c>
+      <c r="B37" s="3">
         <v>6110070017</v>
       </c>
-      <c r="B37" s="3">
-        <v>6110070104</v>
-      </c>
       <c r="C37" s="2">
-        <v>10</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
+        <v>6110070017</v>
+      </c>
+      <c r="B38" s="3">
         <v>6110070104</v>
       </c>
-      <c r="B38" s="3">
-        <v>6110070019</v>
-      </c>
       <c r="C38" s="2">
-        <v>6.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -858,43 +858,43 @@
         <v>6110070104</v>
       </c>
       <c r="B39" s="3">
-        <v>6110070018</v>
+        <v>6110070019</v>
       </c>
       <c r="C39" s="2">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
+        <v>6110070104</v>
+      </c>
+      <c r="B40" s="3">
         <v>6110070018</v>
       </c>
-      <c r="B40" s="3">
-        <v>6110070105</v>
-      </c>
       <c r="C40" s="2">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
+        <v>6110070018</v>
+      </c>
+      <c r="B41" s="3">
         <v>6110070105</v>
       </c>
-      <c r="B41" s="3">
-        <v>6110070106</v>
-      </c>
       <c r="C41" s="2">
-        <v>6.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
+        <v>6110070105</v>
+      </c>
+      <c r="B42" s="3">
         <v>6110070106</v>
       </c>
-      <c r="B42" s="3">
-        <v>6110070008</v>
-      </c>
       <c r="C42" s="2">
-        <v>0.8</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -902,65 +902,65 @@
         <v>6110070106</v>
       </c>
       <c r="B43" s="3">
-        <v>6110070009</v>
+        <v>6110070008</v>
       </c>
       <c r="C43" s="2">
-        <v>7.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
+        <v>6110070106</v>
+      </c>
+      <c r="B44" s="3">
         <v>6110070009</v>
       </c>
-      <c r="B44" s="3">
-        <v>6110070004</v>
-      </c>
       <c r="C44" s="2">
-        <v>6</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
+        <v>6110070009</v>
+      </c>
+      <c r="B45" s="3">
         <v>6110070004</v>
       </c>
-      <c r="B45" s="3">
-        <v>6110070013</v>
-      </c>
       <c r="C45" s="2">
-        <v>7.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
+        <v>6110070004</v>
+      </c>
+      <c r="B46" s="3">
         <v>6110070013</v>
       </c>
-      <c r="B46" s="3">
-        <v>6110070003</v>
-      </c>
       <c r="C46" s="2">
-        <v>5.3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
+        <v>6110070013</v>
+      </c>
+      <c r="B47" s="3">
         <v>6110070003</v>
       </c>
-      <c r="B47" s="3">
-        <v>6110070107</v>
-      </c>
       <c r="C47" s="2">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
+        <v>6110070003</v>
+      </c>
+      <c r="B48" s="3">
         <v>6110070107</v>
       </c>
-      <c r="B48" s="3">
-        <v>6110070012</v>
-      </c>
       <c r="C48" s="2">
-        <v>6</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -968,32 +968,32 @@
         <v>6110070107</v>
       </c>
       <c r="B49" s="3">
-        <v>6110070002</v>
+        <v>6110070012</v>
       </c>
       <c r="C49" s="2">
-        <v>4.0999999999999996</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
+        <v>6110070107</v>
+      </c>
+      <c r="B50" s="3">
         <v>6110070002</v>
       </c>
-      <c r="B50" s="3">
-        <v>6110070108</v>
-      </c>
       <c r="C50" s="2">
-        <v>3.7</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
+        <v>6110070002</v>
+      </c>
+      <c r="B51" s="3">
         <v>6110070108</v>
       </c>
-      <c r="B51" s="3">
-        <v>6110070105</v>
-      </c>
       <c r="C51" s="2">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1001,21 +1001,21 @@
         <v>6110070108</v>
       </c>
       <c r="B52" s="3">
-        <v>6110070005</v>
+        <v>6110070105</v>
       </c>
       <c r="C52" s="2">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
+        <v>6110070108</v>
+      </c>
+      <c r="B53" s="3">
         <v>6110070005</v>
       </c>
-      <c r="B53" s="3">
-        <v>6110070014</v>
-      </c>
       <c r="C53" s="2">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1023,21 +1023,21 @@
         <v>6110070005</v>
       </c>
       <c r="B54" s="3">
-        <v>6110070109</v>
+        <v>6110070014</v>
       </c>
       <c r="C54" s="2">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
+        <v>6110070005</v>
+      </c>
+      <c r="B55" s="3">
         <v>6110070109</v>
       </c>
-      <c r="B55" s="3">
-        <v>6110070011</v>
-      </c>
       <c r="C55" s="2">
-        <v>7.2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1045,21 +1045,21 @@
         <v>6110070109</v>
       </c>
       <c r="B56" s="3">
-        <v>6110070110</v>
+        <v>6110070011</v>
       </c>
       <c r="C56" s="2">
-        <v>11.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
+        <v>6110070109</v>
+      </c>
+      <c r="B57" s="3">
         <v>6110070110</v>
       </c>
-      <c r="B57" s="3">
-        <v>6110070015</v>
-      </c>
       <c r="C57" s="2">
-        <v>0.35</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1067,21 +1067,21 @@
         <v>6110070110</v>
       </c>
       <c r="B58" s="3">
-        <v>6110070006</v>
+        <v>6110070015</v>
       </c>
       <c r="C58" s="2">
-        <v>4.7</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
-        <v>6110021001</v>
+        <v>6110070110</v>
       </c>
       <c r="B59" s="3">
-        <v>6110021002</v>
+        <v>6110070006</v>
       </c>
       <c r="C59" s="2">
-        <v>10.199999999999999</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1089,10 +1089,10 @@
         <v>6110021001</v>
       </c>
       <c r="B60" s="3">
-        <v>6110021003</v>
+        <v>6110021002</v>
       </c>
       <c r="C60" s="2">
-        <v>14.6</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1100,21 +1100,21 @@
         <v>6110021001</v>
       </c>
       <c r="B61" s="3">
-        <v>6110020012</v>
+        <v>6110021003</v>
       </c>
       <c r="C61" s="2">
-        <v>20</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
-        <v>6110021003</v>
+        <v>6110021001</v>
       </c>
       <c r="B62" s="3">
-        <v>6110021005</v>
+        <v>6110020012</v>
       </c>
       <c r="C62" s="2">
-        <v>13.9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1122,21 +1122,21 @@
         <v>6110021003</v>
       </c>
       <c r="B63" s="3">
-        <v>6110021004</v>
+        <v>6110021005</v>
       </c>
       <c r="C63" s="2">
-        <v>17.399999999999999</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
+        <v>6110021003</v>
+      </c>
+      <c r="B64" s="3">
         <v>6110021004</v>
       </c>
-      <c r="B64" s="3">
-        <v>6110021005</v>
-      </c>
       <c r="C64" s="2">
-        <v>5.9</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1144,10 +1144,10 @@
         <v>6110021004</v>
       </c>
       <c r="B65" s="3">
-        <v>6110020008</v>
+        <v>6110021005</v>
       </c>
       <c r="C65" s="2">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1155,98 +1155,98 @@
         <v>6110021004</v>
       </c>
       <c r="B66" s="3">
-        <v>6110021006</v>
+        <v>6110020008</v>
       </c>
       <c r="C66" s="2">
-        <v>7.4</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
-        <v>6110021005</v>
+        <v>6110021004</v>
       </c>
       <c r="B67" s="3">
         <v>6110021006</v>
       </c>
       <c r="C67" s="2">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
+        <v>6110021005</v>
+      </c>
+      <c r="B68" s="3">
         <v>6110021006</v>
       </c>
-      <c r="B68" s="3">
-        <v>6110021007</v>
-      </c>
       <c r="C68" s="2">
-        <v>8.1999999999999993</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
+        <v>6110021006</v>
+      </c>
+      <c r="B69" s="3">
         <v>6110021007</v>
       </c>
-      <c r="B69" s="3">
-        <v>6110021008</v>
-      </c>
       <c r="C69" s="2">
-        <v>11.2</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
+        <v>6110021007</v>
+      </c>
+      <c r="B70" s="3">
         <v>6110021008</v>
       </c>
-      <c r="B70" s="3">
-        <v>6110021009</v>
-      </c>
       <c r="C70" s="2">
-        <v>13.1</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
+        <v>6110021008</v>
+      </c>
+      <c r="B71" s="3">
         <v>6110021009</v>
       </c>
-      <c r="B71" s="3">
-        <v>6110021010</v>
-      </c>
       <c r="C71" s="2">
-        <v>9</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
-        <v>6110020003</v>
+        <v>6110021009</v>
       </c>
       <c r="B72" s="3">
-        <v>6110020013</v>
+        <v>6110021010</v>
       </c>
       <c r="C72" s="2">
-        <v>0.7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
+        <v>6110020003</v>
+      </c>
+      <c r="B73" s="3">
         <v>6110020013</v>
       </c>
-      <c r="B73" s="3">
-        <v>6110020004</v>
-      </c>
       <c r="C73" s="2">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
+        <v>6110020013</v>
+      </c>
+      <c r="B74" s="3">
         <v>6110020004</v>
       </c>
-      <c r="B74" s="3">
-        <v>6110020005</v>
-      </c>
       <c r="C74" s="2">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1254,43 +1254,43 @@
         <v>6110020004</v>
       </c>
       <c r="B75" s="3">
-        <v>6110020014</v>
+        <v>6110020005</v>
       </c>
       <c r="C75" s="2">
-        <v>8</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
-        <v>6110020005</v>
+        <v>6110020004</v>
       </c>
       <c r="B76" s="3">
-        <v>6110020008</v>
+        <v>6110020014</v>
       </c>
       <c r="C76" s="2">
-        <v>0.3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
-        <v>6110020003</v>
+        <v>6110020005</v>
       </c>
       <c r="B77" s="3">
-        <v>6110020012</v>
+        <v>6110020008</v>
       </c>
       <c r="C77" s="2">
-        <v>5.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
-        <v>6110020008</v>
+        <v>6110020003</v>
       </c>
       <c r="B78" s="3">
-        <v>6110020017</v>
+        <v>6110020012</v>
       </c>
       <c r="C78" s="2">
-        <v>0.8</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1298,65 +1298,65 @@
         <v>6110020008</v>
       </c>
       <c r="B79" s="3">
-        <v>6110020016</v>
+        <v>6110020017</v>
       </c>
       <c r="C79" s="2">
-        <v>5.8</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
+        <v>6110020008</v>
+      </c>
+      <c r="B80" s="3">
         <v>6110020016</v>
       </c>
-      <c r="B80" s="3">
-        <v>6110020015</v>
-      </c>
       <c r="C80" s="2">
-        <v>7.6</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
-        <v>6110020005</v>
+        <v>6110020016</v>
       </c>
       <c r="B81" s="3">
-        <v>6110020006</v>
+        <v>6110020015</v>
       </c>
       <c r="C81" s="2">
-        <v>4.9000000000000004</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
+        <v>6110020005</v>
+      </c>
+      <c r="B82" s="3">
         <v>6110020006</v>
       </c>
-      <c r="B82" s="3">
-        <v>6110020007</v>
-      </c>
       <c r="C82" s="2">
-        <v>6.8</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
+        <v>6110020006</v>
+      </c>
+      <c r="B83" s="3">
         <v>6110020007</v>
       </c>
-      <c r="B83" s="3">
-        <v>6110030014</v>
-      </c>
       <c r="C83" s="2">
-        <v>12.1</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
-        <v>6110010008</v>
+        <v>6110020007</v>
       </c>
       <c r="B84" s="3">
-        <v>6110020003</v>
+        <v>6110030014</v>
       </c>
       <c r="C84" s="2">
-        <v>10</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1364,10 +1364,10 @@
         <v>6110010008</v>
       </c>
       <c r="B85" s="3">
-        <v>6110010018</v>
+        <v>6110020003</v>
       </c>
       <c r="C85" s="2">
-        <v>0.4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1375,43 +1375,43 @@
         <v>6110010008</v>
       </c>
       <c r="B86" s="3">
-        <v>6110010016</v>
+        <v>6110010018</v>
       </c>
       <c r="C86" s="2">
-        <v>0.65</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
+        <v>6110010008</v>
+      </c>
+      <c r="B87" s="3">
         <v>6110010016</v>
       </c>
-      <c r="B87" s="3">
-        <v>6110010007</v>
-      </c>
       <c r="C87" s="2">
-        <v>1.6</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
+        <v>6110010016</v>
+      </c>
+      <c r="B88" s="3">
         <v>6110010007</v>
       </c>
-      <c r="B88" s="3">
-        <v>6110010014</v>
-      </c>
       <c r="C88" s="2">
-        <v>5.8</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
+        <v>6110010007</v>
+      </c>
+      <c r="B89" s="3">
         <v>6110010014</v>
       </c>
-      <c r="B89" s="3">
-        <v>6110010006</v>
-      </c>
       <c r="C89" s="2">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1419,32 +1419,32 @@
         <v>6110010014</v>
       </c>
       <c r="B90" s="3">
-        <v>6110010005</v>
+        <v>6110010006</v>
       </c>
       <c r="C90" s="2">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
+        <v>6110010014</v>
+      </c>
+      <c r="B91" s="3">
         <v>6110010005</v>
       </c>
-      <c r="B91" s="3">
-        <v>6110010013</v>
-      </c>
       <c r="C91" s="2">
-        <v>1.1000000000000001</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
-        <v>6110010006</v>
+        <v>6110010005</v>
       </c>
       <c r="B92" s="3">
-        <v>6110010005</v>
+        <v>6110010013</v>
       </c>
       <c r="C92" s="2">
-        <v>4.5</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1452,65 +1452,65 @@
         <v>6110010006</v>
       </c>
       <c r="B93" s="3">
-        <v>6110010015</v>
+        <v>6110010005</v>
       </c>
       <c r="C93" s="2">
-        <v>12.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
-        <v>6110010009</v>
+        <v>6110010006</v>
       </c>
       <c r="B94" s="3">
-        <v>6110010001</v>
+        <v>6110010015</v>
       </c>
       <c r="C94" s="2">
-        <v>5.2</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
+        <v>6110010009</v>
+      </c>
+      <c r="B95" s="3">
         <v>6110010001</v>
       </c>
-      <c r="B95" s="3">
-        <v>6110010002</v>
-      </c>
       <c r="C95" s="2">
-        <v>15.5</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
+        <v>6110010001</v>
+      </c>
+      <c r="B96" s="3">
         <v>6110010002</v>
       </c>
-      <c r="B96" s="3">
-        <v>6110010010</v>
-      </c>
       <c r="C96" s="2">
-        <v>4.0999999999999996</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
+        <v>6110010002</v>
+      </c>
+      <c r="B97" s="3">
         <v>6110010010</v>
       </c>
-      <c r="B97" s="3">
-        <v>6110010003</v>
-      </c>
       <c r="C97" s="2">
-        <v>4.9000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
+        <v>6110010010</v>
+      </c>
+      <c r="B98" s="3">
         <v>6110010003</v>
       </c>
-      <c r="B98" s="3">
-        <v>6110010011</v>
-      </c>
       <c r="C98" s="2">
-        <v>0.4</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1518,197 +1518,197 @@
         <v>6110010003</v>
       </c>
       <c r="B99" s="3">
-        <v>6110010004</v>
+        <v>6110010011</v>
       </c>
       <c r="C99" s="2">
-        <v>8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
+        <v>6110010003</v>
+      </c>
+      <c r="B100" s="3">
         <v>6110010004</v>
       </c>
-      <c r="B100" s="3">
-        <v>6110010012</v>
-      </c>
       <c r="C100" s="2">
-        <v>3.6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
+        <v>6110010004</v>
+      </c>
+      <c r="B101" s="3">
         <v>6110010012</v>
       </c>
-      <c r="B101" s="3">
-        <v>6110010017</v>
-      </c>
       <c r="C101" s="2">
-        <v>3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
+        <v>6110010012</v>
+      </c>
+      <c r="B102" s="3">
         <v>6110010017</v>
       </c>
-      <c r="B102" s="3">
-        <v>6110010018</v>
-      </c>
       <c r="C102" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
+        <v>6110010017</v>
+      </c>
+      <c r="B103" s="3">
         <v>6110010018</v>
       </c>
-      <c r="B103" s="3">
-        <v>6110010008</v>
-      </c>
       <c r="C103" s="2">
-        <v>0.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
-        <v>6110030007</v>
+        <v>6110010018</v>
       </c>
       <c r="B104" s="3">
-        <v>6110051001</v>
+        <v>6110010008</v>
       </c>
       <c r="C104" s="2">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
-        <v>6110030013</v>
+        <v>6110030007</v>
       </c>
       <c r="B105" s="3">
-        <v>6110030007</v>
+        <v>6110051001</v>
       </c>
       <c r="C105" s="2">
-        <v>6</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
-        <v>6110030004</v>
+        <v>6110030013</v>
       </c>
       <c r="B106" s="3">
-        <v>6110030013</v>
+        <v>6110030007</v>
       </c>
       <c r="C106" s="2">
-        <v>1.1000000000000001</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
-        <v>6110030012</v>
+        <v>6110030004</v>
       </c>
       <c r="B107" s="3">
-        <v>6110030004</v>
+        <v>6110030013</v>
       </c>
       <c r="C107" s="2">
-        <v>0.2</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
-        <v>6110030015</v>
+        <v>6110030012</v>
       </c>
       <c r="B108" s="3">
         <v>6110030004</v>
       </c>
       <c r="C108" s="2">
-        <v>11.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
-        <v>6110030003</v>
+        <v>6110030015</v>
       </c>
       <c r="B109" s="3">
-        <v>6110030015</v>
+        <v>6110030004</v>
       </c>
       <c r="C109" s="2">
-        <v>4.8</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
-        <v>6110030010</v>
+        <v>6110030003</v>
       </c>
       <c r="B110" s="3">
-        <v>6110030003</v>
+        <v>6110030015</v>
       </c>
       <c r="C110" s="2">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
-        <v>6110030002</v>
+        <v>6110030010</v>
       </c>
       <c r="B111" s="3">
-        <v>6110030010</v>
+        <v>6110030003</v>
       </c>
       <c r="C111" s="2">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
-        <v>6110030009</v>
+        <v>6110030002</v>
       </c>
       <c r="B112" s="3">
-        <v>6110030002</v>
+        <v>6110030010</v>
       </c>
       <c r="C112" s="2">
-        <v>9.6999999999999993</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
-        <v>6110030001</v>
+        <v>6110030009</v>
       </c>
       <c r="B113" s="3">
-        <v>6110030009</v>
+        <v>6110030002</v>
       </c>
       <c r="C113" s="2">
-        <v>1</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
-        <v>6110030016</v>
+        <v>6110030001</v>
       </c>
       <c r="B114" s="3">
-        <v>6110030015</v>
+        <v>6110030009</v>
       </c>
       <c r="C114" s="2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
-        <v>6110030005</v>
+        <v>6110030016</v>
       </c>
       <c r="B115" s="3">
         <v>6110030015</v>
       </c>
       <c r="C115" s="2">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
-        <v>6110030014</v>
+        <v>6110030005</v>
       </c>
       <c r="B116" s="3">
-        <v>6110030005</v>
+        <v>6110030015</v>
       </c>
       <c r="C116" s="2">
-        <v>2.2000000000000002</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1716,87 +1716,87 @@
         <v>6110030014</v>
       </c>
       <c r="B117" s="3">
-        <v>6110030018</v>
+        <v>6110030005</v>
       </c>
       <c r="C117" s="2">
-        <v>15.5</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
+        <v>6110030014</v>
+      </c>
+      <c r="B118" s="3">
         <v>6110030018</v>
       </c>
-      <c r="B118" s="3">
-        <v>6110030006</v>
-      </c>
       <c r="C118" s="2">
-        <v>1.3</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
+        <v>6110030018</v>
+      </c>
+      <c r="B119" s="3">
         <v>6110030006</v>
       </c>
-      <c r="B119" s="3">
-        <v>6110030017</v>
-      </c>
       <c r="C119" s="2">
-        <v>6.3</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
-        <v>6110051104</v>
+        <v>6110030006</v>
       </c>
       <c r="B120" s="3">
-        <v>6110030011</v>
+        <v>6110030017</v>
       </c>
       <c r="C120" s="2">
-        <v>23</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
+        <v>6110051104</v>
+      </c>
+      <c r="B121" s="3">
         <v>6110030011</v>
       </c>
-      <c r="B121" s="3">
-        <v>6110030008</v>
-      </c>
       <c r="C121" s="2">
-        <v>18.7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
-        <v>6110050023</v>
+        <v>6110030011</v>
       </c>
       <c r="B122" s="3">
-        <v>6110050101</v>
+        <v>6110030008</v>
       </c>
       <c r="C122" s="2">
-        <v>2.5</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
+        <v>6110050023</v>
+      </c>
+      <c r="B123" s="3">
         <v>6110050101</v>
       </c>
-      <c r="B123" s="3">
-        <v>6110050102</v>
-      </c>
       <c r="C123" s="2">
-        <v>5.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
+        <v>6110050101</v>
+      </c>
+      <c r="B124" s="3">
         <v>6110050102</v>
       </c>
-      <c r="B124" s="3">
-        <v>6110050024</v>
-      </c>
       <c r="C124" s="2">
-        <v>12.3</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1804,21 +1804,21 @@
         <v>6110050102</v>
       </c>
       <c r="B125" s="3">
-        <v>6110050103</v>
+        <v>6110050024</v>
       </c>
       <c r="C125" s="2">
-        <v>11</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
+        <v>6110050102</v>
+      </c>
+      <c r="B126" s="3">
         <v>6110050103</v>
       </c>
-      <c r="B126" s="3">
-        <v>6110050008</v>
-      </c>
       <c r="C126" s="2">
-        <v>2.1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1826,21 +1826,21 @@
         <v>6110050103</v>
       </c>
       <c r="B127" s="3">
-        <v>6110050026</v>
+        <v>6110050008</v>
       </c>
       <c r="C127" s="2">
-        <v>6.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
-        <v>6110050104</v>
+        <v>6110050103</v>
       </c>
       <c r="B128" s="3">
         <v>6110050026</v>
       </c>
       <c r="C128" s="2">
-        <v>4.3</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1848,21 +1848,21 @@
         <v>6110050104</v>
       </c>
       <c r="B129" s="3">
-        <v>6110050105</v>
+        <v>6110050026</v>
       </c>
       <c r="C129" s="2">
-        <v>4.45</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
+        <v>6110050104</v>
+      </c>
+      <c r="B130" s="3">
         <v>6110050105</v>
       </c>
-      <c r="B130" s="3">
-        <v>6110050027</v>
-      </c>
       <c r="C130" s="2">
-        <v>2.2999999999999998</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1870,43 +1870,43 @@
         <v>6110050105</v>
       </c>
       <c r="B131" s="3">
-        <v>6110050106</v>
+        <v>6110050027</v>
       </c>
       <c r="C131" s="2">
-        <v>1.2</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
+        <v>6110050105</v>
+      </c>
+      <c r="B132" s="3">
         <v>6110050106</v>
       </c>
-      <c r="B132" s="3">
-        <v>6110050107</v>
-      </c>
       <c r="C132" s="2">
-        <v>0.55000000000000004</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
+        <v>6110050106</v>
+      </c>
+      <c r="B133" s="3">
         <v>6110050107</v>
       </c>
-      <c r="B133" s="3">
-        <v>6110050025</v>
-      </c>
       <c r="C133" s="2">
-        <v>3.3</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
-        <v>6110050108</v>
+        <v>6110050107</v>
       </c>
       <c r="B134" s="3">
-        <v>6110050107</v>
+        <v>6110050025</v>
       </c>
       <c r="C134" s="2">
-        <v>2.2000000000000002</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1914,21 +1914,21 @@
         <v>6110050108</v>
       </c>
       <c r="B135" s="3">
-        <v>6110050014</v>
+        <v>6110050107</v>
       </c>
       <c r="C135" s="2">
-        <v>0.14000000000000001</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
-        <v>6110050109</v>
+        <v>6110050108</v>
       </c>
       <c r="B136" s="3">
-        <v>6110050108</v>
+        <v>6110050014</v>
       </c>
       <c r="C136" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1936,10 +1936,10 @@
         <v>6110050109</v>
       </c>
       <c r="B137" s="3">
-        <v>6110050025</v>
+        <v>6110050108</v>
       </c>
       <c r="C137" s="2">
-        <v>1.4</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1947,21 +1947,21 @@
         <v>6110050109</v>
       </c>
       <c r="B138" s="3">
-        <v>6110050110</v>
+        <v>6110050025</v>
       </c>
       <c r="C138" s="2">
-        <v>0.96</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
+        <v>6110050109</v>
+      </c>
+      <c r="B139" s="3">
         <v>6110050110</v>
       </c>
-      <c r="B139" s="3">
-        <v>6110050013</v>
-      </c>
       <c r="C139" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1969,21 +1969,21 @@
         <v>6110050110</v>
       </c>
       <c r="B140" s="3">
-        <v>6110050111</v>
+        <v>6110050013</v>
       </c>
       <c r="C140" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
+        <v>6110050110</v>
+      </c>
+      <c r="B141" s="3">
         <v>6110050111</v>
       </c>
-      <c r="B141" s="3">
-        <v>6110050029</v>
-      </c>
       <c r="C141" s="2">
-        <v>1</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1991,21 +1991,21 @@
         <v>6110050111</v>
       </c>
       <c r="B142" s="3">
-        <v>6110050112</v>
+        <v>6110050029</v>
       </c>
       <c r="C142" s="2">
-        <v>0.18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
+        <v>6110050111</v>
+      </c>
+      <c r="B143" s="3">
         <v>6110050112</v>
       </c>
-      <c r="B143" s="3">
-        <v>6110050021</v>
-      </c>
       <c r="C143" s="2">
-        <v>30</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2013,120 +2013,120 @@
         <v>6110050112</v>
       </c>
       <c r="B144" s="3">
-        <v>6110050113</v>
+        <v>6110050021</v>
       </c>
       <c r="C144" s="2">
-        <v>1.1399999999999999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
+        <v>6110050112</v>
+      </c>
+      <c r="B145" s="3">
         <v>6110050113</v>
       </c>
-      <c r="B145" s="3">
-        <v>6110050015</v>
-      </c>
       <c r="C145" s="2">
-        <v>0.1</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
+        <v>6110050113</v>
+      </c>
+      <c r="B146" s="3">
         <v>6110050015</v>
       </c>
-      <c r="B146" s="3">
-        <v>6110050016</v>
-      </c>
       <c r="C146" s="2">
-        <v>0.87</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
-        <v>6110050113</v>
+        <v>6110050015</v>
       </c>
       <c r="B147" s="3">
-        <v>6110050114</v>
+        <v>6110050016</v>
       </c>
       <c r="C147" s="2">
-        <v>3.3</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
+        <v>6110050113</v>
+      </c>
+      <c r="B148" s="3">
         <v>6110050114</v>
       </c>
-      <c r="B148" s="3">
-        <v>6110050012</v>
-      </c>
       <c r="C148" s="2">
-        <v>6.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
+        <v>6110050114</v>
+      </c>
+      <c r="B149" s="3">
         <v>6110050012</v>
       </c>
-      <c r="B149" s="3">
-        <v>6110050028</v>
-      </c>
       <c r="C149" s="2">
-        <v>6</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
-        <v>6110050114</v>
+        <v>6110050012</v>
       </c>
       <c r="B150" s="3">
-        <v>6110050115</v>
+        <v>6110050028</v>
       </c>
       <c r="C150" s="2">
-        <v>1.05</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
+        <v>6110050114</v>
+      </c>
+      <c r="B151" s="3">
         <v>6110050115</v>
       </c>
-      <c r="B151" s="3">
-        <v>6110050011</v>
-      </c>
       <c r="C151" s="2">
-        <v>5.4</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
+        <v>6110050115</v>
+      </c>
+      <c r="B152" s="3">
         <v>6110050011</v>
       </c>
-      <c r="B152" s="3">
-        <v>6110050010</v>
-      </c>
       <c r="C152" s="2">
-        <v>6.7</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
-        <v>6110050115</v>
+        <v>6110050011</v>
       </c>
       <c r="B153" s="3">
-        <v>6110050030</v>
+        <v>6110050010</v>
       </c>
       <c r="C153" s="2">
-        <v>1.1499999999999999</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
-        <v>6110040101</v>
+        <v>6110050115</v>
       </c>
       <c r="B154" s="3">
         <v>6110050030</v>
       </c>
       <c r="C154" s="2">
-        <v>2.2999999999999998</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2134,10 +2134,10 @@
         <v>6110040101</v>
       </c>
       <c r="B155" s="3">
-        <v>6110040006</v>
+        <v>6110050030</v>
       </c>
       <c r="C155" s="2">
-        <v>8.9</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2145,32 +2145,32 @@
         <v>6110040101</v>
       </c>
       <c r="B156" s="3">
-        <v>6110040021</v>
+        <v>6110040006</v>
       </c>
       <c r="C156" s="2">
-        <v>1.3</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
+        <v>6110040101</v>
+      </c>
+      <c r="B157" s="3">
         <v>6110040021</v>
       </c>
-      <c r="B157" s="3">
-        <v>6110040102</v>
-      </c>
       <c r="C157" s="2">
-        <v>4.0999999999999996</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
+        <v>6110040021</v>
+      </c>
+      <c r="B158" s="3">
         <v>6110040102</v>
       </c>
-      <c r="B158" s="3">
-        <v>6110040022</v>
-      </c>
       <c r="C158" s="2">
-        <v>1.8</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2178,32 +2178,32 @@
         <v>6110040102</v>
       </c>
       <c r="B159" s="3">
-        <v>6110040011</v>
+        <v>6110040022</v>
       </c>
       <c r="C159" s="2">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
+        <v>6110040102</v>
+      </c>
+      <c r="B160" s="3">
         <v>6110040011</v>
       </c>
-      <c r="B160" s="3">
-        <v>6110040103</v>
-      </c>
       <c r="C160" s="2">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
+        <v>6110040011</v>
+      </c>
+      <c r="B161" s="3">
         <v>6110040103</v>
       </c>
-      <c r="B161" s="3">
-        <v>6110040010</v>
-      </c>
       <c r="C161" s="2">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2211,65 +2211,65 @@
         <v>6110040103</v>
       </c>
       <c r="B162" s="3">
-        <v>6110040104</v>
+        <v>6110040010</v>
       </c>
       <c r="C162" s="2">
-        <v>0.9</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
+        <v>6110040103</v>
+      </c>
+      <c r="B163" s="3">
         <v>6110040104</v>
       </c>
-      <c r="B163" s="3">
-        <v>6110040105</v>
-      </c>
       <c r="C163" s="2">
-        <v>8.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
-        <v>6110040020</v>
+        <v>6110040104</v>
       </c>
       <c r="B164" s="3">
         <v>6110040105</v>
       </c>
       <c r="C164" s="2">
-        <v>5.8</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
-        <v>6110040104</v>
+        <v>6110040020</v>
       </c>
       <c r="B165" s="3">
-        <v>6110040012</v>
+        <v>6110040105</v>
       </c>
       <c r="C165" s="2">
-        <v>0.3</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
+        <v>6110040104</v>
+      </c>
+      <c r="B166" s="3">
         <v>6110040012</v>
       </c>
-      <c r="B166" s="3">
-        <v>6110040106</v>
-      </c>
       <c r="C166" s="2">
-        <v>5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
+        <v>6110040012</v>
+      </c>
+      <c r="B167" s="3">
         <v>6110040106</v>
       </c>
-      <c r="B167" s="3">
-        <v>6110040016</v>
-      </c>
       <c r="C167" s="2">
-        <v>2.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2277,21 +2277,21 @@
         <v>6110040106</v>
       </c>
       <c r="B168" s="3">
-        <v>6110040107</v>
+        <v>6110040016</v>
       </c>
       <c r="C168" s="2">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
+        <v>6110040106</v>
+      </c>
+      <c r="B169" s="3">
         <v>6110040107</v>
       </c>
-      <c r="B169" s="3">
-        <v>6110040023</v>
-      </c>
       <c r="C169" s="2">
-        <v>13</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2299,43 +2299,43 @@
         <v>6110040107</v>
       </c>
       <c r="B170" s="3">
-        <v>6110040108</v>
+        <v>6110040023</v>
       </c>
       <c r="C170" s="2">
-        <v>3.4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
+        <v>6110040107</v>
+      </c>
+      <c r="B171" s="3">
         <v>6110040108</v>
       </c>
-      <c r="B171" s="3">
-        <v>6110040017</v>
-      </c>
       <c r="C171" s="2">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
-        <v>6110040016</v>
+        <v>6110040108</v>
       </c>
       <c r="B172" s="3">
-        <v>6110040109</v>
+        <v>6110040017</v>
       </c>
       <c r="C172" s="2">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
+        <v>6110040016</v>
+      </c>
+      <c r="B173" s="3">
         <v>6110040109</v>
       </c>
-      <c r="B173" s="3">
-        <v>6110040014</v>
-      </c>
       <c r="C173" s="2">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2343,21 +2343,21 @@
         <v>6110040109</v>
       </c>
       <c r="B174" s="3">
-        <v>6110040015</v>
+        <v>6110040014</v>
       </c>
       <c r="C174" s="2">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
-        <v>6110041101</v>
+        <v>6110040109</v>
       </c>
       <c r="B175" s="3">
-        <v>6110040105</v>
+        <v>6110040015</v>
       </c>
       <c r="C175" s="2">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2365,10 +2365,10 @@
         <v>6110041101</v>
       </c>
       <c r="B176" s="3">
-        <v>6110041008</v>
+        <v>6110040105</v>
       </c>
       <c r="C176" s="2">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2376,21 +2376,21 @@
         <v>6110041101</v>
       </c>
       <c r="B177" s="3">
-        <v>6110041007</v>
+        <v>6110041008</v>
       </c>
       <c r="C177" s="2">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
+        <v>6110041101</v>
+      </c>
+      <c r="B178" s="3">
         <v>6110041007</v>
       </c>
-      <c r="B178" s="3">
-        <v>6110041006</v>
-      </c>
       <c r="C178" s="2">
-        <v>4.9000000000000004</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2398,87 +2398,87 @@
         <v>6110041007</v>
       </c>
       <c r="B179" s="3">
-        <v>6110041102</v>
+        <v>6110041006</v>
       </c>
       <c r="C179" s="2">
-        <v>2.7</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
+        <v>6110041007</v>
+      </c>
+      <c r="B180" s="3">
         <v>6110041102</v>
       </c>
-      <c r="B180" s="3">
-        <v>6110041003</v>
-      </c>
       <c r="C180" s="2">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
+        <v>6110041102</v>
+      </c>
+      <c r="B181" s="3">
         <v>6110041003</v>
       </c>
-      <c r="B181" s="3">
-        <v>6110041004</v>
-      </c>
       <c r="C181" s="2">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
+        <v>6110041003</v>
+      </c>
+      <c r="B182" s="3">
         <v>6110041004</v>
       </c>
-      <c r="B182" s="3">
-        <v>6110041001</v>
-      </c>
       <c r="C182" s="2">
-        <v>12.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
+        <v>6110041004</v>
+      </c>
+      <c r="B183" s="3">
         <v>6110041001</v>
       </c>
-      <c r="B183" s="3">
-        <v>6110041002</v>
-      </c>
       <c r="C183" s="2">
-        <v>5.4</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
-        <v>6110041102</v>
+        <v>6110041001</v>
       </c>
       <c r="B184" s="3">
-        <v>6110041005</v>
+        <v>6110041002</v>
       </c>
       <c r="C184" s="2">
-        <v>1.7</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
+        <v>6110041102</v>
+      </c>
+      <c r="B185" s="3">
         <v>6110041005</v>
       </c>
-      <c r="B185" s="3">
-        <v>6110040009</v>
-      </c>
       <c r="C185" s="2">
-        <v>11.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
+        <v>6110041005</v>
+      </c>
+      <c r="B186" s="3">
         <v>6110040009</v>
       </c>
-      <c r="B186" s="3">
-        <v>6110040019</v>
-      </c>
       <c r="C186" s="2">
-        <v>7.46</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2486,21 +2486,21 @@
         <v>6110040009</v>
       </c>
       <c r="B187" s="3">
-        <v>6110040110</v>
+        <v>6110040019</v>
       </c>
       <c r="C187" s="2">
-        <v>2.97</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
+        <v>6110040009</v>
+      </c>
+      <c r="B188" s="3">
         <v>6110040110</v>
       </c>
-      <c r="B188" s="3">
-        <v>6110040018</v>
-      </c>
       <c r="C188" s="2">
-        <v>5.19</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2508,65 +2508,65 @@
         <v>6110040110</v>
       </c>
       <c r="B189" s="3">
-        <v>6110040003</v>
+        <v>6110040018</v>
       </c>
       <c r="C189" s="2">
-        <v>5.89</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
+        <v>6110040110</v>
+      </c>
+      <c r="B190" s="3">
         <v>6110040003</v>
       </c>
-      <c r="B190" s="3">
-        <v>6110040001</v>
-      </c>
       <c r="C190" s="2">
-        <v>20.57</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
-        <v>6110052003</v>
+        <v>6110040003</v>
       </c>
       <c r="B191" s="3">
-        <v>6110052002</v>
+        <v>6110040001</v>
       </c>
       <c r="C191" s="2">
-        <v>7.5</v>
+        <v>20.57</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
+        <v>6110052003</v>
+      </c>
+      <c r="B192" s="3">
         <v>6110052002</v>
       </c>
-      <c r="B192" s="3">
-        <v>6110052001</v>
-      </c>
       <c r="C192" s="2">
-        <v>5.6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
+        <v>6110052002</v>
+      </c>
+      <c r="B193" s="3">
         <v>6110052001</v>
       </c>
-      <c r="B193" s="3">
-        <v>6110052004</v>
-      </c>
       <c r="C193" s="2">
-        <v>9.1999999999999993</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
+        <v>6110052001</v>
+      </c>
+      <c r="B194" s="3">
         <v>6110052004</v>
       </c>
-      <c r="B194" s="3">
-        <v>6110052005</v>
-      </c>
       <c r="C194" s="2">
-        <v>2.4</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2574,417 +2574,450 @@
         <v>6110052004</v>
       </c>
       <c r="B195" s="3">
-        <v>6110052006</v>
+        <v>6110052005</v>
       </c>
       <c r="C195" s="2">
-        <v>12.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
+        <v>6110052004</v>
+      </c>
+      <c r="B196" s="3">
         <v>6110052006</v>
       </c>
-      <c r="B196" s="3">
-        <v>6110052007</v>
-      </c>
       <c r="C196" s="2">
-        <v>8.9</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
+        <v>6110052006</v>
+      </c>
+      <c r="B197" s="3">
         <v>6110052007</v>
       </c>
-      <c r="B197" s="3">
-        <v>6110052010</v>
-      </c>
       <c r="C197" s="2">
-        <v>9.1999999999999993</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
+        <v>6110052007</v>
+      </c>
+      <c r="B198" s="3">
         <v>6110052010</v>
       </c>
-      <c r="B198" s="3">
-        <v>6110052101</v>
-      </c>
       <c r="C198" s="2">
-        <v>0.4</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
+        <v>6110052010</v>
+      </c>
+      <c r="B199" s="3">
         <v>6110052101</v>
       </c>
-      <c r="B199" s="3">
-        <v>6110052102</v>
-      </c>
       <c r="C199" s="2">
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
+        <v>6110052101</v>
+      </c>
+      <c r="B200" s="3">
         <v>6110052102</v>
       </c>
-      <c r="B200" s="3">
-        <v>6110052013</v>
-      </c>
       <c r="C200" s="2">
-        <v>0.3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
+        <v>6110052102</v>
+      </c>
+      <c r="B201" s="3">
         <v>6110052013</v>
       </c>
-      <c r="B201" s="3">
-        <v>6110052011</v>
-      </c>
       <c r="C201" s="2">
-        <v>9.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
+        <v>6110052013</v>
+      </c>
+      <c r="B202" s="3">
         <v>6110052011</v>
       </c>
-      <c r="B202" s="3">
-        <v>6110052012</v>
-      </c>
       <c r="C202" s="2">
-        <v>6</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
-        <v>6110052101</v>
+        <v>6110052011</v>
       </c>
       <c r="B203" s="3">
-        <v>6110052008</v>
+        <v>6110052012</v>
       </c>
       <c r="C203" s="2">
-        <v>0.9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
+        <v>6110052101</v>
+      </c>
+      <c r="B204" s="3">
         <v>6110052008</v>
       </c>
-      <c r="B204" s="3">
-        <v>6110052009</v>
-      </c>
       <c r="C204" s="2">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
+        <v>6110052008</v>
+      </c>
+      <c r="B205" s="3">
         <v>6110052009</v>
       </c>
-      <c r="B205" s="3">
-        <v>6110052015</v>
-      </c>
       <c r="C205" s="2">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
+        <v>6110052009</v>
+      </c>
+      <c r="B206" s="3">
         <v>6110052015</v>
       </c>
-      <c r="B206" s="3">
-        <v>6110052103</v>
-      </c>
       <c r="C206" s="2">
-        <v>6.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
+        <v>6110052015</v>
+      </c>
+      <c r="B207" s="3">
         <v>6110052103</v>
       </c>
-      <c r="B207" s="3">
-        <v>6110052018</v>
-      </c>
       <c r="C207" s="2">
-        <v>8</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
-        <v>6110052018</v>
+        <v>6110052014</v>
       </c>
       <c r="B208" s="3">
-        <v>6110052016</v>
+        <v>6110052103</v>
       </c>
       <c r="C208" s="2">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
-        <v>6110052016</v>
+        <v>6110052103</v>
       </c>
       <c r="B209" s="3">
-        <v>6110052019</v>
+        <v>6110052018</v>
       </c>
       <c r="C209" s="2">
-        <v>15.7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
+        <v>6110052018</v>
+      </c>
+      <c r="B210" s="3">
         <v>6110052016</v>
       </c>
-      <c r="B210" s="3">
-        <v>6110052017</v>
-      </c>
       <c r="C210" s="2">
-        <v>4.5999999999999996</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
-        <v>6110052102</v>
+        <v>6110052016</v>
       </c>
       <c r="B211" s="3">
-        <v>6110052017</v>
+        <v>6110052019</v>
       </c>
       <c r="C211" s="2">
-        <v>15.3</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
-        <v>6110052001</v>
+        <v>6110052016</v>
       </c>
       <c r="B212" s="3">
-        <v>6110050102</v>
+        <v>6110052017</v>
       </c>
       <c r="C212" s="2">
-        <v>7.7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
-        <v>6110052004</v>
+        <v>6110052102</v>
       </c>
       <c r="B213" s="3">
-        <v>6110050024</v>
+        <v>6110052017</v>
       </c>
       <c r="C213" s="2">
-        <v>3.7</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
-        <v>6110050024</v>
+        <v>6110052001</v>
       </c>
       <c r="B214" s="3">
         <v>6110050102</v>
       </c>
       <c r="C214" s="2">
-        <v>12.3</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
-        <v>6110052006</v>
+        <v>6110052004</v>
       </c>
       <c r="B215" s="3">
-        <v>6110050008</v>
+        <v>6110050024</v>
       </c>
       <c r="C215" s="2">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
-        <v>6110052007</v>
+        <v>6110050024</v>
       </c>
       <c r="B216" s="3">
-        <v>6110050026</v>
+        <v>6110050102</v>
       </c>
       <c r="C216" s="2">
-        <v>2.85</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
-        <v>6110052101</v>
+        <v>6110052006</v>
       </c>
       <c r="B217" s="3">
-        <v>6110050112</v>
+        <v>6110050008</v>
       </c>
       <c r="C217" s="2">
-        <v>0.76</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
-        <v>6110051001</v>
+        <v>6110052007</v>
       </c>
       <c r="B218" s="3">
-        <v>6110051102</v>
+        <v>6110050026</v>
       </c>
       <c r="C218" s="2">
-        <v>6.1</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
-        <v>6110051003</v>
+        <v>6110052101</v>
       </c>
       <c r="B219" s="3">
-        <v>6110051102</v>
+        <v>6110050112</v>
       </c>
       <c r="C219" s="2">
-        <v>6.5</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
+        <v>6110051001</v>
+      </c>
+      <c r="B220" s="3">
         <v>6110051102</v>
       </c>
-      <c r="B220" s="3">
-        <v>6110051008</v>
-      </c>
       <c r="C220" s="2">
-        <v>10.6</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
-        <v>6110051008</v>
+        <v>6110051003</v>
       </c>
       <c r="B221" s="3">
-        <v>6110051101</v>
+        <v>6110051102</v>
       </c>
       <c r="C221" s="2">
-        <v>0.4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
-        <v>6110051101</v>
+        <v>6110051102</v>
       </c>
       <c r="B222" s="3">
-        <v>6110051012</v>
+        <v>6110051008</v>
       </c>
       <c r="C222" s="2">
-        <v>2.2999999999999998</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
-        <v>6110051012</v>
+        <v>6110051008</v>
       </c>
       <c r="B223" s="3">
-        <v>6110051005</v>
+        <v>6110051101</v>
       </c>
       <c r="C223" s="2">
-        <v>4.9000000000000004</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
-        <v>6110051005</v>
+        <v>6110051101</v>
       </c>
       <c r="B224" s="3">
-        <v>6110051006</v>
+        <v>6110051012</v>
       </c>
       <c r="C224" s="2">
-        <v>4.96</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
-        <v>6110051006</v>
+        <v>6110051012</v>
       </c>
       <c r="B225" s="3">
-        <v>6110051007</v>
+        <v>6110051005</v>
       </c>
       <c r="C225" s="2">
-        <v>1.18</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
-        <v>6110051012</v>
+        <v>6110051005</v>
       </c>
       <c r="B226" s="3">
-        <v>6110051011</v>
+        <v>6110051006</v>
       </c>
       <c r="C226" s="2">
-        <v>4.8</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
-        <v>6110051101</v>
+        <v>6110051006</v>
       </c>
       <c r="B227" s="3">
-        <v>6110051103</v>
+        <v>6110051007</v>
       </c>
       <c r="C227" s="2">
-        <v>4.4000000000000004</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
-        <v>6110051103</v>
+        <v>6110051012</v>
       </c>
       <c r="B228" s="3">
         <v>6110051011</v>
       </c>
       <c r="C228" s="2">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
-        <v>6110051103</v>
+        <v>6110051010</v>
       </c>
       <c r="B229" s="3">
-        <v>6110050104</v>
+        <v>6110051011</v>
       </c>
       <c r="C229" s="2">
-        <v>7.8</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
-        <v>6110051004</v>
+        <v>6110051101</v>
       </c>
       <c r="B230" s="3">
         <v>6110051103</v>
       </c>
       <c r="C230" s="2">
-        <v>9.5</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="2">
-        <v>6110051001</v>
+        <v>6110051103</v>
       </c>
       <c r="B231" s="3">
-        <v>6110051104</v>
+        <v>6110051011</v>
       </c>
       <c r="C231" s="2">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="2">
-        <v>6110060004</v>
+        <v>6110051103</v>
       </c>
       <c r="B232" s="3">
-        <v>6110060011</v>
-      </c>
-      <c r="C232" s="1">
-        <v>9</v>
+        <v>6110050104</v>
+      </c>
+      <c r="C232" s="2">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A233" s="2">
+        <v>6110051004</v>
+      </c>
+      <c r="B233" s="3">
+        <v>6110051103</v>
+      </c>
+      <c r="C233" s="2">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A234" s="2">
+        <v>6110051001</v>
+      </c>
+      <c r="B234" s="3">
+        <v>6110051104</v>
+      </c>
+      <c r="C234" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A235" s="2">
+        <v>6110051104</v>
+      </c>
+      <c r="B235" s="3">
+        <v>6110051002</v>
+      </c>
+      <c r="C235" s="2">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>

--- a/jarakdesa_test.xlsx
+++ b/jarakdesa_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iqbal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F879634-DAA8-4F84-9DC1-6C076E5B06E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D227EEB8-F926-4ABE-9714-DAA2C0A74955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CF3552AC-5646-42CE-A235-903B495CD93A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="221">
   <si>
     <t>iddesa1</t>
   </si>
@@ -688,348 +688,6 @@
   </si>
   <si>
     <t>jarak</t>
-  </si>
-  <si>
-    <t>8.6</t>
-  </si>
-  <si>
-    <t>8.2</t>
-  </si>
-  <si>
-    <t>15.3</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>10.9</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>7.3</t>
-  </si>
-  <si>
-    <t>8.3</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>11.4</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>11.6</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>6.6</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>7.6</t>
-  </si>
-  <si>
-    <t>7.2</t>
-  </si>
-  <si>
-    <t>5.3</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>11.8</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>10.2</t>
-  </si>
-  <si>
-    <t>14.6</t>
-  </si>
-  <si>
-    <t>13.9</t>
-  </si>
-  <si>
-    <t>17.4</t>
-  </si>
-  <si>
-    <t>5.9</t>
-  </si>
-  <si>
-    <t>7.4</t>
-  </si>
-  <si>
-    <t>7.1</t>
-  </si>
-  <si>
-    <t>11.2</t>
-  </si>
-  <si>
-    <t>13.1</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>5.8</t>
-  </si>
-  <si>
-    <t>4.9</t>
-  </si>
-  <si>
-    <t>6.8</t>
-  </si>
-  <si>
-    <t>12.1</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>5.7</t>
-  </si>
-  <si>
-    <t>12.5</t>
-  </si>
-  <si>
-    <t>15.5</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>11.1</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>9.7</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>18.7</t>
-  </si>
-  <si>
-    <t>19.5</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>12.3</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>4.45</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>0.96</t>
-  </si>
-  <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>1.14</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.87</t>
-  </si>
-  <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>1.05</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>6.7</t>
-  </si>
-  <si>
-    <t>1.15</t>
-  </si>
-  <si>
-    <t>8.9</t>
-  </si>
-  <si>
-    <t>8.5</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>7.46</t>
-  </si>
-  <si>
-    <t>2.97</t>
-  </si>
-  <si>
-    <t>5.19</t>
-  </si>
-  <si>
-    <t>5.89</t>
-  </si>
-  <si>
-    <t>20.57</t>
-  </si>
-  <si>
-    <t>7.5</t>
-  </si>
-  <si>
-    <t>9.2</t>
-  </si>
-  <si>
-    <t>9.4</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>15.7</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>7.7</t>
-  </si>
-  <si>
-    <t>2.85</t>
-  </si>
-  <si>
-    <t>0.76</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>10.6</t>
-  </si>
-  <si>
-    <t>4.96</t>
-  </si>
-  <si>
-    <t>1.18</t>
-  </si>
-  <si>
-    <t>23.5</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>7.8</t>
-  </si>
-  <si>
-    <t>9.5</t>
   </si>
 </sst>
 </file>
@@ -1412,7 +1070,7 @@
   <dimension ref="A1:C1072"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1438,8 +1096,8 @@
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>221</v>
+      <c r="C2" s="1">
+        <v>8.6</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1471,8 +1129,8 @@
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>222</v>
+      <c r="C5" s="1">
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1504,8 +1162,8 @@
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>223</v>
+      <c r="C8" s="1">
+        <v>15.3</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1515,8 +1173,8 @@
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>224</v>
+      <c r="C9" s="1">
+        <v>3.5</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1526,8 +1184,8 @@
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>225</v>
+      <c r="C10" s="1">
+        <v>3.8</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1559,8 +1217,8 @@
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>226</v>
+      <c r="C13" s="1">
+        <v>10.9</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1570,8 +1228,8 @@
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>227</v>
+      <c r="C14" s="1">
+        <v>1.3</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1581,8 +1239,8 @@
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>228</v>
+      <c r="C15" s="1">
+        <v>0.7</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1592,8 +1250,8 @@
       <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>229</v>
+      <c r="C16" s="1">
+        <v>7.3</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1614,8 +1272,8 @@
       <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>230</v>
+      <c r="C18" s="1">
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1625,8 +1283,8 @@
       <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>231</v>
+      <c r="C19" s="1">
+        <v>3.6</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1636,8 +1294,8 @@
       <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>232</v>
+      <c r="C20" s="1">
+        <v>1.2</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1647,8 +1305,8 @@
       <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>233</v>
+      <c r="C21" s="1">
+        <v>11.4</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1658,8 +1316,8 @@
       <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>234</v>
+      <c r="C22" s="1">
+        <v>4.7</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1669,8 +1327,8 @@
       <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>228</v>
+      <c r="C23" s="1">
+        <v>0.7</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1680,8 +1338,8 @@
       <c r="B24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>235</v>
+      <c r="C24" s="1">
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1691,8 +1349,8 @@
       <c r="B25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>236</v>
+      <c r="C25" s="1">
+        <v>3.7</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1702,8 +1360,8 @@
       <c r="B26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>237</v>
+      <c r="C26" s="1">
+        <v>2.7</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1735,8 +1393,8 @@
       <c r="B29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>238</v>
+      <c r="C29" s="1">
+        <v>5.2</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1746,8 +1404,8 @@
       <c r="B30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>239</v>
+      <c r="C30" s="1">
+        <v>4.3</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1757,8 +1415,8 @@
       <c r="B31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>240</v>
+      <c r="C31" s="1">
+        <v>11.6</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1768,8 +1426,8 @@
       <c r="B32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>241</v>
+      <c r="C32" s="1">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1779,8 +1437,8 @@
       <c r="B33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>230</v>
+      <c r="C33" s="1">
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1812,8 +1470,8 @@
       <c r="B36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>238</v>
+      <c r="C36" s="1">
+        <v>5.2</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1823,8 +1481,8 @@
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>242</v>
+      <c r="C37" s="1">
+        <v>4.5</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1845,8 +1503,8 @@
       <c r="B39" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>243</v>
+      <c r="C39" s="1">
+        <v>6.6</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1856,8 +1514,8 @@
       <c r="B40" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>244</v>
+      <c r="C40" s="1">
+        <v>5.5</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1867,8 +1525,8 @@
       <c r="B41" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>245</v>
+      <c r="C41" s="1">
+        <v>3.4</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1878,8 +1536,8 @@
       <c r="B42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>246</v>
+      <c r="C42" s="1">
+        <v>6.3</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1889,8 +1547,8 @@
       <c r="B43" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>247</v>
+      <c r="C43" s="1">
+        <v>0.8</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1900,8 +1558,8 @@
       <c r="B44" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>248</v>
+      <c r="C44" s="1">
+        <v>7.6</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1922,8 +1580,8 @@
       <c r="B46" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>249</v>
+      <c r="C46" s="1">
+        <v>7.2</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1933,8 +1591,8 @@
       <c r="B47" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>250</v>
+      <c r="C47" s="1">
+        <v>5.3</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1944,8 +1602,8 @@
       <c r="B48" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>238</v>
+      <c r="C48" s="1">
+        <v>5.2</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1966,8 +1624,8 @@
       <c r="B50" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>251</v>
+      <c r="C50" s="1">
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1977,8 +1635,8 @@
       <c r="B51" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>236</v>
+      <c r="C51" s="1">
+        <v>3.7</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1988,8 +1646,8 @@
       <c r="B52" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>252</v>
+      <c r="C52" s="1">
+        <v>2.6</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1999,8 +1657,8 @@
       <c r="B53" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>253</v>
+      <c r="C53" s="1">
+        <v>2.5</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2010,8 +1668,8 @@
       <c r="B54" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>254</v>
+      <c r="C54" s="1">
+        <v>0.6</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2021,8 +1679,8 @@
       <c r="B55" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>232</v>
+      <c r="C55" s="1">
+        <v>1.2</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2032,8 +1690,8 @@
       <c r="B56" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>249</v>
+      <c r="C56" s="1">
+        <v>7.2</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2043,8 +1701,8 @@
       <c r="B57" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>255</v>
+      <c r="C57" s="1">
+        <v>11.8</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2054,8 +1712,8 @@
       <c r="B58" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>256</v>
+      <c r="C58" s="1">
+        <v>0.35</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2065,8 +1723,8 @@
       <c r="B59" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>234</v>
+      <c r="C59" s="1">
+        <v>4.7</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2076,8 +1734,8 @@
       <c r="B60" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>257</v>
+      <c r="C60" s="1">
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2087,8 +1745,8 @@
       <c r="B61" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>258</v>
+      <c r="C61" s="1">
+        <v>14.6</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2109,8 +1767,8 @@
       <c r="B63" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>259</v>
+      <c r="C63" s="1">
+        <v>13.9</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2120,8 +1778,8 @@
       <c r="B64" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>260</v>
+      <c r="C64" s="1">
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2131,8 +1789,8 @@
       <c r="B65" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>261</v>
+      <c r="C65" s="1">
+        <v>5.9</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2142,8 +1800,8 @@
       <c r="B66" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>246</v>
+      <c r="C66" s="1">
+        <v>6.3</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2153,8 +1811,8 @@
       <c r="B67" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>262</v>
+      <c r="C67" s="1">
+        <v>7.4</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2164,8 +1822,8 @@
       <c r="B68" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>263</v>
+      <c r="C68" s="1">
+        <v>7.1</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2175,8 +1833,8 @@
       <c r="B69" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>222</v>
+      <c r="C69" s="1">
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2186,8 +1844,8 @@
       <c r="B70" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>264</v>
+      <c r="C70" s="1">
+        <v>11.2</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2197,8 +1855,8 @@
       <c r="B71" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>265</v>
+      <c r="C71" s="1">
+        <v>13.1</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2219,8 +1877,8 @@
       <c r="B73" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>228</v>
+      <c r="C73" s="1">
+        <v>0.7</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2230,8 +1888,8 @@
       <c r="B74" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>266</v>
+      <c r="C74" s="1">
+        <v>3.9</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2241,8 +1899,8 @@
       <c r="B75" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>267</v>
+      <c r="C75" s="1">
+        <v>1.4</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2263,8 +1921,8 @@
       <c r="B77" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>268</v>
+      <c r="C77" s="1">
+        <v>0.3</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2274,8 +1932,8 @@
       <c r="B78" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>269</v>
+      <c r="C78" s="1">
+        <v>5.6</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2285,8 +1943,8 @@
       <c r="B79" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>247</v>
+      <c r="C79" s="1">
+        <v>0.8</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2296,8 +1954,8 @@
       <c r="B80" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>270</v>
+      <c r="C80" s="1">
+        <v>5.8</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2307,8 +1965,8 @@
       <c r="B81" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>248</v>
+      <c r="C81" s="1">
+        <v>7.6</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2318,8 +1976,8 @@
       <c r="B82" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>271</v>
+      <c r="C82" s="1">
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2329,8 +1987,8 @@
       <c r="B83" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>272</v>
+      <c r="C83" s="1">
+        <v>6.8</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2340,8 +1998,8 @@
       <c r="B84" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>273</v>
+      <c r="C84" s="1">
+        <v>12.1</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2362,8 +2020,8 @@
       <c r="B86" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>274</v>
+      <c r="C86" s="1">
+        <v>0.4</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2373,8 +2031,8 @@
       <c r="B87" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>275</v>
+      <c r="C87" s="1">
+        <v>0.65</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2384,8 +2042,8 @@
       <c r="B88" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>276</v>
+      <c r="C88" s="1">
+        <v>1.6</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2395,8 +2053,8 @@
       <c r="B89" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>270</v>
+      <c r="C89" s="1">
+        <v>5.8</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2406,8 +2064,8 @@
       <c r="B90" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>277</v>
+      <c r="C90" s="1">
+        <v>5.7</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2417,8 +2075,8 @@
       <c r="B91" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>244</v>
+      <c r="C91" s="1">
+        <v>5.5</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2428,8 +2086,8 @@
       <c r="B92" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>241</v>
+      <c r="C92" s="1">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2439,8 +2097,8 @@
       <c r="B93" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>242</v>
+      <c r="C93" s="1">
+        <v>4.5</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2450,8 +2108,8 @@
       <c r="B94" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>278</v>
+      <c r="C94" s="1">
+        <v>12.5</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2461,8 +2119,8 @@
       <c r="B95" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>238</v>
+      <c r="C95" s="1">
+        <v>5.2</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2472,8 +2130,8 @@
       <c r="B96" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>279</v>
+      <c r="C96" s="1">
+        <v>15.5</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2483,8 +2141,8 @@
       <c r="B97" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>251</v>
+      <c r="C97" s="1">
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2494,8 +2152,8 @@
       <c r="B98" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>271</v>
+      <c r="C98" s="1">
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2505,8 +2163,8 @@
       <c r="B99" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>274</v>
+      <c r="C99" s="1">
+        <v>0.4</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2527,8 +2185,8 @@
       <c r="B101" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>231</v>
+      <c r="C101" s="1">
+        <v>3.6</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2560,8 +2218,8 @@
       <c r="B104" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>274</v>
+      <c r="C104" s="1">
+        <v>0.4</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2571,8 +2229,8 @@
       <c r="B105" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>276</v>
+      <c r="C105" s="1">
+        <v>1.6</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2593,8 +2251,8 @@
       <c r="B107" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>241</v>
+      <c r="C107" s="1">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2604,8 +2262,8 @@
       <c r="B108" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>280</v>
+      <c r="C108" s="1">
+        <v>0.2</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2615,8 +2273,8 @@
       <c r="B109" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>281</v>
+      <c r="C109" s="1">
+        <v>11.1</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2626,8 +2284,8 @@
       <c r="B110" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>282</v>
+      <c r="C110" s="1">
+        <v>4.8</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2637,8 +2295,8 @@
       <c r="B111" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>245</v>
+      <c r="C111" s="1">
+        <v>3.4</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2648,8 +2306,8 @@
       <c r="B112" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>283</v>
+      <c r="C112" s="1">
+        <v>1.8</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2659,8 +2317,8 @@
       <c r="B113" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>284</v>
+      <c r="C113" s="1">
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2681,8 +2339,8 @@
       <c r="B115" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>232</v>
+      <c r="C115" s="1">
+        <v>1.2</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2692,8 +2350,8 @@
       <c r="B116" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>285</v>
+      <c r="C116" s="1">
+        <v>1.5</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2703,8 +2361,8 @@
       <c r="B117" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>235</v>
+      <c r="C117" s="1">
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2714,8 +2372,8 @@
       <c r="B118" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>279</v>
+      <c r="C118" s="1">
+        <v>15.5</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2725,8 +2383,8 @@
       <c r="B119" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>227</v>
+      <c r="C119" s="1">
+        <v>1.3</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2736,8 +2394,8 @@
       <c r="B120" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>246</v>
+      <c r="C120" s="1">
+        <v>6.3</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2758,8 +2416,8 @@
       <c r="B122" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>286</v>
+      <c r="C122" s="1">
+        <v>18.7</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2769,8 +2427,8 @@
       <c r="B123" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>287</v>
+      <c r="C123" s="1">
+        <v>19.5</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2780,8 +2438,8 @@
       <c r="B124" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>288</v>
+      <c r="C124" s="1">
+        <v>1.9</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2791,8 +2449,8 @@
       <c r="B125" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>222</v>
+      <c r="C125" s="1">
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2802,8 +2460,8 @@
       <c r="B126" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>253</v>
+      <c r="C126" s="1">
+        <v>2.5</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2813,8 +2471,8 @@
       <c r="B127" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>277</v>
+      <c r="C127" s="1">
+        <v>5.7</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2824,8 +2482,8 @@
       <c r="B128" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>289</v>
+      <c r="C128" s="1">
+        <v>12.3</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2846,8 +2504,8 @@
       <c r="B130" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>290</v>
+      <c r="C130" s="1">
+        <v>2.1</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2857,8 +2515,8 @@
       <c r="B131" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>246</v>
+      <c r="C131" s="1">
+        <v>6.3</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2868,8 +2526,8 @@
       <c r="B132" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>239</v>
+      <c r="C132" s="1">
+        <v>4.3</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2879,8 +2537,8 @@
       <c r="B133" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>291</v>
+      <c r="C133" s="1">
+        <v>4.45</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2890,8 +2548,8 @@
       <c r="B134" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>292</v>
+      <c r="C134" s="1">
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2901,8 +2559,8 @@
       <c r="B135" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>232</v>
+      <c r="C135" s="1">
+        <v>1.2</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2912,8 +2570,8 @@
       <c r="B136" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>293</v>
+      <c r="C136" s="1">
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2923,8 +2581,8 @@
       <c r="B137" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C137" s="1" t="s">
-        <v>294</v>
+      <c r="C137" s="1">
+        <v>3.3</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2934,8 +2592,8 @@
       <c r="B138" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>235</v>
+      <c r="C138" s="1">
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2945,8 +2603,8 @@
       <c r="B139" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>295</v>
+      <c r="C139" s="1">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2956,8 +2614,8 @@
       <c r="B140" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>296</v>
+      <c r="C140" s="1">
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2967,8 +2625,8 @@
       <c r="B141" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>267</v>
+      <c r="C141" s="1">
+        <v>1.4</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2978,8 +2636,8 @@
       <c r="B142" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>297</v>
+      <c r="C142" s="1">
+        <v>0.96</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2989,8 +2647,8 @@
       <c r="B143" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>295</v>
+      <c r="C143" s="1">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3000,8 +2658,8 @@
       <c r="B144" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>296</v>
+      <c r="C144" s="1">
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3022,8 +2680,8 @@
       <c r="B146" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>298</v>
+      <c r="C146" s="1">
+        <v>0.18</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3044,8 +2702,8 @@
       <c r="B148" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>299</v>
+      <c r="C148" s="1">
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3055,8 +2713,8 @@
       <c r="B149" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>300</v>
+      <c r="C149" s="1">
+        <v>0.1</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3066,8 +2724,8 @@
       <c r="B150" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>301</v>
+      <c r="C150" s="1">
+        <v>0.87</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3077,8 +2735,8 @@
       <c r="B151" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C151" s="1" t="s">
-        <v>294</v>
+      <c r="C151" s="1">
+        <v>3.3</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3088,8 +2746,8 @@
       <c r="B152" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C152" s="1" t="s">
-        <v>302</v>
+      <c r="C152" s="1">
+        <v>6.1</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3110,8 +2768,8 @@
       <c r="B154" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>303</v>
+      <c r="C154" s="1">
+        <v>1.05</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3121,8 +2779,8 @@
       <c r="B155" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>304</v>
+      <c r="C155" s="1">
+        <v>5.4</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3132,8 +2790,8 @@
       <c r="B156" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>305</v>
+      <c r="C156" s="1">
+        <v>6.7</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3143,8 +2801,8 @@
       <c r="B157" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>306</v>
+      <c r="C157" s="1">
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3154,8 +2812,8 @@
       <c r="B158" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>292</v>
+      <c r="C158" s="1">
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3165,8 +2823,8 @@
       <c r="B159" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>307</v>
+      <c r="C159" s="1">
+        <v>8.9</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3176,8 +2834,8 @@
       <c r="B160" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>227</v>
+      <c r="C160" s="1">
+        <v>1.3</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3187,8 +2845,8 @@
       <c r="B161" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>251</v>
+      <c r="C161" s="1">
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3198,8 +2856,8 @@
       <c r="B162" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C162" s="1" t="s">
-        <v>283</v>
+      <c r="C162" s="1">
+        <v>1.8</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3209,8 +2867,8 @@
       <c r="B163" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C163" s="1" t="s">
-        <v>232</v>
+      <c r="C163" s="1">
+        <v>1.2</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3220,8 +2878,8 @@
       <c r="B164" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>231</v>
+      <c r="C164" s="1">
+        <v>3.6</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3231,8 +2889,8 @@
       <c r="B165" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C165" s="1" t="s">
-        <v>308</v>
+      <c r="C165" s="1">
+        <v>8.5</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3242,8 +2900,8 @@
       <c r="B166" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C166" s="1" t="s">
-        <v>309</v>
+      <c r="C166" s="1">
+        <v>0.9</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3253,8 +2911,8 @@
       <c r="B167" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C167" s="1" t="s">
-        <v>308</v>
+      <c r="C167" s="1">
+        <v>8.5</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3264,8 +2922,8 @@
       <c r="B168" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>270</v>
+      <c r="C168" s="1">
+        <v>5.8</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3275,8 +2933,8 @@
       <c r="B169" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C169" s="1" t="s">
-        <v>268</v>
+      <c r="C169" s="1">
+        <v>0.3</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3297,8 +2955,8 @@
       <c r="B171" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C171" s="1" t="s">
-        <v>290</v>
+      <c r="C171" s="1">
+        <v>2.1</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3308,8 +2966,8 @@
       <c r="B172" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>227</v>
+      <c r="C172" s="1">
+        <v>1.3</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3330,8 +2988,8 @@
       <c r="B174" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C174" s="1" t="s">
-        <v>245</v>
+      <c r="C174" s="1">
+        <v>3.4</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3341,8 +2999,8 @@
       <c r="B175" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C175" s="1" t="s">
-        <v>310</v>
+      <c r="C175" s="1">
+        <v>2.4</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3352,8 +3010,8 @@
       <c r="B176" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C176" s="1" t="s">
-        <v>282</v>
+      <c r="C176" s="1">
+        <v>4.8</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3363,8 +3021,8 @@
       <c r="B177" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C177" s="1" t="s">
-        <v>245</v>
+      <c r="C177" s="1">
+        <v>3.4</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3374,8 +3032,8 @@
       <c r="B178" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>253</v>
+      <c r="C178" s="1">
+        <v>2.5</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3385,8 +3043,8 @@
       <c r="B179" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C179" s="1" t="s">
-        <v>311</v>
+      <c r="C179" s="1">
+        <v>3.1</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3396,8 +3054,8 @@
       <c r="B180" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C180" s="1" t="s">
-        <v>236</v>
+      <c r="C180" s="1">
+        <v>3.7</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3407,8 +3065,8 @@
       <c r="B181" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C181" s="1" t="s">
-        <v>234</v>
+      <c r="C181" s="1">
+        <v>4.7</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3418,8 +3076,8 @@
       <c r="B182" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C182" s="1" t="s">
-        <v>271</v>
+      <c r="C182" s="1">
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3429,8 +3087,8 @@
       <c r="B183" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C183" s="1" t="s">
-        <v>237</v>
+      <c r="C183" s="1">
+        <v>2.7</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3440,8 +3098,8 @@
       <c r="B184" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C184" s="1" t="s">
-        <v>283</v>
+      <c r="C184" s="1">
+        <v>1.8</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3451,8 +3109,8 @@
       <c r="B185" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C185" s="1" t="s">
-        <v>244</v>
+      <c r="C185" s="1">
+        <v>5.5</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3462,8 +3120,8 @@
       <c r="B186" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C186" s="1" t="s">
-        <v>278</v>
+      <c r="C186" s="1">
+        <v>12.5</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3473,8 +3131,8 @@
       <c r="B187" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C187" s="1" t="s">
-        <v>304</v>
+      <c r="C187" s="1">
+        <v>5.4</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3484,8 +3142,8 @@
       <c r="B188" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C188" s="1" t="s">
-        <v>312</v>
+      <c r="C188" s="1">
+        <v>1.7</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3495,8 +3153,8 @@
       <c r="B189" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C189" s="1" t="s">
-        <v>255</v>
+      <c r="C189" s="1">
+        <v>11.8</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3506,8 +3164,8 @@
       <c r="B190" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C190" s="1" t="s">
-        <v>313</v>
+      <c r="C190" s="1">
+        <v>7.46</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3517,8 +3175,8 @@
       <c r="B191" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C191" s="1" t="s">
-        <v>314</v>
+      <c r="C191" s="1">
+        <v>2.97</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3528,8 +3186,8 @@
       <c r="B192" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C192" s="1" t="s">
-        <v>315</v>
+      <c r="C192" s="1">
+        <v>5.19</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3539,8 +3197,8 @@
       <c r="B193" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C193" s="1" t="s">
-        <v>316</v>
+      <c r="C193" s="1">
+        <v>5.89</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3550,8 +3208,8 @@
       <c r="B194" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C194" s="1" t="s">
-        <v>317</v>
+      <c r="C194" s="1">
+        <v>20.57</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3561,8 +3219,8 @@
       <c r="B195" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C195" s="1" t="s">
-        <v>318</v>
+      <c r="C195" s="1">
+        <v>7.5</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3572,8 +3230,8 @@
       <c r="B196" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C196" s="1" t="s">
-        <v>269</v>
+      <c r="C196" s="1">
+        <v>5.6</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3583,8 +3241,8 @@
       <c r="B197" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C197" s="1" t="s">
-        <v>319</v>
+      <c r="C197" s="1">
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3594,8 +3252,8 @@
       <c r="B198" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C198" s="1" t="s">
-        <v>310</v>
+      <c r="C198" s="1">
+        <v>2.4</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3605,8 +3263,8 @@
       <c r="B199" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C199" s="1" t="s">
-        <v>278</v>
+      <c r="C199" s="1">
+        <v>12.5</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3616,8 +3274,8 @@
       <c r="B200" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C200" s="1" t="s">
-        <v>307</v>
+      <c r="C200" s="1">
+        <v>8.9</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3627,8 +3285,8 @@
       <c r="B201" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C201" s="1" t="s">
-        <v>319</v>
+      <c r="C201" s="1">
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3638,8 +3296,8 @@
       <c r="B202" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C202" s="1" t="s">
-        <v>274</v>
+      <c r="C202" s="1">
+        <v>0.4</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3649,8 +3307,8 @@
       <c r="B203" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C203" s="1" t="s">
-        <v>225</v>
+      <c r="C203" s="1">
+        <v>3.8</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3660,8 +3318,8 @@
       <c r="B204" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C204" s="1" t="s">
-        <v>268</v>
+      <c r="C204" s="1">
+        <v>0.3</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3671,8 +3329,8 @@
       <c r="B205" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C205" s="1" t="s">
-        <v>320</v>
+      <c r="C205" s="1">
+        <v>9.4</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3693,8 +3351,8 @@
       <c r="B207" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C207" s="1" t="s">
-        <v>309</v>
+      <c r="C207" s="1">
+        <v>0.9</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3704,8 +3362,8 @@
       <c r="B208" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C208" s="1" t="s">
-        <v>285</v>
+      <c r="C208" s="1">
+        <v>1.5</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3726,8 +3384,8 @@
       <c r="B210" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C210" s="1" t="s">
-        <v>302</v>
+      <c r="C210" s="1">
+        <v>6.1</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3737,8 +3395,8 @@
       <c r="B211" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C211" s="1" t="s">
-        <v>228</v>
+      <c r="C211" s="1">
+        <v>0.7</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3759,8 +3417,8 @@
       <c r="B213" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C213" s="1" t="s">
-        <v>321</v>
+      <c r="C213" s="1">
+        <v>3.2</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3770,8 +3428,8 @@
       <c r="B214" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C214" s="1" t="s">
-        <v>322</v>
+      <c r="C214" s="1">
+        <v>15.7</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3781,8 +3439,8 @@
       <c r="B215" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C215" s="1" t="s">
-        <v>323</v>
+      <c r="C215" s="1">
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3792,8 +3450,8 @@
       <c r="B216" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C216" s="1" t="s">
-        <v>223</v>
+      <c r="C216" s="1">
+        <v>15.3</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3803,8 +3461,8 @@
       <c r="B217" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C217" s="1" t="s">
-        <v>324</v>
+      <c r="C217" s="1">
+        <v>7.7</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3814,8 +3472,8 @@
       <c r="B218" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C218" s="1" t="s">
-        <v>236</v>
+      <c r="C218" s="1">
+        <v>3.7</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3825,8 +3483,8 @@
       <c r="B219" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C219" s="1" t="s">
-        <v>289</v>
+      <c r="C219" s="1">
+        <v>12.3</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3836,8 +3494,8 @@
       <c r="B220" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C220" s="1" t="s">
-        <v>285</v>
+      <c r="C220" s="1">
+        <v>1.5</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3847,8 +3505,8 @@
       <c r="B221" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C221" s="1" t="s">
-        <v>325</v>
+      <c r="C221" s="1">
+        <v>2.85</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3858,8 +3516,8 @@
       <c r="B222" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C222" s="1" t="s">
-        <v>326</v>
+      <c r="C222" s="1">
+        <v>0.76</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3869,8 +3527,8 @@
       <c r="B223" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C223" s="1" t="s">
-        <v>302</v>
+      <c r="C223" s="1">
+        <v>6.1</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3880,8 +3538,8 @@
       <c r="B224" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C224" s="1" t="s">
-        <v>327</v>
+      <c r="C224" s="1">
+        <v>6.5</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3891,8 +3549,8 @@
       <c r="B225" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C225" s="1" t="s">
-        <v>328</v>
+      <c r="C225" s="1">
+        <v>10.6</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3902,8 +3560,8 @@
       <c r="B226" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C226" s="1" t="s">
-        <v>274</v>
+      <c r="C226" s="1">
+        <v>0.4</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3913,8 +3571,8 @@
       <c r="B227" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C227" s="1" t="s">
-        <v>292</v>
+      <c r="C227" s="1">
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3924,8 +3582,8 @@
       <c r="B228" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C228" s="1" t="s">
-        <v>271</v>
+      <c r="C228" s="1">
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3935,8 +3593,8 @@
       <c r="B229" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C229" s="1" t="s">
-        <v>329</v>
+      <c r="C229" s="1">
+        <v>4.96</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3946,8 +3604,8 @@
       <c r="B230" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C230" s="1" t="s">
-        <v>330</v>
+      <c r="C230" s="1">
+        <v>1.18</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3957,8 +3615,8 @@
       <c r="B231" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C231" s="1" t="s">
-        <v>282</v>
+      <c r="C231" s="1">
+        <v>4.8</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3968,8 +3626,8 @@
       <c r="B232" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C232" s="1" t="s">
-        <v>331</v>
+      <c r="C232" s="1">
+        <v>23.5</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3979,8 +3637,8 @@
       <c r="B233" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C233" s="1" t="s">
-        <v>332</v>
+      <c r="C233" s="1">
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3990,8 +3648,8 @@
       <c r="B234" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C234" s="1" t="s">
-        <v>254</v>
+      <c r="C234" s="1">
+        <v>0.6</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4001,8 +3659,8 @@
       <c r="B235" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C235" s="1" t="s">
-        <v>333</v>
+      <c r="C235" s="1">
+        <v>7.8</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4012,8 +3670,8 @@
       <c r="B236" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C236" s="1" t="s">
-        <v>334</v>
+      <c r="C236" s="1">
+        <v>9.5</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4023,8 +3681,8 @@
       <c r="B237" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C237" s="1" t="s">
-        <v>290</v>
+      <c r="C237" s="1">
+        <v>2.1</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4034,8 +3692,8 @@
       <c r="B238" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C238" s="2" t="s">
-        <v>312</v>
+      <c r="C238" s="2">
+        <v>1.7</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/jarakdesa_test.xlsx
+++ b/jarakdesa_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iqbal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D227EEB8-F926-4ABE-9714-DAA2C0A74955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3DE04D-E8E9-468A-9957-B062FB2AF742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CF3552AC-5646-42CE-A235-903B495CD93A}"/>
   </bookViews>
@@ -749,10 +749,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1067,22 +1067,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E944A46A-0E88-4837-9AFF-633AF20CCA60}">
-  <dimension ref="A1:C1072"/>
+  <dimension ref="A1:C238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="F235" sqref="F235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1090,10 +1091,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1">
@@ -1101,10 +1102,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1">
@@ -1112,10 +1113,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1">
@@ -1123,10 +1124,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1">
@@ -1134,10 +1135,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1">
@@ -1145,10 +1146,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1">
@@ -1156,10 +1157,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1">
@@ -1167,10 +1168,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1">
@@ -1178,10 +1179,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1">
@@ -1189,10 +1190,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1">
@@ -1200,10 +1201,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="1">
@@ -1211,10 +1212,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="1">
@@ -1222,10 +1223,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="1">
@@ -1233,10 +1234,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="1">
@@ -1244,10 +1245,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="1">
@@ -1255,10 +1256,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="1">
@@ -1266,10 +1267,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="1">
@@ -1277,10 +1278,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="1">
@@ -1288,10 +1289,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="1">
@@ -1299,10 +1300,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="1">
@@ -1310,10 +1311,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="1">
@@ -1321,10 +1322,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="1">
@@ -1332,10 +1333,10 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="1">
@@ -1343,10 +1344,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="1">
@@ -1354,10 +1355,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="1">
@@ -1365,10 +1366,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="1">
@@ -1376,10 +1377,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="1">
@@ -1387,10 +1388,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="1">
@@ -1398,10 +1399,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="1">
@@ -1409,10 +1410,10 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="1">
@@ -1420,10 +1421,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="1">
@@ -1431,10 +1432,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="1">
@@ -1442,10 +1443,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="1">
@@ -1453,10 +1454,10 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C35" s="1">
@@ -1464,10 +1465,10 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="1">
@@ -1475,10 +1476,10 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="1">
@@ -1486,10 +1487,10 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="1">
@@ -1497,10 +1498,10 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="1">
@@ -1508,10 +1509,10 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C40" s="1">
@@ -1519,10 +1520,10 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C41" s="1">
@@ -1530,10 +1531,10 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C42" s="1">
@@ -1541,10 +1542,10 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C43" s="1">
@@ -1552,10 +1553,10 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C44" s="1">
@@ -1563,10 +1564,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C45" s="1">
@@ -1574,10 +1575,10 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C46" s="1">
@@ -1585,10 +1586,10 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C47" s="1">
@@ -1596,10 +1597,10 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C48" s="1">
@@ -1607,10 +1608,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="1">
@@ -1618,10 +1619,10 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C50" s="1">
@@ -1629,10 +1630,10 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C51" s="1">
@@ -1640,10 +1641,10 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C52" s="1">
@@ -1651,10 +1652,10 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C53" s="1">
@@ -1662,10 +1663,10 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C54" s="1">
@@ -1673,10 +1674,10 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C55" s="1">
@@ -1684,10 +1685,10 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C56" s="1">
@@ -1695,10 +1696,10 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C57" s="1">
@@ -1706,10 +1707,10 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C58" s="1">
@@ -1717,10 +1718,10 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C59" s="1">
@@ -1728,10 +1729,10 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C60" s="1">
@@ -1739,10 +1740,10 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C61" s="1">
@@ -1750,10 +1751,10 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C62" s="1">
@@ -1761,10 +1762,10 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C63" s="1">
@@ -1772,10 +1773,10 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C64" s="1">
@@ -1783,10 +1784,10 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C65" s="1">
@@ -1794,10 +1795,10 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C66" s="1">
@@ -1805,10 +1806,10 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C67" s="1">
@@ -1816,10 +1817,10 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C68" s="1">
@@ -1827,10 +1828,10 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C69" s="1">
@@ -1838,10 +1839,10 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C70" s="1">
@@ -1849,10 +1850,10 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C71" s="1">
@@ -1860,10 +1861,10 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C72" s="1">
@@ -1871,10 +1872,10 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C73" s="1">
@@ -1882,10 +1883,10 @@
       </c>
     </row>
     <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C74" s="1">
@@ -1893,10 +1894,10 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C75" s="1">
@@ -1904,10 +1905,10 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C76" s="1">
@@ -1915,10 +1916,10 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C77" s="1">
@@ -1926,10 +1927,10 @@
       </c>
     </row>
     <row r="78" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C78" s="1">
@@ -1937,10 +1938,10 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C79" s="1">
@@ -1948,10 +1949,10 @@
       </c>
     </row>
     <row r="80" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C80" s="1">
@@ -1959,10 +1960,10 @@
       </c>
     </row>
     <row r="81" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C81" s="1">
@@ -1970,10 +1971,10 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C82" s="1">
@@ -1981,10 +1982,10 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C83" s="1">
@@ -1992,10 +1993,10 @@
       </c>
     </row>
     <row r="84" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C84" s="1">
@@ -2003,10 +2004,10 @@
       </c>
     </row>
     <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C85" s="1">
@@ -2014,10 +2015,10 @@
       </c>
     </row>
     <row r="86" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C86" s="1">
@@ -2025,10 +2026,10 @@
       </c>
     </row>
     <row r="87" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C87" s="1">
@@ -2036,10 +2037,10 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C88" s="1">
@@ -2047,10 +2048,10 @@
       </c>
     </row>
     <row r="89" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C89" s="1">
@@ -2058,10 +2059,10 @@
       </c>
     </row>
     <row r="90" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C90" s="1">
@@ -2069,10 +2070,10 @@
       </c>
     </row>
     <row r="91" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C91" s="1">
@@ -2080,10 +2081,10 @@
       </c>
     </row>
     <row r="92" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C92" s="1">
@@ -2091,10 +2092,10 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C93" s="1">
@@ -2102,10 +2103,10 @@
       </c>
     </row>
     <row r="94" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C94" s="1">
@@ -2113,10 +2114,10 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C95" s="1">
@@ -2124,10 +2125,10 @@
       </c>
     </row>
     <row r="96" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C96" s="1">
@@ -2135,10 +2136,10 @@
       </c>
     </row>
     <row r="97" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C97" s="1">
@@ -2146,10 +2147,10 @@
       </c>
     </row>
     <row r="98" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C98" s="1">
@@ -2157,10 +2158,10 @@
       </c>
     </row>
     <row r="99" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C99" s="1">
@@ -2168,10 +2169,10 @@
       </c>
     </row>
     <row r="100" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C100" s="1">
@@ -2179,10 +2180,10 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C101" s="1">
@@ -2190,10 +2191,10 @@
       </c>
     </row>
     <row r="102" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C102" s="1">
@@ -2201,10 +2202,10 @@
       </c>
     </row>
     <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C103" s="1">
@@ -2212,10 +2213,10 @@
       </c>
     </row>
     <row r="104" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C104" s="1">
@@ -2223,10 +2224,10 @@
       </c>
     </row>
     <row r="105" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C105" s="1">
@@ -2234,10 +2235,10 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C106" s="1">
@@ -2245,10 +2246,10 @@
       </c>
     </row>
     <row r="107" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C107" s="1">
@@ -2256,10 +2257,10 @@
       </c>
     </row>
     <row r="108" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C108" s="1">
@@ -2267,10 +2268,10 @@
       </c>
     </row>
     <row r="109" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C109" s="1">
@@ -2278,10 +2279,10 @@
       </c>
     </row>
     <row r="110" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C110" s="1">
@@ -2289,10 +2290,10 @@
       </c>
     </row>
     <row r="111" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C111" s="1">
@@ -2300,10 +2301,10 @@
       </c>
     </row>
     <row r="112" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C112" s="1">
@@ -2311,10 +2312,10 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C113" s="1">
@@ -2322,10 +2323,10 @@
       </c>
     </row>
     <row r="114" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C114" s="1">
@@ -2333,10 +2334,10 @@
       </c>
     </row>
     <row r="115" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C115" s="1">
@@ -2344,10 +2345,10 @@
       </c>
     </row>
     <row r="116" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C116" s="1">
@@ -2355,10 +2356,10 @@
       </c>
     </row>
     <row r="117" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C117" s="1">
@@ -2366,10 +2367,10 @@
       </c>
     </row>
     <row r="118" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C118" s="1">
@@ -2377,10 +2378,10 @@
       </c>
     </row>
     <row r="119" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C119" s="1">
@@ -2388,10 +2389,10 @@
       </c>
     </row>
     <row r="120" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C120" s="1">
@@ -2399,10 +2400,10 @@
       </c>
     </row>
     <row r="121" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C121" s="1">
@@ -2410,10 +2411,10 @@
       </c>
     </row>
     <row r="122" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C122" s="1">
@@ -2421,10 +2422,10 @@
       </c>
     </row>
     <row r="123" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C123" s="1">
@@ -2432,10 +2433,10 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C124" s="1">
@@ -2443,10 +2444,10 @@
       </c>
     </row>
     <row r="125" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C125" s="1">
@@ -2454,10 +2455,10 @@
       </c>
     </row>
     <row r="126" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C126" s="1">
@@ -2465,10 +2466,10 @@
       </c>
     </row>
     <row r="127" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C127" s="1">
@@ -2476,10 +2477,10 @@
       </c>
     </row>
     <row r="128" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C128" s="1">
@@ -2487,10 +2488,10 @@
       </c>
     </row>
     <row r="129" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C129" s="1">
@@ -2498,10 +2499,10 @@
       </c>
     </row>
     <row r="130" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C130" s="1">
@@ -2509,10 +2510,10 @@
       </c>
     </row>
     <row r="131" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C131" s="1">
@@ -2520,10 +2521,10 @@
       </c>
     </row>
     <row r="132" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C132" s="1">
@@ -2531,10 +2532,10 @@
       </c>
     </row>
     <row r="133" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C133" s="1">
@@ -2542,10 +2543,10 @@
       </c>
     </row>
     <row r="134" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C134" s="1">
@@ -2553,10 +2554,10 @@
       </c>
     </row>
     <row r="135" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C135" s="1">
@@ -2564,10 +2565,10 @@
       </c>
     </row>
     <row r="136" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C136" s="1">
@@ -2575,10 +2576,10 @@
       </c>
     </row>
     <row r="137" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C137" s="1">
@@ -2586,10 +2587,10 @@
       </c>
     </row>
     <row r="138" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C138" s="1">
@@ -2597,10 +2598,10 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C139" s="1">
@@ -2608,10 +2609,10 @@
       </c>
     </row>
     <row r="140" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C140" s="1">
@@ -2619,10 +2620,10 @@
       </c>
     </row>
     <row r="141" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C141" s="1">
@@ -2630,10 +2631,10 @@
       </c>
     </row>
     <row r="142" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C142" s="1">
@@ -2641,10 +2642,10 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C143" s="1">
@@ -2652,10 +2653,10 @@
       </c>
     </row>
     <row r="144" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C144" s="1">
@@ -2663,10 +2664,10 @@
       </c>
     </row>
     <row r="145" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C145" s="1">
@@ -2674,10 +2675,10 @@
       </c>
     </row>
     <row r="146" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C146" s="1">
@@ -2685,10 +2686,10 @@
       </c>
     </row>
     <row r="147" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C147" s="1">
@@ -2696,10 +2697,10 @@
       </c>
     </row>
     <row r="148" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C148" s="1">
@@ -2707,10 +2708,10 @@
       </c>
     </row>
     <row r="149" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C149" s="1">
@@ -2718,10 +2719,10 @@
       </c>
     </row>
     <row r="150" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C150" s="1">
@@ -2729,10 +2730,10 @@
       </c>
     </row>
     <row r="151" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C151" s="1">
@@ -2740,10 +2741,10 @@
       </c>
     </row>
     <row r="152" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C152" s="1">
@@ -2751,10 +2752,10 @@
       </c>
     </row>
     <row r="153" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C153" s="1">
@@ -2762,10 +2763,10 @@
       </c>
     </row>
     <row r="154" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C154" s="1">
@@ -2773,10 +2774,10 @@
       </c>
     </row>
     <row r="155" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C155" s="1">
@@ -2784,10 +2785,10 @@
       </c>
     </row>
     <row r="156" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C156" s="1">
@@ -2795,10 +2796,10 @@
       </c>
     </row>
     <row r="157" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C157" s="1">
@@ -2806,10 +2807,10 @@
       </c>
     </row>
     <row r="158" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C158" s="1">
@@ -2817,10 +2818,10 @@
       </c>
     </row>
     <row r="159" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C159" s="1">
@@ -2828,10 +2829,10 @@
       </c>
     </row>
     <row r="160" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C160" s="1">
@@ -2839,10 +2840,10 @@
       </c>
     </row>
     <row r="161" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C161" s="1">
@@ -2850,10 +2851,10 @@
       </c>
     </row>
     <row r="162" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="3" t="s">
+      <c r="A162" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="2" t="s">
         <v>152</v>
       </c>
       <c r="C162" s="1">
@@ -2861,10 +2862,10 @@
       </c>
     </row>
     <row r="163" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C163" s="1">
@@ -2872,10 +2873,10 @@
       </c>
     </row>
     <row r="164" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="2" t="s">
         <v>154</v>
       </c>
       <c r="C164" s="1">
@@ -2883,10 +2884,10 @@
       </c>
     </row>
     <row r="165" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C165" s="1">
@@ -2894,10 +2895,10 @@
       </c>
     </row>
     <row r="166" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="3" t="s">
+      <c r="A166" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="2" t="s">
         <v>156</v>
       </c>
       <c r="C166" s="1">
@@ -2905,10 +2906,10 @@
       </c>
     </row>
     <row r="167" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B167" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C167" s="1">
@@ -2916,10 +2917,10 @@
       </c>
     </row>
     <row r="168" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B168" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C168" s="1">
@@ -2927,10 +2928,10 @@
       </c>
     </row>
     <row r="169" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B169" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C169" s="1">
@@ -2938,10 +2939,10 @@
       </c>
     </row>
     <row r="170" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="3" t="s">
+      <c r="A170" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B170" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C170" s="1">
@@ -2949,10 +2950,10 @@
       </c>
     </row>
     <row r="171" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B171" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C171" s="1">
@@ -2960,10 +2961,10 @@
       </c>
     </row>
     <row r="172" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="3" t="s">
+      <c r="A172" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B172" s="2" t="s">
         <v>162</v>
       </c>
       <c r="C172" s="1">
@@ -2971,10 +2972,10 @@
       </c>
     </row>
     <row r="173" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="3" t="s">
+      <c r="A173" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B173" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C173" s="1">
@@ -2982,10 +2983,10 @@
       </c>
     </row>
     <row r="174" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="3" t="s">
+      <c r="A174" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B174" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C174" s="1">
@@ -2993,10 +2994,10 @@
       </c>
     </row>
     <row r="175" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" s="2" t="s">
         <v>165</v>
       </c>
       <c r="C175" s="1">
@@ -3004,10 +3005,10 @@
       </c>
     </row>
     <row r="176" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="3" t="s">
+      <c r="A176" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B176" s="2" t="s">
         <v>166</v>
       </c>
       <c r="C176" s="1">
@@ -3015,10 +3016,10 @@
       </c>
     </row>
     <row r="177" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B177" s="2" t="s">
         <v>167</v>
       </c>
       <c r="C177" s="1">
@@ -3026,10 +3027,10 @@
       </c>
     </row>
     <row r="178" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="3" t="s">
+      <c r="A178" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B178" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C178" s="1">
@@ -3037,10 +3038,10 @@
       </c>
     </row>
     <row r="179" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="3" t="s">
+      <c r="A179" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B179" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C179" s="1">
@@ -3048,10 +3049,10 @@
       </c>
     </row>
     <row r="180" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="3" t="s">
+      <c r="A180" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B180" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C180" s="1">
@@ -3059,10 +3060,10 @@
       </c>
     </row>
     <row r="181" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="3" t="s">
+      <c r="A181" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B181" s="2" t="s">
         <v>171</v>
       </c>
       <c r="C181" s="1">
@@ -3070,10 +3071,10 @@
       </c>
     </row>
     <row r="182" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="3" t="s">
+      <c r="A182" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B182" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C182" s="1">
@@ -3081,10 +3082,10 @@
       </c>
     </row>
     <row r="183" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="3" t="s">
+      <c r="A183" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B183" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C183" s="1">
@@ -3092,10 +3093,10 @@
       </c>
     </row>
     <row r="184" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="3" t="s">
+      <c r="A184" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B184" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C184" s="1">
@@ -3103,10 +3104,10 @@
       </c>
     </row>
     <row r="185" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B185" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C185" s="1">
@@ -3114,10 +3115,10 @@
       </c>
     </row>
     <row r="186" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="3" t="s">
+      <c r="A186" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B186" s="2" t="s">
         <v>176</v>
       </c>
       <c r="C186" s="1">
@@ -3125,10 +3126,10 @@
       </c>
     </row>
     <row r="187" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="3" t="s">
+      <c r="A187" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B187" s="2" t="s">
         <v>177</v>
       </c>
       <c r="C187" s="1">
@@ -3136,10 +3137,10 @@
       </c>
     </row>
     <row r="188" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="3" t="s">
+      <c r="A188" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B188" s="2" t="s">
         <v>178</v>
       </c>
       <c r="C188" s="1">
@@ -3147,10 +3148,10 @@
       </c>
     </row>
     <row r="189" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="3" t="s">
+      <c r="A189" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B189" s="2" t="s">
         <v>179</v>
       </c>
       <c r="C189" s="1">
@@ -3158,10 +3159,10 @@
       </c>
     </row>
     <row r="190" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="3" t="s">
+      <c r="A190" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B190" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C190" s="1">
@@ -3169,10 +3170,10 @@
       </c>
     </row>
     <row r="191" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="3" t="s">
+      <c r="A191" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B191" s="2" t="s">
         <v>181</v>
       </c>
       <c r="C191" s="1">
@@ -3180,10 +3181,10 @@
       </c>
     </row>
     <row r="192" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="3" t="s">
+      <c r="A192" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B192" s="2" t="s">
         <v>182</v>
       </c>
       <c r="C192" s="1">
@@ -3191,10 +3192,10 @@
       </c>
     </row>
     <row r="193" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="3" t="s">
+      <c r="A193" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B193" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C193" s="1">
@@ -3202,10 +3203,10 @@
       </c>
     </row>
     <row r="194" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="3" t="s">
+      <c r="A194" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B194" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C194" s="1">
@@ -3213,10 +3214,10 @@
       </c>
     </row>
     <row r="195" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B195" s="2" t="s">
         <v>186</v>
       </c>
       <c r="C195" s="1">
@@ -3224,10 +3225,10 @@
       </c>
     </row>
     <row r="196" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="3" t="s">
+      <c r="A196" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B196" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C196" s="1">
@@ -3235,10 +3236,10 @@
       </c>
     </row>
     <row r="197" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="3" t="s">
+      <c r="A197" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B197" s="2" t="s">
         <v>188</v>
       </c>
       <c r="C197" s="1">
@@ -3246,10 +3247,10 @@
       </c>
     </row>
     <row r="198" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="3" t="s">
+      <c r="A198" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C198" s="1">
@@ -3257,10 +3258,10 @@
       </c>
     </row>
     <row r="199" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="3" t="s">
+      <c r="A199" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C199" s="1">
@@ -3268,10 +3269,10 @@
       </c>
     </row>
     <row r="200" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A200" s="3" t="s">
+      <c r="A200" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B200" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C200" s="1">
@@ -3279,10 +3280,10 @@
       </c>
     </row>
     <row r="201" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A201" s="3" t="s">
+      <c r="A201" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B201" s="2" t="s">
         <v>192</v>
       </c>
       <c r="C201" s="1">
@@ -3290,10 +3291,10 @@
       </c>
     </row>
     <row r="202" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="3" t="s">
+      <c r="A202" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B202" s="2" t="s">
         <v>193</v>
       </c>
       <c r="C202" s="1">
@@ -3301,10 +3302,10 @@
       </c>
     </row>
     <row r="203" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="3" t="s">
+      <c r="A203" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B203" s="2" t="s">
         <v>194</v>
       </c>
       <c r="C203" s="1">
@@ -3312,10 +3313,10 @@
       </c>
     </row>
     <row r="204" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="3" t="s">
+      <c r="A204" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B204" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C204" s="1">
@@ -3323,10 +3324,10 @@
       </c>
     </row>
     <row r="205" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A205" s="3" t="s">
+      <c r="A205" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B205" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C205" s="1">
@@ -3334,10 +3335,10 @@
       </c>
     </row>
     <row r="206" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="3" t="s">
+      <c r="A206" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B206" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C206" s="1">
@@ -3345,10 +3346,10 @@
       </c>
     </row>
     <row r="207" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="3" t="s">
+      <c r="A207" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B207" s="3" t="s">
+      <c r="B207" s="2" t="s">
         <v>198</v>
       </c>
       <c r="C207" s="1">
@@ -3356,10 +3357,10 @@
       </c>
     </row>
     <row r="208" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="3" t="s">
+      <c r="A208" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B208" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C208" s="1">
@@ -3367,10 +3368,10 @@
       </c>
     </row>
     <row r="209" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="3" t="s">
+      <c r="A209" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B209" s="3" t="s">
+      <c r="B209" s="2" t="s">
         <v>200</v>
       </c>
       <c r="C209" s="1">
@@ -3378,10 +3379,10 @@
       </c>
     </row>
     <row r="210" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A210" s="3" t="s">
+      <c r="A210" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B210" s="2" t="s">
         <v>201</v>
       </c>
       <c r="C210" s="1">
@@ -3389,10 +3390,10 @@
       </c>
     </row>
     <row r="211" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A211" s="3" t="s">
+      <c r="A211" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="B211" s="2" t="s">
         <v>201</v>
       </c>
       <c r="C211" s="1">
@@ -3400,10 +3401,10 @@
       </c>
     </row>
     <row r="212" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="3" t="s">
+      <c r="A212" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B212" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C212" s="1">
@@ -3411,10 +3412,10 @@
       </c>
     </row>
     <row r="213" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A213" s="3" t="s">
+      <c r="A213" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="B213" s="2" t="s">
         <v>204</v>
       </c>
       <c r="C213" s="1">
@@ -3422,10 +3423,10 @@
       </c>
     </row>
     <row r="214" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A214" s="3" t="s">
+      <c r="A214" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B214" s="3" t="s">
+      <c r="B214" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C214" s="1">
@@ -3433,10 +3434,10 @@
       </c>
     </row>
     <row r="215" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="3" t="s">
+      <c r="A215" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="B215" s="2" t="s">
         <v>206</v>
       </c>
       <c r="C215" s="1">
@@ -3444,10 +3445,10 @@
       </c>
     </row>
     <row r="216" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A216" s="3" t="s">
+      <c r="A216" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="B216" s="2" t="s">
         <v>206</v>
       </c>
       <c r="C216" s="1">
@@ -3455,10 +3456,10 @@
       </c>
     </row>
     <row r="217" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A217" s="3" t="s">
+      <c r="A217" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="B217" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C217" s="1">
@@ -3466,10 +3467,10 @@
       </c>
     </row>
     <row r="218" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A218" s="3" t="s">
+      <c r="A218" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B218" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C218" s="1">
@@ -3477,10 +3478,10 @@
       </c>
     </row>
     <row r="219" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="3" t="s">
+      <c r="A219" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B219" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C219" s="1">
@@ -3488,10 +3489,10 @@
       </c>
     </row>
     <row r="220" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="3" t="s">
+      <c r="A220" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B220" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C220" s="1">
@@ -3499,10 +3500,10 @@
       </c>
     </row>
     <row r="221" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A221" s="3" t="s">
+      <c r="A221" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B221" s="3" t="s">
+      <c r="B221" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C221" s="1">
@@ -3510,10 +3511,10 @@
       </c>
     </row>
     <row r="222" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="3" t="s">
+      <c r="A222" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B222" s="3" t="s">
+      <c r="B222" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C222" s="1">
@@ -3521,10 +3522,10 @@
       </c>
     </row>
     <row r="223" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="3" t="s">
+      <c r="A223" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B223" s="2" t="s">
         <v>207</v>
       </c>
       <c r="C223" s="1">
@@ -3532,10 +3533,10 @@
       </c>
     </row>
     <row r="224" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A224" s="3" t="s">
+      <c r="A224" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B224" s="3" t="s">
+      <c r="B224" s="2" t="s">
         <v>207</v>
       </c>
       <c r="C224" s="1">
@@ -3543,10 +3544,10 @@
       </c>
     </row>
     <row r="225" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B225" s="3" t="s">
+      <c r="B225" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C225" s="1">
@@ -3554,10 +3555,10 @@
       </c>
     </row>
     <row r="226" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A226" s="3" t="s">
+      <c r="A226" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="B226" s="2" t="s">
         <v>210</v>
       </c>
       <c r="C226" s="1">
@@ -3565,10 +3566,10 @@
       </c>
     </row>
     <row r="227" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A227" s="3" t="s">
+      <c r="A227" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B227" s="3" t="s">
+      <c r="B227" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C227" s="1">
@@ -3576,10 +3577,10 @@
       </c>
     </row>
     <row r="228" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A228" s="3" t="s">
+      <c r="A228" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="B228" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C228" s="1">
@@ -3587,10 +3588,10 @@
       </c>
     </row>
     <row r="229" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="3" t="s">
+      <c r="A229" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="B229" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C229" s="1">
@@ -3598,10 +3599,10 @@
       </c>
     </row>
     <row r="230" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A230" s="3" t="s">
+      <c r="A230" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="B230" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C230" s="1">
@@ -3609,10 +3610,10 @@
       </c>
     </row>
     <row r="231" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="3" t="s">
+      <c r="A231" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="B231" s="2" t="s">
         <v>215</v>
       </c>
       <c r="C231" s="1">
@@ -3620,10 +3621,10 @@
       </c>
     </row>
     <row r="232" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A232" s="3" t="s">
+      <c r="A232" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="B232" s="2" t="s">
         <v>215</v>
       </c>
       <c r="C232" s="1">
@@ -3631,10 +3632,10 @@
       </c>
     </row>
     <row r="233" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A233" s="3" t="s">
+      <c r="A233" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="B233" s="2" t="s">
         <v>217</v>
       </c>
       <c r="C233" s="1">
@@ -3642,10 +3643,10 @@
       </c>
     </row>
     <row r="234" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A234" s="3" t="s">
+      <c r="A234" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B234" s="3" t="s">
+      <c r="B234" s="2" t="s">
         <v>215</v>
       </c>
       <c r="C234" s="1">
@@ -3653,10 +3654,10 @@
       </c>
     </row>
     <row r="235" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A235" s="3" t="s">
+      <c r="A235" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B235" s="3" t="s">
+      <c r="B235" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C235" s="1">
@@ -3664,10 +3665,10 @@
       </c>
     </row>
     <row r="236" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A236" s="3" t="s">
+      <c r="A236" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B236" s="3" t="s">
+      <c r="B236" s="2" t="s">
         <v>217</v>
       </c>
       <c r="C236" s="1">
@@ -3675,10 +3676,10 @@
       </c>
     </row>
     <row r="237" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A237" s="3" t="s">
+      <c r="A237" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B237" s="3" t="s">
+      <c r="B237" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C237" s="1">
@@ -3686,2517 +3687,15 @@
       </c>
     </row>
     <row r="238" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A238" s="3" t="s">
+      <c r="A238" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="B238" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C238" s="2">
+      <c r="C238" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C239" s="2"/>
-    </row>
-    <row r="240" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C240" s="2"/>
-    </row>
-    <row r="241" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C241" s="2"/>
-    </row>
-    <row r="242" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C242" s="2"/>
-    </row>
-    <row r="243" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C243" s="2"/>
-    </row>
-    <row r="244" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C244" s="2"/>
-    </row>
-    <row r="245" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C245" s="2"/>
-    </row>
-    <row r="246" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C246" s="2"/>
-    </row>
-    <row r="247" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C247" s="2"/>
-    </row>
-    <row r="248" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C248" s="2"/>
-    </row>
-    <row r="249" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C249" s="2"/>
-    </row>
-    <row r="250" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C250" s="2"/>
-    </row>
-    <row r="251" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C251" s="2"/>
-    </row>
-    <row r="252" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C252" s="2"/>
-    </row>
-    <row r="253" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C253" s="2"/>
-    </row>
-    <row r="254" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C254" s="2"/>
-    </row>
-    <row r="255" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C255" s="2"/>
-    </row>
-    <row r="256" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C256" s="2"/>
-    </row>
-    <row r="257" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C257" s="2"/>
-    </row>
-    <row r="258" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C258" s="2"/>
-    </row>
-    <row r="259" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C259" s="2"/>
-    </row>
-    <row r="260" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C260" s="2"/>
-    </row>
-    <row r="261" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C261" s="2"/>
-    </row>
-    <row r="262" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C262" s="2"/>
-    </row>
-    <row r="263" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C263" s="2"/>
-    </row>
-    <row r="264" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C264" s="2"/>
-    </row>
-    <row r="265" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C265" s="2"/>
-    </row>
-    <row r="266" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C266" s="2"/>
-    </row>
-    <row r="267" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C267" s="2"/>
-    </row>
-    <row r="268" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C268" s="2"/>
-    </row>
-    <row r="269" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C269" s="2"/>
-    </row>
-    <row r="270" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C270" s="2"/>
-    </row>
-    <row r="271" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C271" s="2"/>
-    </row>
-    <row r="272" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C272" s="2"/>
-    </row>
-    <row r="273" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C273" s="2"/>
-    </row>
-    <row r="274" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C274" s="2"/>
-    </row>
-    <row r="275" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C275" s="2"/>
-    </row>
-    <row r="276" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C276" s="2"/>
-    </row>
-    <row r="277" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C277" s="2"/>
-    </row>
-    <row r="278" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C278" s="2"/>
-    </row>
-    <row r="279" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C279" s="2"/>
-    </row>
-    <row r="280" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C280" s="2"/>
-    </row>
-    <row r="281" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C281" s="2"/>
-    </row>
-    <row r="282" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C282" s="2"/>
-    </row>
-    <row r="283" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C283" s="2"/>
-    </row>
-    <row r="284" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C284" s="2"/>
-    </row>
-    <row r="285" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C285" s="2"/>
-    </row>
-    <row r="286" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C286" s="2"/>
-    </row>
-    <row r="287" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C287" s="2"/>
-    </row>
-    <row r="288" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C288" s="2"/>
-    </row>
-    <row r="289" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C289" s="2"/>
-    </row>
-    <row r="290" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C290" s="2"/>
-    </row>
-    <row r="291" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C291" s="2"/>
-    </row>
-    <row r="292" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C292" s="2"/>
-    </row>
-    <row r="293" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C293" s="2"/>
-    </row>
-    <row r="294" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C294" s="2"/>
-    </row>
-    <row r="295" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C295" s="2"/>
-    </row>
-    <row r="296" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C296" s="2"/>
-    </row>
-    <row r="297" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C297" s="2"/>
-    </row>
-    <row r="298" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C298" s="2"/>
-    </row>
-    <row r="299" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C299" s="2"/>
-    </row>
-    <row r="300" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C300" s="2"/>
-    </row>
-    <row r="301" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C301" s="2"/>
-    </row>
-    <row r="302" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C302" s="2"/>
-    </row>
-    <row r="303" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C303" s="2"/>
-    </row>
-    <row r="304" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C304" s="2"/>
-    </row>
-    <row r="305" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C305" s="2"/>
-    </row>
-    <row r="306" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C306" s="2"/>
-    </row>
-    <row r="307" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C307" s="2"/>
-    </row>
-    <row r="308" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C308" s="2"/>
-    </row>
-    <row r="309" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C309" s="2"/>
-    </row>
-    <row r="310" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C310" s="2"/>
-    </row>
-    <row r="311" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C311" s="2"/>
-    </row>
-    <row r="312" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C312" s="2"/>
-    </row>
-    <row r="313" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C313" s="2"/>
-    </row>
-    <row r="314" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C314" s="2"/>
-    </row>
-    <row r="315" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C315" s="2"/>
-    </row>
-    <row r="316" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C316" s="2"/>
-    </row>
-    <row r="317" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C317" s="2"/>
-    </row>
-    <row r="318" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C318" s="2"/>
-    </row>
-    <row r="319" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C319" s="2"/>
-    </row>
-    <row r="320" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C320" s="2"/>
-    </row>
-    <row r="321" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C321" s="2"/>
-    </row>
-    <row r="322" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C322" s="2"/>
-    </row>
-    <row r="323" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C323" s="2"/>
-    </row>
-    <row r="324" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C324" s="2"/>
-    </row>
-    <row r="325" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C325" s="2"/>
-    </row>
-    <row r="326" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C326" s="2"/>
-    </row>
-    <row r="327" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C327" s="2"/>
-    </row>
-    <row r="328" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C328" s="2"/>
-    </row>
-    <row r="329" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C329" s="2"/>
-    </row>
-    <row r="330" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C330" s="2"/>
-    </row>
-    <row r="331" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C331" s="2"/>
-    </row>
-    <row r="332" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C332" s="2"/>
-    </row>
-    <row r="333" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C333" s="2"/>
-    </row>
-    <row r="334" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C334" s="2"/>
-    </row>
-    <row r="335" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C335" s="2"/>
-    </row>
-    <row r="336" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C336" s="2"/>
-    </row>
-    <row r="337" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C337" s="2"/>
-    </row>
-    <row r="338" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C338" s="2"/>
-    </row>
-    <row r="339" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C339" s="2"/>
-    </row>
-    <row r="340" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C340" s="2"/>
-    </row>
-    <row r="341" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C341" s="2"/>
-    </row>
-    <row r="342" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C342" s="2"/>
-    </row>
-    <row r="343" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C343" s="2"/>
-    </row>
-    <row r="344" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C344" s="2"/>
-    </row>
-    <row r="345" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C345" s="2"/>
-    </row>
-    <row r="346" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C346" s="2"/>
-    </row>
-    <row r="347" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C347" s="2"/>
-    </row>
-    <row r="348" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C348" s="2"/>
-    </row>
-    <row r="349" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C349" s="2"/>
-    </row>
-    <row r="350" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C350" s="2"/>
-    </row>
-    <row r="351" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C351" s="2"/>
-    </row>
-    <row r="352" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C352" s="2"/>
-    </row>
-    <row r="353" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C353" s="2"/>
-    </row>
-    <row r="354" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C354" s="2"/>
-    </row>
-    <row r="355" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C355" s="2"/>
-    </row>
-    <row r="356" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C356" s="2"/>
-    </row>
-    <row r="357" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C357" s="2"/>
-    </row>
-    <row r="358" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C358" s="2"/>
-    </row>
-    <row r="359" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C359" s="2"/>
-    </row>
-    <row r="360" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C360" s="2"/>
-    </row>
-    <row r="361" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C361" s="2"/>
-    </row>
-    <row r="362" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C362" s="2"/>
-    </row>
-    <row r="363" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C363" s="2"/>
-    </row>
-    <row r="364" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C364" s="2"/>
-    </row>
-    <row r="365" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C365" s="2"/>
-    </row>
-    <row r="366" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C366" s="2"/>
-    </row>
-    <row r="367" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C367" s="2"/>
-    </row>
-    <row r="368" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C368" s="2"/>
-    </row>
-    <row r="369" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C369" s="2"/>
-    </row>
-    <row r="370" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C370" s="2"/>
-    </row>
-    <row r="371" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C371" s="2"/>
-    </row>
-    <row r="372" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C372" s="2"/>
-    </row>
-    <row r="373" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C373" s="2"/>
-    </row>
-    <row r="374" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C374" s="2"/>
-    </row>
-    <row r="375" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C375" s="2"/>
-    </row>
-    <row r="376" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C376" s="2"/>
-    </row>
-    <row r="377" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C377" s="2"/>
-    </row>
-    <row r="378" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C378" s="2"/>
-    </row>
-    <row r="379" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C379" s="2"/>
-    </row>
-    <row r="380" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C380" s="2"/>
-    </row>
-    <row r="381" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C381" s="2"/>
-    </row>
-    <row r="382" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C382" s="2"/>
-    </row>
-    <row r="383" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C383" s="2"/>
-    </row>
-    <row r="384" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C384" s="2"/>
-    </row>
-    <row r="385" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C385" s="2"/>
-    </row>
-    <row r="386" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C386" s="2"/>
-    </row>
-    <row r="387" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C387" s="2"/>
-    </row>
-    <row r="388" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C388" s="2"/>
-    </row>
-    <row r="389" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C389" s="2"/>
-    </row>
-    <row r="390" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C390" s="2"/>
-    </row>
-    <row r="391" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C391" s="2"/>
-    </row>
-    <row r="392" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C392" s="2"/>
-    </row>
-    <row r="393" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C393" s="2"/>
-    </row>
-    <row r="394" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C394" s="2"/>
-    </row>
-    <row r="395" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C395" s="2"/>
-    </row>
-    <row r="396" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C396" s="2"/>
-    </row>
-    <row r="397" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C397" s="2"/>
-    </row>
-    <row r="398" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C398" s="2"/>
-    </row>
-    <row r="399" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C399" s="2"/>
-    </row>
-    <row r="400" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C400" s="2"/>
-    </row>
-    <row r="401" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C401" s="2"/>
-    </row>
-    <row r="402" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C402" s="2"/>
-    </row>
-    <row r="403" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C403" s="2"/>
-    </row>
-    <row r="404" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C404" s="2"/>
-    </row>
-    <row r="405" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C405" s="2"/>
-    </row>
-    <row r="406" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C406" s="2"/>
-    </row>
-    <row r="407" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C407" s="2"/>
-    </row>
-    <row r="408" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C408" s="2"/>
-    </row>
-    <row r="409" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C409" s="2"/>
-    </row>
-    <row r="410" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C410" s="2"/>
-    </row>
-    <row r="411" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C411" s="2"/>
-    </row>
-    <row r="412" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C412" s="2"/>
-    </row>
-    <row r="413" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C413" s="2"/>
-    </row>
-    <row r="414" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C414" s="2"/>
-    </row>
-    <row r="415" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C415" s="2"/>
-    </row>
-    <row r="416" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C416" s="2"/>
-    </row>
-    <row r="417" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C417" s="2"/>
-    </row>
-    <row r="418" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C418" s="2"/>
-    </row>
-    <row r="419" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C419" s="2"/>
-    </row>
-    <row r="420" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C420" s="2"/>
-    </row>
-    <row r="421" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C421" s="2"/>
-    </row>
-    <row r="422" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C422" s="2"/>
-    </row>
-    <row r="423" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C423" s="2"/>
-    </row>
-    <row r="424" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C424" s="2"/>
-    </row>
-    <row r="425" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C425" s="2"/>
-    </row>
-    <row r="426" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C426" s="2"/>
-    </row>
-    <row r="427" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C427" s="2"/>
-    </row>
-    <row r="428" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C428" s="2"/>
-    </row>
-    <row r="429" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C429" s="2"/>
-    </row>
-    <row r="430" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C430" s="2"/>
-    </row>
-    <row r="431" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C431" s="2"/>
-    </row>
-    <row r="432" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C432" s="2"/>
-    </row>
-    <row r="433" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C433" s="2"/>
-    </row>
-    <row r="434" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C434" s="2"/>
-    </row>
-    <row r="435" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C435" s="2"/>
-    </row>
-    <row r="436" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C436" s="2"/>
-    </row>
-    <row r="437" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C437" s="2"/>
-    </row>
-    <row r="438" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C438" s="2"/>
-    </row>
-    <row r="439" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C439" s="2"/>
-    </row>
-    <row r="440" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C440" s="2"/>
-    </row>
-    <row r="441" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C441" s="2"/>
-    </row>
-    <row r="442" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C442" s="2"/>
-    </row>
-    <row r="443" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C443" s="2"/>
-    </row>
-    <row r="444" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C444" s="2"/>
-    </row>
-    <row r="445" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C445" s="2"/>
-    </row>
-    <row r="446" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C446" s="2"/>
-    </row>
-    <row r="447" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C447" s="2"/>
-    </row>
-    <row r="448" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C448" s="2"/>
-    </row>
-    <row r="449" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C449" s="2"/>
-    </row>
-    <row r="450" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C450" s="2"/>
-    </row>
-    <row r="451" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C451" s="2"/>
-    </row>
-    <row r="452" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C452" s="2"/>
-    </row>
-    <row r="453" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C453" s="2"/>
-    </row>
-    <row r="454" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C454" s="2"/>
-    </row>
-    <row r="455" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C455" s="2"/>
-    </row>
-    <row r="456" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C456" s="2"/>
-    </row>
-    <row r="457" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C457" s="2"/>
-    </row>
-    <row r="458" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C458" s="2"/>
-    </row>
-    <row r="459" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C459" s="2"/>
-    </row>
-    <row r="460" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C460" s="2"/>
-    </row>
-    <row r="461" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C461" s="2"/>
-    </row>
-    <row r="462" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C462" s="2"/>
-    </row>
-    <row r="463" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C463" s="2"/>
-    </row>
-    <row r="464" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C464" s="2"/>
-    </row>
-    <row r="465" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C465" s="2"/>
-    </row>
-    <row r="466" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C466" s="2"/>
-    </row>
-    <row r="467" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C467" s="2"/>
-    </row>
-    <row r="468" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C468" s="2"/>
-    </row>
-    <row r="469" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C469" s="2"/>
-    </row>
-    <row r="470" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C470" s="2"/>
-    </row>
-    <row r="471" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C471" s="2"/>
-    </row>
-    <row r="472" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C472" s="2"/>
-    </row>
-    <row r="473" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C473" s="2"/>
-    </row>
-    <row r="474" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C474" s="2"/>
-    </row>
-    <row r="475" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C475" s="2"/>
-    </row>
-    <row r="476" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C476" s="2"/>
-    </row>
-    <row r="477" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C477" s="2"/>
-    </row>
-    <row r="478" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C478" s="2"/>
-    </row>
-    <row r="479" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C479" s="2"/>
-    </row>
-    <row r="480" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C480" s="2"/>
-    </row>
-    <row r="481" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C481" s="2"/>
-    </row>
-    <row r="482" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C482" s="2"/>
-    </row>
-    <row r="483" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C483" s="2"/>
-    </row>
-    <row r="484" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C484" s="2"/>
-    </row>
-    <row r="485" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C485" s="2"/>
-    </row>
-    <row r="486" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C486" s="2"/>
-    </row>
-    <row r="487" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C487" s="2"/>
-    </row>
-    <row r="488" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C488" s="2"/>
-    </row>
-    <row r="489" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C489" s="2"/>
-    </row>
-    <row r="490" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C490" s="2"/>
-    </row>
-    <row r="491" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C491" s="2"/>
-    </row>
-    <row r="492" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C492" s="2"/>
-    </row>
-    <row r="493" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C493" s="2"/>
-    </row>
-    <row r="494" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C494" s="2"/>
-    </row>
-    <row r="495" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C495" s="2"/>
-    </row>
-    <row r="496" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C496" s="2"/>
-    </row>
-    <row r="497" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C497" s="2"/>
-    </row>
-    <row r="498" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C498" s="2"/>
-    </row>
-    <row r="499" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C499" s="2"/>
-    </row>
-    <row r="500" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C500" s="2"/>
-    </row>
-    <row r="501" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C501" s="2"/>
-    </row>
-    <row r="502" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C502" s="2"/>
-    </row>
-    <row r="503" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C503" s="2"/>
-    </row>
-    <row r="504" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C504" s="2"/>
-    </row>
-    <row r="505" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C505" s="2"/>
-    </row>
-    <row r="506" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C506" s="2"/>
-    </row>
-    <row r="507" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C507" s="2"/>
-    </row>
-    <row r="508" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C508" s="2"/>
-    </row>
-    <row r="509" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C509" s="2"/>
-    </row>
-    <row r="510" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C510" s="2"/>
-    </row>
-    <row r="511" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C511" s="2"/>
-    </row>
-    <row r="512" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C512" s="2"/>
-    </row>
-    <row r="513" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C513" s="2"/>
-    </row>
-    <row r="514" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C514" s="2"/>
-    </row>
-    <row r="515" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C515" s="2"/>
-    </row>
-    <row r="516" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C516" s="2"/>
-    </row>
-    <row r="517" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C517" s="2"/>
-    </row>
-    <row r="518" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C518" s="2"/>
-    </row>
-    <row r="519" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C519" s="2"/>
-    </row>
-    <row r="520" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C520" s="2"/>
-    </row>
-    <row r="521" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C521" s="2"/>
-    </row>
-    <row r="522" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C522" s="2"/>
-    </row>
-    <row r="523" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C523" s="2"/>
-    </row>
-    <row r="524" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C524" s="2"/>
-    </row>
-    <row r="525" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C525" s="2"/>
-    </row>
-    <row r="526" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C526" s="2"/>
-    </row>
-    <row r="527" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C527" s="2"/>
-    </row>
-    <row r="528" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C528" s="2"/>
-    </row>
-    <row r="529" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C529" s="2"/>
-    </row>
-    <row r="530" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C530" s="2"/>
-    </row>
-    <row r="531" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C531" s="2"/>
-    </row>
-    <row r="532" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C532" s="2"/>
-    </row>
-    <row r="533" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C533" s="2"/>
-    </row>
-    <row r="534" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C534" s="2"/>
-    </row>
-    <row r="535" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C535" s="2"/>
-    </row>
-    <row r="536" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C536" s="2"/>
-    </row>
-    <row r="537" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C537" s="2"/>
-    </row>
-    <row r="538" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C538" s="2"/>
-    </row>
-    <row r="539" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C539" s="2"/>
-    </row>
-    <row r="540" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C540" s="2"/>
-    </row>
-    <row r="541" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C541" s="2"/>
-    </row>
-    <row r="542" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C542" s="2"/>
-    </row>
-    <row r="543" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C543" s="2"/>
-    </row>
-    <row r="544" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C544" s="2"/>
-    </row>
-    <row r="545" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C545" s="2"/>
-    </row>
-    <row r="546" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C546" s="2"/>
-    </row>
-    <row r="547" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C547" s="2"/>
-    </row>
-    <row r="548" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C548" s="2"/>
-    </row>
-    <row r="549" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C549" s="2"/>
-    </row>
-    <row r="550" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C550" s="2"/>
-    </row>
-    <row r="551" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C551" s="2"/>
-    </row>
-    <row r="552" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C552" s="2"/>
-    </row>
-    <row r="553" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C553" s="2"/>
-    </row>
-    <row r="554" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C554" s="2"/>
-    </row>
-    <row r="555" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C555" s="2"/>
-    </row>
-    <row r="556" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C556" s="2"/>
-    </row>
-    <row r="557" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C557" s="2"/>
-    </row>
-    <row r="558" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C558" s="2"/>
-    </row>
-    <row r="559" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C559" s="2"/>
-    </row>
-    <row r="560" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C560" s="2"/>
-    </row>
-    <row r="561" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C561" s="2"/>
-    </row>
-    <row r="562" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C562" s="2"/>
-    </row>
-    <row r="563" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C563" s="2"/>
-    </row>
-    <row r="564" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C564" s="2"/>
-    </row>
-    <row r="565" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C565" s="2"/>
-    </row>
-    <row r="566" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C566" s="2"/>
-    </row>
-    <row r="567" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C567" s="2"/>
-    </row>
-    <row r="568" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C568" s="2"/>
-    </row>
-    <row r="569" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C569" s="2"/>
-    </row>
-    <row r="570" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C570" s="2"/>
-    </row>
-    <row r="571" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C571" s="2"/>
-    </row>
-    <row r="572" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C572" s="2"/>
-    </row>
-    <row r="573" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C573" s="2"/>
-    </row>
-    <row r="574" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C574" s="2"/>
-    </row>
-    <row r="575" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C575" s="2"/>
-    </row>
-    <row r="576" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C576" s="2"/>
-    </row>
-    <row r="577" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C577" s="2"/>
-    </row>
-    <row r="578" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C578" s="2"/>
-    </row>
-    <row r="579" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C579" s="2"/>
-    </row>
-    <row r="580" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C580" s="2"/>
-    </row>
-    <row r="581" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C581" s="2"/>
-    </row>
-    <row r="582" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C582" s="2"/>
-    </row>
-    <row r="583" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C583" s="2"/>
-    </row>
-    <row r="584" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C584" s="2"/>
-    </row>
-    <row r="585" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C585" s="2"/>
-    </row>
-    <row r="586" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C586" s="2"/>
-    </row>
-    <row r="587" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C587" s="2"/>
-    </row>
-    <row r="588" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C588" s="2"/>
-    </row>
-    <row r="589" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C589" s="2"/>
-    </row>
-    <row r="590" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C590" s="2"/>
-    </row>
-    <row r="591" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C591" s="2"/>
-    </row>
-    <row r="592" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C592" s="2"/>
-    </row>
-    <row r="593" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C593" s="2"/>
-    </row>
-    <row r="594" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C594" s="2"/>
-    </row>
-    <row r="595" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C595" s="2"/>
-    </row>
-    <row r="596" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C596" s="2"/>
-    </row>
-    <row r="597" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C597" s="2"/>
-    </row>
-    <row r="598" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C598" s="2"/>
-    </row>
-    <row r="599" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C599" s="2"/>
-    </row>
-    <row r="600" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C600" s="2"/>
-    </row>
-    <row r="601" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C601" s="2"/>
-    </row>
-    <row r="602" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C602" s="2"/>
-    </row>
-    <row r="603" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C603" s="2"/>
-    </row>
-    <row r="604" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C604" s="2"/>
-    </row>
-    <row r="605" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C605" s="2"/>
-    </row>
-    <row r="606" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C606" s="2"/>
-    </row>
-    <row r="607" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C607" s="2"/>
-    </row>
-    <row r="608" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C608" s="2"/>
-    </row>
-    <row r="609" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C609" s="2"/>
-    </row>
-    <row r="610" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C610" s="2"/>
-    </row>
-    <row r="611" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C611" s="2"/>
-    </row>
-    <row r="612" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C612" s="2"/>
-    </row>
-    <row r="613" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C613" s="2"/>
-    </row>
-    <row r="614" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C614" s="2"/>
-    </row>
-    <row r="615" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C615" s="2"/>
-    </row>
-    <row r="616" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C616" s="2"/>
-    </row>
-    <row r="617" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C617" s="2"/>
-    </row>
-    <row r="618" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C618" s="2"/>
-    </row>
-    <row r="619" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C619" s="2"/>
-    </row>
-    <row r="620" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C620" s="2"/>
-    </row>
-    <row r="621" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C621" s="2"/>
-    </row>
-    <row r="622" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C622" s="2"/>
-    </row>
-    <row r="623" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C623" s="2"/>
-    </row>
-    <row r="624" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C624" s="2"/>
-    </row>
-    <row r="625" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C625" s="2"/>
-    </row>
-    <row r="626" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C626" s="2"/>
-    </row>
-    <row r="627" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C627" s="2"/>
-    </row>
-    <row r="628" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C628" s="2"/>
-    </row>
-    <row r="629" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C629" s="2"/>
-    </row>
-    <row r="630" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C630" s="2"/>
-    </row>
-    <row r="631" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C631" s="2"/>
-    </row>
-    <row r="632" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C632" s="2"/>
-    </row>
-    <row r="633" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C633" s="2"/>
-    </row>
-    <row r="634" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C634" s="2"/>
-    </row>
-    <row r="635" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C635" s="2"/>
-    </row>
-    <row r="636" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C636" s="2"/>
-    </row>
-    <row r="637" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C637" s="2"/>
-    </row>
-    <row r="638" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C638" s="2"/>
-    </row>
-    <row r="639" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C639" s="2"/>
-    </row>
-    <row r="640" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C640" s="2"/>
-    </row>
-    <row r="641" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C641" s="2"/>
-    </row>
-    <row r="642" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C642" s="2"/>
-    </row>
-    <row r="643" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C643" s="2"/>
-    </row>
-    <row r="644" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C644" s="2"/>
-    </row>
-    <row r="645" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C645" s="2"/>
-    </row>
-    <row r="646" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C646" s="2"/>
-    </row>
-    <row r="647" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C647" s="2"/>
-    </row>
-    <row r="648" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C648" s="2"/>
-    </row>
-    <row r="649" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C649" s="2"/>
-    </row>
-    <row r="650" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C650" s="2"/>
-    </row>
-    <row r="651" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C651" s="2"/>
-    </row>
-    <row r="652" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C652" s="2"/>
-    </row>
-    <row r="653" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C653" s="2"/>
-    </row>
-    <row r="654" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C654" s="2"/>
-    </row>
-    <row r="655" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C655" s="2"/>
-    </row>
-    <row r="656" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C656" s="2"/>
-    </row>
-    <row r="657" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C657" s="2"/>
-    </row>
-    <row r="658" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C658" s="2"/>
-    </row>
-    <row r="659" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C659" s="2"/>
-    </row>
-    <row r="660" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C660" s="2"/>
-    </row>
-    <row r="661" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C661" s="2"/>
-    </row>
-    <row r="662" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C662" s="2"/>
-    </row>
-    <row r="663" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C663" s="2"/>
-    </row>
-    <row r="664" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C664" s="2"/>
-    </row>
-    <row r="665" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C665" s="2"/>
-    </row>
-    <row r="666" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C666" s="2"/>
-    </row>
-    <row r="667" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C667" s="2"/>
-    </row>
-    <row r="668" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C668" s="2"/>
-    </row>
-    <row r="669" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C669" s="2"/>
-    </row>
-    <row r="670" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C670" s="2"/>
-    </row>
-    <row r="671" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C671" s="2"/>
-    </row>
-    <row r="672" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C672" s="2"/>
-    </row>
-    <row r="673" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C673" s="2"/>
-    </row>
-    <row r="674" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C674" s="2"/>
-    </row>
-    <row r="675" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C675" s="2"/>
-    </row>
-    <row r="676" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C676" s="2"/>
-    </row>
-    <row r="677" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C677" s="2"/>
-    </row>
-    <row r="678" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C678" s="2"/>
-    </row>
-    <row r="679" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C679" s="2"/>
-    </row>
-    <row r="680" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C680" s="2"/>
-    </row>
-    <row r="681" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C681" s="2"/>
-    </row>
-    <row r="682" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C682" s="2"/>
-    </row>
-    <row r="683" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C683" s="2"/>
-    </row>
-    <row r="684" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C684" s="2"/>
-    </row>
-    <row r="685" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C685" s="2"/>
-    </row>
-    <row r="686" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C686" s="2"/>
-    </row>
-    <row r="687" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C687" s="2"/>
-    </row>
-    <row r="688" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C688" s="2"/>
-    </row>
-    <row r="689" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C689" s="2"/>
-    </row>
-    <row r="690" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C690" s="2"/>
-    </row>
-    <row r="691" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C691" s="2"/>
-    </row>
-    <row r="692" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C692" s="2"/>
-    </row>
-    <row r="693" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C693" s="2"/>
-    </row>
-    <row r="694" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C694" s="2"/>
-    </row>
-    <row r="695" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C695" s="2"/>
-    </row>
-    <row r="696" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C696" s="2"/>
-    </row>
-    <row r="697" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C697" s="2"/>
-    </row>
-    <row r="698" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C698" s="2"/>
-    </row>
-    <row r="699" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C699" s="2"/>
-    </row>
-    <row r="700" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C700" s="2"/>
-    </row>
-    <row r="701" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C701" s="2"/>
-    </row>
-    <row r="702" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C702" s="2"/>
-    </row>
-    <row r="703" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C703" s="2"/>
-    </row>
-    <row r="704" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C704" s="2"/>
-    </row>
-    <row r="705" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C705" s="2"/>
-    </row>
-    <row r="706" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C706" s="2"/>
-    </row>
-    <row r="707" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C707" s="2"/>
-    </row>
-    <row r="708" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C708" s="2"/>
-    </row>
-    <row r="709" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C709" s="2"/>
-    </row>
-    <row r="710" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C710" s="2"/>
-    </row>
-    <row r="711" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C711" s="2"/>
-    </row>
-    <row r="712" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C712" s="2"/>
-    </row>
-    <row r="713" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C713" s="2"/>
-    </row>
-    <row r="714" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C714" s="2"/>
-    </row>
-    <row r="715" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C715" s="2"/>
-    </row>
-    <row r="716" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C716" s="2"/>
-    </row>
-    <row r="717" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C717" s="2"/>
-    </row>
-    <row r="718" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C718" s="2"/>
-    </row>
-    <row r="719" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C719" s="2"/>
-    </row>
-    <row r="720" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C720" s="2"/>
-    </row>
-    <row r="721" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C721" s="2"/>
-    </row>
-    <row r="722" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C722" s="2"/>
-    </row>
-    <row r="723" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C723" s="2"/>
-    </row>
-    <row r="724" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C724" s="2"/>
-    </row>
-    <row r="725" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C725" s="2"/>
-    </row>
-    <row r="726" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C726" s="2"/>
-    </row>
-    <row r="727" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C727" s="2"/>
-    </row>
-    <row r="728" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C728" s="2"/>
-    </row>
-    <row r="729" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C729" s="2"/>
-    </row>
-    <row r="730" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C730" s="2"/>
-    </row>
-    <row r="731" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C731" s="2"/>
-    </row>
-    <row r="732" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C732" s="2"/>
-    </row>
-    <row r="733" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C733" s="2"/>
-    </row>
-    <row r="734" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C734" s="2"/>
-    </row>
-    <row r="735" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C735" s="2"/>
-    </row>
-    <row r="736" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C736" s="2"/>
-    </row>
-    <row r="737" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C737" s="2"/>
-    </row>
-    <row r="738" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C738" s="2"/>
-    </row>
-    <row r="739" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C739" s="2"/>
-    </row>
-    <row r="740" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C740" s="2"/>
-    </row>
-    <row r="741" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C741" s="2"/>
-    </row>
-    <row r="742" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C742" s="2"/>
-    </row>
-    <row r="743" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C743" s="2"/>
-    </row>
-    <row r="744" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C744" s="2"/>
-    </row>
-    <row r="745" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C745" s="2"/>
-    </row>
-    <row r="746" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C746" s="2"/>
-    </row>
-    <row r="747" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C747" s="2"/>
-    </row>
-    <row r="748" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C748" s="2"/>
-    </row>
-    <row r="749" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C749" s="2"/>
-    </row>
-    <row r="750" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C750" s="2"/>
-    </row>
-    <row r="751" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C751" s="2"/>
-    </row>
-    <row r="752" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C752" s="2"/>
-    </row>
-    <row r="753" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C753" s="2"/>
-    </row>
-    <row r="754" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C754" s="2"/>
-    </row>
-    <row r="755" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C755" s="2"/>
-    </row>
-    <row r="756" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C756" s="2"/>
-    </row>
-    <row r="757" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C757" s="2"/>
-    </row>
-    <row r="758" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C758" s="2"/>
-    </row>
-    <row r="759" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C759" s="2"/>
-    </row>
-    <row r="760" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C760" s="2"/>
-    </row>
-    <row r="761" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C761" s="2"/>
-    </row>
-    <row r="762" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C762" s="2"/>
-    </row>
-    <row r="763" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C763" s="2"/>
-    </row>
-    <row r="764" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C764" s="2"/>
-    </row>
-    <row r="765" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C765" s="2"/>
-    </row>
-    <row r="766" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C766" s="2"/>
-    </row>
-    <row r="767" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C767" s="2"/>
-    </row>
-    <row r="768" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C768" s="2"/>
-    </row>
-    <row r="769" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C769" s="2"/>
-    </row>
-    <row r="770" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C770" s="2"/>
-    </row>
-    <row r="771" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C771" s="2"/>
-    </row>
-    <row r="772" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C772" s="2"/>
-    </row>
-    <row r="773" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C773" s="2"/>
-    </row>
-    <row r="774" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C774" s="2"/>
-    </row>
-    <row r="775" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C775" s="2"/>
-    </row>
-    <row r="776" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C776" s="2"/>
-    </row>
-    <row r="777" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C777" s="2"/>
-    </row>
-    <row r="778" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C778" s="2"/>
-    </row>
-    <row r="779" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C779" s="2"/>
-    </row>
-    <row r="780" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C780" s="2"/>
-    </row>
-    <row r="781" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C781" s="2"/>
-    </row>
-    <row r="782" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C782" s="2"/>
-    </row>
-    <row r="783" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C783" s="2"/>
-    </row>
-    <row r="784" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C784" s="2"/>
-    </row>
-    <row r="785" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C785" s="2"/>
-    </row>
-    <row r="786" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C786" s="2"/>
-    </row>
-    <row r="787" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C787" s="2"/>
-    </row>
-    <row r="788" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C788" s="2"/>
-    </row>
-    <row r="789" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C789" s="2"/>
-    </row>
-    <row r="790" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C790" s="2"/>
-    </row>
-    <row r="791" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C791" s="2"/>
-    </row>
-    <row r="792" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C792" s="2"/>
-    </row>
-    <row r="793" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C793" s="2"/>
-    </row>
-    <row r="794" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C794" s="2"/>
-    </row>
-    <row r="795" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C795" s="2"/>
-    </row>
-    <row r="796" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C796" s="2"/>
-    </row>
-    <row r="797" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C797" s="2"/>
-    </row>
-    <row r="798" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C798" s="2"/>
-    </row>
-    <row r="799" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C799" s="2"/>
-    </row>
-    <row r="800" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C800" s="2"/>
-    </row>
-    <row r="801" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C801" s="2"/>
-    </row>
-    <row r="802" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C802" s="2"/>
-    </row>
-    <row r="803" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C803" s="2"/>
-    </row>
-    <row r="804" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C804" s="2"/>
-    </row>
-    <row r="805" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C805" s="2"/>
-    </row>
-    <row r="806" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C806" s="2"/>
-    </row>
-    <row r="807" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C807" s="2"/>
-    </row>
-    <row r="808" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C808" s="2"/>
-    </row>
-    <row r="809" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C809" s="2"/>
-    </row>
-    <row r="810" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C810" s="2"/>
-    </row>
-    <row r="811" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C811" s="2"/>
-    </row>
-    <row r="812" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C812" s="2"/>
-    </row>
-    <row r="813" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C813" s="2"/>
-    </row>
-    <row r="814" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C814" s="2"/>
-    </row>
-    <row r="815" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C815" s="2"/>
-    </row>
-    <row r="816" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C816" s="2"/>
-    </row>
-    <row r="817" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C817" s="2"/>
-    </row>
-    <row r="818" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C818" s="2"/>
-    </row>
-    <row r="819" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C819" s="2"/>
-    </row>
-    <row r="820" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C820" s="2"/>
-    </row>
-    <row r="821" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C821" s="2"/>
-    </row>
-    <row r="822" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C822" s="2"/>
-    </row>
-    <row r="823" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C823" s="2"/>
-    </row>
-    <row r="824" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C824" s="2"/>
-    </row>
-    <row r="825" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C825" s="2"/>
-    </row>
-    <row r="826" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C826" s="2"/>
-    </row>
-    <row r="827" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C827" s="2"/>
-    </row>
-    <row r="828" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C828" s="2"/>
-    </row>
-    <row r="829" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C829" s="2"/>
-    </row>
-    <row r="830" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C830" s="2"/>
-    </row>
-    <row r="831" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C831" s="2"/>
-    </row>
-    <row r="832" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C832" s="2"/>
-    </row>
-    <row r="833" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C833" s="2"/>
-    </row>
-    <row r="834" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C834" s="2"/>
-    </row>
-    <row r="835" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C835" s="2"/>
-    </row>
-    <row r="836" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C836" s="2"/>
-    </row>
-    <row r="837" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C837" s="2"/>
-    </row>
-    <row r="838" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C838" s="2"/>
-    </row>
-    <row r="839" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C839" s="2"/>
-    </row>
-    <row r="840" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C840" s="2"/>
-    </row>
-    <row r="841" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C841" s="2"/>
-    </row>
-    <row r="842" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C842" s="2"/>
-    </row>
-    <row r="843" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C843" s="2"/>
-    </row>
-    <row r="844" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C844" s="2"/>
-    </row>
-    <row r="845" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C845" s="2"/>
-    </row>
-    <row r="846" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C846" s="2"/>
-    </row>
-    <row r="847" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C847" s="2"/>
-    </row>
-    <row r="848" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C848" s="2"/>
-    </row>
-    <row r="849" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C849" s="2"/>
-    </row>
-    <row r="850" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C850" s="2"/>
-    </row>
-    <row r="851" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C851" s="2"/>
-    </row>
-    <row r="852" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C852" s="2"/>
-    </row>
-    <row r="853" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C853" s="2"/>
-    </row>
-    <row r="854" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C854" s="2"/>
-    </row>
-    <row r="855" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C855" s="2"/>
-    </row>
-    <row r="856" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C856" s="2"/>
-    </row>
-    <row r="857" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C857" s="2"/>
-    </row>
-    <row r="858" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C858" s="2"/>
-    </row>
-    <row r="859" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C859" s="2"/>
-    </row>
-    <row r="860" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C860" s="2"/>
-    </row>
-    <row r="861" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C861" s="2"/>
-    </row>
-    <row r="862" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C862" s="2"/>
-    </row>
-    <row r="863" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C863" s="2"/>
-    </row>
-    <row r="864" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C864" s="2"/>
-    </row>
-    <row r="865" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C865" s="2"/>
-    </row>
-    <row r="866" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C866" s="2"/>
-    </row>
-    <row r="867" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C867" s="2"/>
-    </row>
-    <row r="868" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C868" s="2"/>
-    </row>
-    <row r="869" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C869" s="2"/>
-    </row>
-    <row r="870" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C870" s="2"/>
-    </row>
-    <row r="871" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C871" s="2"/>
-    </row>
-    <row r="872" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C872" s="2"/>
-    </row>
-    <row r="873" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C873" s="2"/>
-    </row>
-    <row r="874" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C874" s="2"/>
-    </row>
-    <row r="875" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C875" s="2"/>
-    </row>
-    <row r="876" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C876" s="2"/>
-    </row>
-    <row r="877" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C877" s="2"/>
-    </row>
-    <row r="878" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C878" s="2"/>
-    </row>
-    <row r="879" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C879" s="2"/>
-    </row>
-    <row r="880" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C880" s="2"/>
-    </row>
-    <row r="881" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C881" s="2"/>
-    </row>
-    <row r="882" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C882" s="2"/>
-    </row>
-    <row r="883" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C883" s="2"/>
-    </row>
-    <row r="884" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C884" s="2"/>
-    </row>
-    <row r="885" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C885" s="2"/>
-    </row>
-    <row r="886" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C886" s="2"/>
-    </row>
-    <row r="887" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C887" s="2"/>
-    </row>
-    <row r="888" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C888" s="2"/>
-    </row>
-    <row r="889" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C889" s="2"/>
-    </row>
-    <row r="890" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C890" s="2"/>
-    </row>
-    <row r="891" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C891" s="2"/>
-    </row>
-    <row r="892" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C892" s="2"/>
-    </row>
-    <row r="893" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C893" s="2"/>
-    </row>
-    <row r="894" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C894" s="2"/>
-    </row>
-    <row r="895" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C895" s="2"/>
-    </row>
-    <row r="896" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C896" s="2"/>
-    </row>
-    <row r="897" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C897" s="2"/>
-    </row>
-    <row r="898" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C898" s="2"/>
-    </row>
-    <row r="899" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C899" s="2"/>
-    </row>
-    <row r="900" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C900" s="2"/>
-    </row>
-    <row r="901" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C901" s="2"/>
-    </row>
-    <row r="902" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C902" s="2"/>
-    </row>
-    <row r="903" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C903" s="2"/>
-    </row>
-    <row r="904" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C904" s="2"/>
-    </row>
-    <row r="905" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C905" s="2"/>
-    </row>
-    <row r="906" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C906" s="2"/>
-    </row>
-    <row r="907" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C907" s="2"/>
-    </row>
-    <row r="908" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C908" s="2"/>
-    </row>
-    <row r="909" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C909" s="2"/>
-    </row>
-    <row r="910" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C910" s="2"/>
-    </row>
-    <row r="911" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C911" s="2"/>
-    </row>
-    <row r="912" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C912" s="2"/>
-    </row>
-    <row r="913" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C913" s="2"/>
-    </row>
-    <row r="914" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C914" s="2"/>
-    </row>
-    <row r="915" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C915" s="2"/>
-    </row>
-    <row r="916" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C916" s="2"/>
-    </row>
-    <row r="917" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C917" s="2"/>
-    </row>
-    <row r="918" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C918" s="2"/>
-    </row>
-    <row r="919" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C919" s="2"/>
-    </row>
-    <row r="920" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C920" s="2"/>
-    </row>
-    <row r="921" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C921" s="2"/>
-    </row>
-    <row r="922" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C922" s="2"/>
-    </row>
-    <row r="923" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C923" s="2"/>
-    </row>
-    <row r="924" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C924" s="2"/>
-    </row>
-    <row r="925" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C925" s="2"/>
-    </row>
-    <row r="926" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C926" s="2"/>
-    </row>
-    <row r="927" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C927" s="2"/>
-    </row>
-    <row r="928" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C928" s="2"/>
-    </row>
-    <row r="929" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C929" s="2"/>
-    </row>
-    <row r="930" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C930" s="2"/>
-    </row>
-    <row r="931" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C931" s="2"/>
-    </row>
-    <row r="932" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C932" s="2"/>
-    </row>
-    <row r="933" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C933" s="2"/>
-    </row>
-    <row r="934" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C934" s="2"/>
-    </row>
-    <row r="935" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C935" s="2"/>
-    </row>
-    <row r="936" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C936" s="2"/>
-    </row>
-    <row r="937" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C937" s="2"/>
-    </row>
-    <row r="938" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C938" s="2"/>
-    </row>
-    <row r="939" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C939" s="2"/>
-    </row>
-    <row r="940" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C940" s="2"/>
-    </row>
-    <row r="941" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C941" s="2"/>
-    </row>
-    <row r="942" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C942" s="2"/>
-    </row>
-    <row r="943" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C943" s="2"/>
-    </row>
-    <row r="944" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C944" s="2"/>
-    </row>
-    <row r="945" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C945" s="2"/>
-    </row>
-    <row r="946" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C946" s="2"/>
-    </row>
-    <row r="947" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C947" s="2"/>
-    </row>
-    <row r="948" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C948" s="2"/>
-    </row>
-    <row r="949" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C949" s="2"/>
-    </row>
-    <row r="950" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C950" s="2"/>
-    </row>
-    <row r="951" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C951" s="2"/>
-    </row>
-    <row r="952" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C952" s="2"/>
-    </row>
-    <row r="953" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C953" s="2"/>
-    </row>
-    <row r="954" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C954" s="2"/>
-    </row>
-    <row r="955" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C955" s="2"/>
-    </row>
-    <row r="956" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C956" s="2"/>
-    </row>
-    <row r="957" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C957" s="2"/>
-    </row>
-    <row r="958" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C958" s="2"/>
-    </row>
-    <row r="959" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C959" s="2"/>
-    </row>
-    <row r="960" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C960" s="2"/>
-    </row>
-    <row r="961" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C961" s="2"/>
-    </row>
-    <row r="962" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C962" s="2"/>
-    </row>
-    <row r="963" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C963" s="2"/>
-    </row>
-    <row r="964" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C964" s="2"/>
-    </row>
-    <row r="965" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C965" s="2"/>
-    </row>
-    <row r="966" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C966" s="2"/>
-    </row>
-    <row r="967" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C967" s="2"/>
-    </row>
-    <row r="968" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C968" s="2"/>
-    </row>
-    <row r="969" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C969" s="2"/>
-    </row>
-    <row r="970" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C970" s="2"/>
-    </row>
-    <row r="971" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C971" s="2"/>
-    </row>
-    <row r="972" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C972" s="2"/>
-    </row>
-    <row r="973" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C973" s="2"/>
-    </row>
-    <row r="974" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C974" s="2"/>
-    </row>
-    <row r="975" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C975" s="2"/>
-    </row>
-    <row r="976" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C976" s="2"/>
-    </row>
-    <row r="977" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C977" s="2"/>
-    </row>
-    <row r="978" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C978" s="2"/>
-    </row>
-    <row r="979" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C979" s="2"/>
-    </row>
-    <row r="980" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C980" s="2"/>
-    </row>
-    <row r="981" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C981" s="2"/>
-    </row>
-    <row r="982" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C982" s="2"/>
-    </row>
-    <row r="983" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C983" s="2"/>
-    </row>
-    <row r="984" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C984" s="2"/>
-    </row>
-    <row r="985" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C985" s="2"/>
-    </row>
-    <row r="986" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C986" s="2"/>
-    </row>
-    <row r="987" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C987" s="2"/>
-    </row>
-    <row r="988" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C988" s="2"/>
-    </row>
-    <row r="989" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C989" s="2"/>
-    </row>
-    <row r="990" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C990" s="2"/>
-    </row>
-    <row r="991" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C991" s="2"/>
-    </row>
-    <row r="992" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C992" s="2"/>
-    </row>
-    <row r="993" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C993" s="2"/>
-    </row>
-    <row r="994" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C994" s="2"/>
-    </row>
-    <row r="995" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C995" s="2"/>
-    </row>
-    <row r="996" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C996" s="2"/>
-    </row>
-    <row r="997" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C997" s="2"/>
-    </row>
-    <row r="998" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C998" s="2"/>
-    </row>
-    <row r="999" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C999" s="2"/>
-    </row>
-    <row r="1000" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1000" s="2"/>
-    </row>
-    <row r="1001" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1001" s="2"/>
-    </row>
-    <row r="1002" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1002" s="2"/>
-    </row>
-    <row r="1003" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1003" s="2"/>
-    </row>
-    <row r="1004" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1004" s="2"/>
-    </row>
-    <row r="1005" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1005" s="2"/>
-    </row>
-    <row r="1006" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1006" s="2"/>
-    </row>
-    <row r="1007" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1007" s="2"/>
-    </row>
-    <row r="1008" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1008" s="2"/>
-    </row>
-    <row r="1009" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1009" s="2"/>
-    </row>
-    <row r="1010" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1010" s="2"/>
-    </row>
-    <row r="1011" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1011" s="2"/>
-    </row>
-    <row r="1012" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1012" s="2"/>
-    </row>
-    <row r="1013" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1013" s="2"/>
-    </row>
-    <row r="1014" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1014" s="2"/>
-    </row>
-    <row r="1015" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1015" s="2"/>
-    </row>
-    <row r="1016" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1016" s="2"/>
-    </row>
-    <row r="1017" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1017" s="2"/>
-    </row>
-    <row r="1018" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1018" s="2"/>
-    </row>
-    <row r="1019" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1019" s="2"/>
-    </row>
-    <row r="1020" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1020" s="2"/>
-    </row>
-    <row r="1021" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1021" s="2"/>
-    </row>
-    <row r="1022" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1022" s="2"/>
-    </row>
-    <row r="1023" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1023" s="2"/>
-    </row>
-    <row r="1024" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1024" s="2"/>
-    </row>
-    <row r="1025" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1025" s="2"/>
-    </row>
-    <row r="1026" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1026" s="2"/>
-    </row>
-    <row r="1027" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1027" s="2"/>
-    </row>
-    <row r="1028" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1028" s="2"/>
-    </row>
-    <row r="1029" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1029" s="2"/>
-    </row>
-    <row r="1030" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1030" s="2"/>
-    </row>
-    <row r="1031" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1031" s="2"/>
-    </row>
-    <row r="1032" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1032" s="2"/>
-    </row>
-    <row r="1033" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1033" s="2"/>
-    </row>
-    <row r="1034" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1034" s="2"/>
-    </row>
-    <row r="1035" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1035" s="2"/>
-    </row>
-    <row r="1036" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1036" s="2"/>
-    </row>
-    <row r="1037" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1037" s="2"/>
-    </row>
-    <row r="1038" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1038" s="2"/>
-    </row>
-    <row r="1039" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1039" s="2"/>
-    </row>
-    <row r="1040" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1040" s="2"/>
-    </row>
-    <row r="1041" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1041" s="2"/>
-    </row>
-    <row r="1042" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1042" s="2"/>
-    </row>
-    <row r="1043" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1043" s="2"/>
-    </row>
-    <row r="1044" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1044" s="2"/>
-    </row>
-    <row r="1045" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1045" s="2"/>
-    </row>
-    <row r="1046" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1046" s="2"/>
-    </row>
-    <row r="1047" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1047" s="2"/>
-    </row>
-    <row r="1048" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1048" s="2"/>
-    </row>
-    <row r="1049" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1049" s="2"/>
-    </row>
-    <row r="1050" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1050" s="2"/>
-    </row>
-    <row r="1051" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1051" s="2"/>
-    </row>
-    <row r="1052" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1052" s="2"/>
-    </row>
-    <row r="1053" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1053" s="2"/>
-    </row>
-    <row r="1054" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1054" s="2"/>
-    </row>
-    <row r="1055" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1055" s="2"/>
-    </row>
-    <row r="1056" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1056" s="2"/>
-    </row>
-    <row r="1057" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1057" s="2"/>
-    </row>
-    <row r="1058" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1058" s="2"/>
-    </row>
-    <row r="1059" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1059" s="2"/>
-    </row>
-    <row r="1060" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1060" s="2"/>
-    </row>
-    <row r="1061" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1061" s="2"/>
-    </row>
-    <row r="1062" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1062" s="2"/>
-    </row>
-    <row r="1063" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1063" s="2"/>
-    </row>
-    <row r="1064" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1064" s="2"/>
-    </row>
-    <row r="1065" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1065" s="2"/>
-    </row>
-    <row r="1066" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1066" s="2"/>
-    </row>
-    <row r="1067" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1067" s="2"/>
-    </row>
-    <row r="1068" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1068" s="2"/>
-    </row>
-    <row r="1069" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1069" s="2"/>
-    </row>
-    <row r="1070" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1070" s="2"/>
-    </row>
-    <row r="1071" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1071" s="2"/>
-    </row>
-    <row r="1072" spans="3:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1072" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/jarakdesa_test.xlsx
+++ b/jarakdesa_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iqbal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3DE04D-E8E9-468A-9957-B062FB2AF742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD41A407-7209-44BE-9EBA-8FE70C513790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CF3552AC-5646-42CE-A235-903B495CD93A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="221">
   <si>
     <t>iddesa1</t>
   </si>
@@ -744,7 +744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -753,6 +753,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1069,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E944A46A-0E88-4837-9AFF-633AF20CCA60}">
   <dimension ref="A1:C238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="F235" sqref="F235"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2447,8 +2448,8 @@
       <c r="A125" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>106</v>
+      <c r="B125" s="4">
+        <v>6110030101</v>
       </c>
       <c r="C125" s="1">
         <v>8.1999999999999993</v>

--- a/jarakdesa_test.xlsx
+++ b/jarakdesa_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iqbal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD41A407-7209-44BE-9EBA-8FE70C513790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B116D690-DED1-4D4F-BF2C-ED4DEFF06FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CF3552AC-5646-42CE-A235-903B495CD93A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="221">
   <si>
     <t>iddesa1</t>
   </si>
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:C238"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2434,8 +2434,8 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="2" t="s">
-        <v>115</v>
+      <c r="A124" s="4">
+        <v>6110030101</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>106</v>

--- a/jarakdesa_test.xlsx
+++ b/jarakdesa_test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iqbal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B116D690-DED1-4D4F-BF2C-ED4DEFF06FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77B9F08D-A178-4387-8F83-6991739B84F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CF3552AC-5646-42CE-A235-903B495CD93A}"/>
   </bookViews>
@@ -744,7 +744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -754,6 +754,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1068,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E944A46A-0E88-4837-9AFF-633AF20CCA60}">
-  <dimension ref="A1:C238"/>
+  <dimension ref="A1:C239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="C240" sqref="C240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3698,6 +3701,17 @@
         <v>1.7</v>
       </c>
     </row>
+    <row r="239" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A239" s="1">
+        <v>6110051010</v>
+      </c>
+      <c r="B239" s="5">
+        <v>6110051009</v>
+      </c>
+      <c r="C239" s="3">
+        <v>7.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/jarakdesa_test.xlsx
+++ b/jarakdesa_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iqbal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77B9F08D-A178-4387-8F83-6991739B84F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF457884-B3DA-4375-BB9B-1CD9EC98DE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CF3552AC-5646-42CE-A235-903B495CD93A}"/>
   </bookViews>
@@ -1073,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E944A46A-0E88-4837-9AFF-633AF20CCA60}">
   <dimension ref="A1:C239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="C240" sqref="C240"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>59</v>

--- a/jarakdesa_test.xlsx
+++ b/jarakdesa_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iqbal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF457884-B3DA-4375-BB9B-1CD9EC98DE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6309C3B9-0671-49D1-A609-9C1EE52AA70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CF3552AC-5646-42CE-A235-903B495CD93A}"/>
   </bookViews>
@@ -1073,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E944A46A-0E88-4837-9AFF-633AF20CCA60}">
   <dimension ref="A1:C239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2213,7 +2213,7 @@
         <v>80</v>
       </c>
       <c r="C103" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/jarakdesa_test.xlsx
+++ b/jarakdesa_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iqbal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6309C3B9-0671-49D1-A609-9C1EE52AA70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA464EC3-6B4E-4097-8595-AA1CD36DBA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CF3552AC-5646-42CE-A235-903B495CD93A}"/>
   </bookViews>
@@ -1073,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E944A46A-0E88-4837-9AFF-633AF20CCA60}">
   <dimension ref="A1:C239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="A239" sqref="A239:C239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3702,15 +3702,8 @@
       </c>
     </row>
     <row r="239" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A239" s="1">
-        <v>6110051010</v>
-      </c>
-      <c r="B239" s="5">
-        <v>6110051009</v>
-      </c>
-      <c r="C239" s="3">
-        <v>7.8</v>
-      </c>
+      <c r="A239" s="1"/>
+      <c r="B239" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
